--- a/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
+++ b/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="13065" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet name="测试用例集合" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="测试用例集合" r:id="rId1" sheetId="2"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <oleSize ref="A1:D2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="1">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -39,7 +39,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>测试用例执行成功</t>
+    <t>测试用例执行失败</t>
   </si>
   <si>
     <t>测试用例步骤序号</t>
@@ -69,6 +69,9 @@
     <t>chrome</t>
   </si>
   <si>
+    <t>测试用例步骤执行成功</t>
+  </si>
+  <si>
     <t>TestStep_02</t>
   </si>
   <si>
@@ -120,7 +123,7 @@
     <t>loginPage.username</t>
   </si>
   <si>
-    <t>username</t>
+    <t>415304492</t>
   </si>
   <si>
     <t>TestStep_06</t>
@@ -132,7 +135,7 @@
     <t>loginPage.password</t>
   </si>
   <si>
-    <t>password</t>
+    <t>Administrator1</t>
   </si>
   <si>
     <t>TestStep_07</t>
@@ -165,7 +168,10 @@
     <t>loginPage.ipassword</t>
   </si>
   <si>
-    <t>independentPassword</t>
+    <t>a415304492</t>
+  </si>
+  <si>
+    <t>测试用例步骤执行失败</t>
   </si>
   <si>
     <t>TestStep_10</t>
@@ -329,6 +335,9 @@
   </si>
   <si>
     <t>close_browser</t>
+  </si>
+  <si>
+    <t>测试用例执行成功</t>
   </si>
 </sst>
 </file>
@@ -336,10 +345,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -374,6 +383,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -390,23 +437,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,6 +475,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -435,30 +490,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,25 +506,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,14 +518,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -525,19 +534,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,13 +636,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +672,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -579,19 +690,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,103 +708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,6 +752,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -754,24 +787,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,248 +826,296 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="22" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="14" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="13" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="13" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="8" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="64">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="10">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="10">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1066,10 +1129,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1233,21 +1296,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1264,7 +1327,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1317,23 +1380,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="24.5" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="10.875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="20.75" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" customHeight="1" spans="1:4">
+    <row customHeight="1" ht="28.5" r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:4">
+    <row customHeight="1" ht="20.1" r="2" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1357,35 +1420,35 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2" t="s" s="63">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.25" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.75" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="23.5" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="2" width="23.5" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="2" width="36.875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="22.125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1411,7 +1474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1428,179 +1491,209 @@
       <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="E8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" ht="27" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s" s="22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s" s="24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s" s="26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1608,17 +1701,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1626,55 +1722,64 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row ht="27" r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" ht="40.5" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row ht="40.5" r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1682,93 +1787,108 @@
         <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" ht="27" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row ht="27" r="17" spans="1:6">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" ht="27" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row ht="27" r="18" spans="1:6">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row ht="40.5" r="19" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" ht="27" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row ht="27" r="20" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1776,35 +1896,41 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" ht="40.5" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row ht="40.5" r="22" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1812,17 +1938,20 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1830,17 +1959,20 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1848,17 +1980,20 @@
         <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1866,17 +2001,20 @@
         <v>4</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1884,17 +2022,20 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1902,26 +2043,29 @@
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1" display="***@163.com" tooltip="mailto:luojiahuii@163.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="http://mail.qq.com" tooltip="http://mail.qq.com"/>
+    <hyperlink display="***@163.com" r:id="rId1" ref="F15" tooltip="mailto:luojiahuii@163.com"/>
+    <hyperlink display="http://mail.qq.com" r:id="rId2" ref="F3" tooltip="http://mail.qq.com"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
+++ b/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="测试用例集合" r:id="rId1" sheetId="2"/>
-    <sheet name="Sheet1" r:id="rId2" sheetId="1"/>
+    <sheet name="测试用例" r:id="rId2" sheetId="1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <oleSize ref="A1:D2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="3">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -39,7 +39,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>测试用例执行失败</t>
+    <t>TestBaidu</t>
   </si>
   <si>
     <t>测试用例步骤序号</t>
@@ -69,9 +69,6 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>测试用例步骤执行成功</t>
-  </si>
-  <si>
     <t>TestStep_02</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
   </si>
   <si>
     <t>a415304492</t>
-  </si>
-  <si>
-    <t>测试用例步骤执行失败</t>
   </si>
   <si>
     <t>TestStep_10</t>
@@ -220,7 +214,7 @@
     <t>press_CtrlV</t>
   </si>
   <si>
-    <t>***@163.com</t>
+    <t>luojiahuii@163.com</t>
   </si>
   <si>
     <t>TestStep_15</t>
@@ -283,7 +277,7 @@
 "文件path"字符串粘贴到收件人文本框上</t>
   </si>
   <si>
-    <t>文件path</t>
+    <t>E:\1.html</t>
   </si>
   <si>
     <t>TestStep_22</t>
@@ -337,7 +331,16 @@
     <t>close_browser</t>
   </si>
   <si>
+    <t>http://www.baidu.com</t>
+  </si>
+  <si>
+    <t>测试用例步骤执行成功</t>
+  </si>
+  <si>
     <t>测试用例执行成功</t>
+  </si>
+  <si>
+    <t>测试用例步骤执行失败</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,14 +445,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -415,45 +454,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,7 +484,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -484,14 +492,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,21 +514,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +537,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -546,169 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,45 +746,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -787,26 +757,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,16 +784,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="22" fontId="18" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="9" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -852,135 +861,135 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="8" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="12" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="4" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="14" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="13" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="13" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="8" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="12" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="18" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="18" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="19" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="96">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" indent="1" vertical="center"/>
@@ -1006,9 +1015,45 @@
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="10">
       <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1382,18 +1427,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="24.5" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="10.875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="20.75" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="28.5" r="1" spans="1:4">
@@ -1410,7 +1455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="2" spans="1:4">
+    <row customHeight="1" ht="20.1" r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1420,7 +1465,19 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="63">
+      <c r="D2" s="91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="95" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1434,21 +1491,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="17.25" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="24.75" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="23.5" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="2" width="23.5" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="2" width="36.875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="22.125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="36.875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1474,7 +1531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1491,209 +1548,209 @@
       <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="10">
+      <c r="G2" s="38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row ht="27" r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s" s="14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s" s="16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s" s="18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row ht="27" r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s" s="20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s" s="22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s" s="24">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row ht="27" r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G10" t="s" s="26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1701,20 +1758,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1722,20 +1779,20 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>17</v>
+      <c r="G13" s="60" t="s">
+        <v>104</v>
       </c>
     </row>
     <row ht="27" r="14" spans="1:6">
@@ -1743,22 +1800,22 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>104</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:6">
@@ -1766,20 +1823,20 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>17</v>
+        <v>65</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1787,20 +1844,20 @@
         <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>17</v>
+        <v>67</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>104</v>
       </c>
     </row>
     <row ht="27" r="17" spans="1:6">
@@ -1808,22 +1865,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>17</v>
+      <c r="G17" s="68" t="s">
+        <v>104</v>
       </c>
     </row>
     <row ht="27" r="18" spans="1:6">
@@ -1831,20 +1888,20 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>104</v>
       </c>
     </row>
     <row ht="40.5" r="19" spans="1:6">
@@ -1852,20 +1909,20 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>17</v>
+        <v>77</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>104</v>
       </c>
     </row>
     <row ht="27" r="20" spans="1:6">
@@ -1873,22 +1930,22 @@
         <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1896,20 +1953,20 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>17</v>
+      <c r="G21" s="76" t="s">
+        <v>104</v>
       </c>
     </row>
     <row ht="40.5" r="22" spans="1:6">
@@ -1917,20 +1974,20 @@
         <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>17</v>
+        <v>85</v>
+      </c>
+      <c r="G22" s="78" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1938,20 +1995,20 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="G23" s="80" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1959,20 +2016,20 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>17</v>
+      <c r="G24" s="82" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1980,20 +2037,20 @@
         <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="56" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="G25" s="84" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2001,20 +2058,20 @@
         <v>4</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="58" t="s">
-        <v>17</v>
+      <c r="F26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="86" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2022,20 +2079,20 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>17</v>
+      <c r="G27" s="88" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2043,26 +2100,78 @@
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="92" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="94" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="***@163.com" r:id="rId1" ref="F15" tooltip="mailto:luojiahuii@163.com"/>
+    <hyperlink display="luojiahuii@163.com" r:id="rId1" ref="F15" tooltip="mailto:luojiahuii@163.com"/>
     <hyperlink display="http://mail.qq.com" r:id="rId2" ref="F3" tooltip="http://mail.qq.com"/>
+    <hyperlink display="http://www.baidu.com" r:id="rId3" ref="F31" tooltip="http://www.baidu.com"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
+++ b/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="13065" windowWidth="28695"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="测试用例集合" r:id="rId1" sheetId="2"/>
-    <sheet name="测试用例" r:id="rId2" sheetId="1"/>
+    <sheet name="测试用例集合" sheetId="2" r:id="rId1"/>
+    <sheet name="测试用例" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <oleSize ref="A1:D2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -39,6 +39,9 @@
     <t>y</t>
   </si>
   <si>
+    <t>测试用例执行成功</t>
+  </si>
+  <si>
     <t>TestBaidu</t>
   </si>
   <si>
@@ -69,6 +72,9 @@
     <t>chrome</t>
   </si>
   <si>
+    <t>测试用例步骤执行成功</t>
+  </si>
+  <si>
     <t>TestStep_02</t>
   </si>
   <si>
@@ -132,7 +138,7 @@
     <t>loginPage.password</t>
   </si>
   <si>
-    <t>Administrator1</t>
+    <t>*********</t>
   </si>
   <si>
     <t>TestStep_07</t>
@@ -163,9 +169,6 @@
   </si>
   <si>
     <t>loginPage.ipassword</t>
-  </si>
-  <si>
-    <t>a415304492</t>
   </si>
   <si>
     <t>TestStep_10</t>
@@ -332,15 +335,6 @@
   </si>
   <si>
     <t>http://www.baidu.com</t>
-  </si>
-  <si>
-    <t>测试用例步骤执行成功</t>
-  </si>
-  <si>
-    <t>测试用例执行成功</t>
-  </si>
-  <si>
-    <t>测试用例步骤执行失败</t>
   </si>
 </sst>
 </file>
@@ -348,10 +342,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -387,9 +381,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,7 +456,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,28 +464,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,6 +493,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -459,68 +515,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -543,6 +537,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -567,25 +627,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,60 +687,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -682,42 +712,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,36 +736,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,11 +769,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,338 +829,249 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="9" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="4" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="18" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="18" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="19" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" indent="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="10">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="10">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" indent="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1174,10 +1085,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1341,21 +1252,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1372,7 +1283,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1425,23 +1336,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.75" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="28.5" r="1" spans="1:4">
+    <row r="1" ht="28.5" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="2" spans="1:3">
+    <row r="2" ht="20.1" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1465,47 +1376,47 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="95" t="s">
-        <v>105</v>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.25" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="24.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="23.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="36.875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.125" collapsed="true"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1513,607 +1424,607 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row ht="27" r="5" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="E8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row ht="27" r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row ht="27" r="11" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row ht="27" r="14" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row ht="40.5" r="15" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="64" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="66" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row ht="27" r="17" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row ht="27" r="18" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="1:7">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row ht="40.5" r="19" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" spans="1:7">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row ht="27" r="20" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:7">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row ht="40.5" r="22" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="40.5" spans="1:7">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>92</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="84" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>100</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="90" t="s">
-        <v>104</v>
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2125,56 +2036,56 @@
       <c r="F29" s="11"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="94" t="s">
         <v>104</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="luojiahuii@163.com" r:id="rId1" ref="F15" tooltip="mailto:luojiahuii@163.com"/>
-    <hyperlink display="http://mail.qq.com" r:id="rId2" ref="F3" tooltip="http://mail.qq.com"/>
-    <hyperlink display="http://www.baidu.com" r:id="rId3" ref="F31" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="F15" r:id="rId1" display="luojiahuii@163.com" tooltip="mailto:luojiahuii@163.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="http://mail.qq.com" tooltip="http://mail.qq.com"/>
+    <hyperlink ref="F31" r:id="rId3" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
+++ b/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
@@ -11,12 +11,12 @@
     <sheet name="测试用例" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <oleSize ref="A166:D167"/>
+  <oleSize ref="A181:D182"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -51,45 +51,48 @@
     <t>添加模型</t>
   </si>
   <si>
+    <t>selelctModelName</t>
+  </si>
+  <si>
+    <t>根据模型名称查询</t>
+  </si>
+  <si>
+    <t>updateModel</t>
+  </si>
+  <si>
+    <t>编辑模型</t>
+  </si>
+  <si>
+    <t>viewModel</t>
+  </si>
+  <si>
+    <t>查看模型详情</t>
+  </si>
+  <si>
+    <t>exclusiveModel</t>
+  </si>
+  <si>
+    <t>模型专属设定</t>
+  </si>
+  <si>
+    <t>exportModel</t>
+  </si>
+  <si>
+    <t>模型导出</t>
+  </si>
+  <si>
+    <t>测试用例执行失败</t>
+  </si>
+  <si>
+    <t>modelUpGoods</t>
+  </si>
+  <si>
+    <t>模型升级为商品</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
-    <t>selelctModelName</t>
-  </si>
-  <si>
-    <t>根据模型名称查询</t>
-  </si>
-  <si>
-    <t>updateModel</t>
-  </si>
-  <si>
-    <t>编辑模型</t>
-  </si>
-  <si>
-    <t>viewModel</t>
-  </si>
-  <si>
-    <t>查看模型详情</t>
-  </si>
-  <si>
-    <t>exclusiveModel</t>
-  </si>
-  <si>
-    <t>模型专属设定</t>
-  </si>
-  <si>
-    <t>exportModel</t>
-  </si>
-  <si>
-    <t>模型导出</t>
-  </si>
-  <si>
-    <t>modelUpGoods</t>
-  </si>
-  <si>
-    <t>模型升级为商品</t>
-  </si>
-  <si>
     <t>enableModel</t>
   </si>
   <si>
@@ -150,9 +153,6 @@
     <t>编辑材质</t>
   </si>
   <si>
-    <t>测试用例执行失败</t>
-  </si>
-  <si>
     <t>exportMaterial</t>
   </si>
   <si>
@@ -480,9 +480,18 @@
     <t>TestModelCyanUpdate</t>
   </si>
   <si>
+    <t>点击保存</t>
+  </si>
+  <si>
     <t>updataModelPage.updateModelSave</t>
   </si>
   <si>
+    <t>点击返回按钮</t>
+  </si>
+  <si>
+    <t>updataModelPage.updateModelReturnButton</t>
+  </si>
+  <si>
     <t>5000</t>
   </si>
   <si>
@@ -495,9 +504,6 @@
     <t>viewModelPage.viewModelButton</t>
   </si>
   <si>
-    <t>点击返回按钮</t>
-  </si>
-  <si>
     <t>viewModelPage.viewModelReturnButton</t>
   </si>
   <si>
@@ -534,6 +540,9 @@
     <t>exportModelPage.exportModelButton</t>
   </si>
   <si>
+    <t>测试用例步骤执行失败</t>
+  </si>
+  <si>
     <t>https://tumaxadmin.to8to.com/#/material/materiallist</t>
   </si>
   <si>
@@ -738,16 +747,10 @@
     <t>TestMaterialCyanUpdate</t>
   </si>
   <si>
-    <t>点击保存</t>
-  </si>
-  <si>
     <t>MaterialPage.updateMaterialSaveButton</t>
   </si>
   <si>
     <t>MaterialPage.updateMaterialReturnButton</t>
-  </si>
-  <si>
-    <t>测试用例步骤执行失败</t>
   </si>
   <si>
     <t>MaterialPage.firstMaterialName</t>
@@ -765,9 +768,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -787,7 +790,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,24 +810,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,52 +840,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -907,6 +872,52 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -916,15 +927,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,7 +960,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,13 +1020,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,13 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,13 +1062,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,19 +1110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,25 +1122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,55 +1134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,17 +1224,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,31 +1272,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1304,17 +1311,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1324,10 +1327,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1336,131 +1339,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1876,7 +1879,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1931,80 +1934,80 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2015,7 +2018,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>8</v>
@@ -2023,13 +2026,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>8</v>
@@ -2037,13 +2040,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>8</v>
@@ -2059,24 +2062,24 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
@@ -2087,86 +2090,86 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2180,7 +2183,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2193,10 +2196,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177:B182"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2254,7 +2257,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>84</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2455,7 +2458,7 @@
         <v>64</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2476,7 +2479,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2497,7 +2500,7 @@
         <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2520,7 +2523,7 @@
         <v>89</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2541,7 +2544,7 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2562,7 +2565,7 @@
         <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2583,7 +2586,7 @@
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2604,7 +2607,7 @@
         <v>64</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2625,7 +2628,7 @@
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2646,7 +2649,7 @@
         <v>64</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2667,7 +2670,7 @@
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2688,7 +2691,7 @@
         <v>64</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2709,7 +2712,7 @@
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2730,7 +2733,7 @@
         <v>64</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2751,7 +2754,7 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2772,7 +2775,7 @@
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2793,7 +2796,7 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2814,7 +2817,7 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2837,7 +2840,7 @@
         <v>118</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2856,7 +2859,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2877,7 +2880,7 @@
         <v>64</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2898,7 +2901,7 @@
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2919,7 +2922,7 @@
         <v>79</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:7">
@@ -2940,7 +2943,7 @@
         <v>130</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2961,7 +2964,7 @@
         <v>79</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2980,7 +2983,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3001,7 +3004,7 @@
         <v>79</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3022,7 +3025,7 @@
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3043,7 +3046,7 @@
         <v>79</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3064,7 +3067,7 @@
         <v>141</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3085,7 +3088,7 @@
         <v>89</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3149,14 +3152,14 @@
         <v>61</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E46" s="20"/>
-      <c r="F46" s="5" t="s">
-        <v>64</v>
+      <c r="F46" s="5">
+        <v>2000</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>8</v>
@@ -3276,7 +3279,7 @@
     </row>
     <row r="53" ht="27" spans="1:7">
       <c r="A53" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>52</v>
@@ -3292,12 +3295,12 @@
         <v>84</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>57</v>
@@ -3313,12 +3316,12 @@
         <v>64</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>61</v>
@@ -3334,12 +3337,12 @@
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>65</v>
@@ -3357,12 +3360,12 @@
         <v>89</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>70</v>
@@ -3376,7 +3379,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3392,7 +3395,7 @@
     </row>
     <row r="59" ht="27" spans="1:7">
       <c r="A59" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>52</v>
@@ -3408,33 +3411,33 @@
         <v>84</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="32" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>61</v>
@@ -3450,12 +3453,12 @@
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>65</v>
@@ -3473,12 +3476,12 @@
         <v>89</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>70</v>
@@ -3492,12 +3495,12 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>74</v>
@@ -3513,12 +3516,12 @@
         <v>79</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>78</v>
@@ -3534,12 +3537,12 @@
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>80</v>
@@ -3555,12 +3558,12 @@
         <v>64</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>94</v>
@@ -3578,12 +3581,12 @@
         <v>153</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>95</v>
@@ -3599,705 +3602,703 @@
         <v>64</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="32" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>139</v>
+      <c r="C71" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F71" s="5"/>
       <c r="G71" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D74" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" ht="27" spans="1:7">
-      <c r="A74" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" ht="27" spans="1:7">
+      <c r="A76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F76" s="20"/>
       <c r="G76" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F77" s="20" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>120</v>
+        <v>61</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" s="20"/>
       <c r="G78" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="32" t="s">
-        <v>79</v>
+        <v>67</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>157</v>
+        <v>70</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>158</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E81" s="5"/>
-      <c r="F81" s="5" t="s">
-        <v>156</v>
+      <c r="F81" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>139</v>
+        <v>80</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G83" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
+      <c r="D84" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" s="5"/>
       <c r="G84" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" ht="27" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" ht="27" spans="1:7">
+      <c r="A87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F87" s="20"/>
       <c r="G87" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F88" s="20" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>120</v>
+        <v>61</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F89" s="20"/>
       <c r="G89" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="32" t="s">
-        <v>79</v>
+        <v>67</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" ht="27" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>161</v>
+        <v>70</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F91" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
       <c r="G91" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>163</v>
+        <v>74</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>166</v>
+        <v>63</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" ht="27" spans="1:7">
       <c r="A93" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" ht="27" spans="1:7">
+      <c r="A95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F95" s="6"/>
+      <c r="G95" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E94" s="5" t="s">
+      <c r="C96" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F94" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" ht="27" spans="1:7">
-      <c r="A96" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="D96" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" ht="27" spans="1:7">
+      <c r="A98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C98" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5" t="s">
+      <c r="E98" s="5"/>
+      <c r="F98" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G96" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" s="4" t="s">
+      <c r="G98" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D97" s="6" t="s">
+      <c r="C99" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E97" s="5"/>
-      <c r="F97" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" s="4" t="s">
+      <c r="E99" s="5"/>
+      <c r="F99" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D98" s="6" t="s">
+      <c r="C100" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F98" s="28"/>
-      <c r="G98" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" ht="27" spans="1:7">
-      <c r="A100" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B100" s="4" t="s">
+      <c r="E100" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F100" s="28"/>
+      <c r="G100" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" ht="27" spans="1:7">
+      <c r="A102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D102" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5" t="s">
+      <c r="E102" s="5"/>
+      <c r="F102" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F102" s="20"/>
       <c r="G102" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F103" s="20" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>8</v>
@@ -4305,33 +4306,51 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F104" s="20"/>
       <c r="G104" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="G105" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -4344,7 +4363,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -4357,7 +4376,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -4369,85 +4388,69 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
+      <c r="A109" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
       <c r="G109" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" ht="27" spans="1:7">
+    <row r="110" spans="1:7">
       <c r="A110" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B110" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" ht="27" spans="1:7">
+      <c r="A112" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C112" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D112" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E111" s="5"/>
-      <c r="F111" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C112" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F112" s="20"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="G112" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>62</v>
@@ -4465,19 +4468,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="7" t="s">
@@ -4486,10 +4489,10 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>62</v>
@@ -4499,44 +4502,44 @@
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="32" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="116" ht="54" spans="1:7">
+    <row r="116" spans="1:7">
       <c r="A116" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5" t="s">
-        <v>177</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F116" s="20"/>
       <c r="G116" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D117" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E117" s="5"/>
@@ -4547,31 +4550,33 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" ht="54" spans="1:7">
       <c r="A118" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
+      <c r="F118" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="G118" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>126</v>
@@ -4581,7 +4586,7 @@
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="32" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>56</v>
@@ -4589,78 +4594,76 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C120" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F120" s="20"/>
+        <v>94</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
       <c r="G120" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D121" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" s="17" t="s">
         <v>63</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="32" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="122" ht="54" spans="1:7">
+    <row r="122" spans="1:7">
       <c r="A122" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5" t="s">
-        <v>181</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F122" s="20"/>
       <c r="G122" s="7" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D123" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E123" s="5"/>
@@ -4668,34 +4671,36 @@
         <v>79</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" ht="54" spans="1:7">
       <c r="A124" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
+      <c r="F124" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="G124" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>126</v>
@@ -4705,81 +4710,79 @@
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="32" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>183</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D127" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D127" s="17" t="s">
         <v>63</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="32" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>62</v>
@@ -4792,36 +4795,36 @@
         <v>64</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F130" s="20"/>
+        <v>187</v>
+      </c>
+      <c r="F130" s="5"/>
       <c r="G130" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>62</v>
@@ -4834,183 +4837,183 @@
         <v>64</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="132" ht="54" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5" t="s">
-        <v>177</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F132" s="20"/>
       <c r="G132" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D133" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="32" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" ht="54" spans="1:7">
       <c r="A134" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
+      <c r="F134" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="G134" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>63</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="32" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C136" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F136" s="20" t="s">
-        <v>188</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
       <c r="G136" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C137" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F137" s="5"/>
+        <v>131</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="32" t="s">
+        <v>181</v>
+      </c>
       <c r="G137" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>62</v>
+        <v>132</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>189</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F138" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>62</v>
@@ -5023,36 +5026,36 @@
         <v>64</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>62</v>
@@ -5065,36 +5068,36 @@
         <v>64</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="143" ht="27" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B143" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C143" s="24" t="s">
         <v>196</v>
-      </c>
-      <c r="C143" s="24" t="s">
-        <v>197</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>62</v>
@@ -5107,208 +5110,206 @@
         <v>64</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" ht="27" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C145" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="D145" s="6" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="5"/>
+      <c r="G145" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G145" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="146" ht="27" spans="1:7">
-      <c r="A146" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="C146" s="5" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F146" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="G146" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E147" s="5"/>
-      <c r="F147" s="32" t="s">
-        <v>155</v>
+        <v>166</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E148" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C148" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="F148" s="5"/>
       <c r="G148" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="D149" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E149" s="5"/>
+      <c r="F149" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D151" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="26"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27"/>
-      <c r="G150" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" ht="27" spans="1:7">
-      <c r="A151" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E152" s="5"/>
-      <c r="F152" s="32" t="s">
-        <v>64</v>
-      </c>
+      <c r="A152" s="26"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27"/>
       <c r="G152" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" ht="27" spans="1:7">
       <c r="A153" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F153" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="G153" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>188</v>
+        <v>63</v>
+      </c>
+      <c r="E154" s="5"/>
+      <c r="F154" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>56</v>
@@ -5316,472 +5317,474 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E155" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="F155" s="5"/>
       <c r="G155" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="25"/>
-      <c r="B156" s="25"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
+      <c r="A156" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="G156" s="7" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>63</v>
+        <v>120</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="E157" s="5"/>
-      <c r="F157" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="F157" s="5"/>
       <c r="G157" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="158" ht="27" spans="1:7">
-      <c r="A158" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F158" s="5"/>
+    <row r="158" spans="1:7">
+      <c r="A158" s="25"/>
+      <c r="B158" s="25"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
       <c r="G158" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E159" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E159" s="5"/>
+      <c r="F159" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160" ht="27" spans="1:7">
+      <c r="A160" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="161" ht="27" spans="1:7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>164</v>
+        <v>61</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="F161" s="5" t="s">
         <v>221</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="25"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="25"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
+      <c r="A162" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F162" s="5"/>
       <c r="G162" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" ht="27" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E163" s="5"/>
-      <c r="F163" s="32" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="164" ht="27" spans="1:7">
-      <c r="A164" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F164" s="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="25"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
       <c r="G164" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="32" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G165" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" ht="27" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="167" ht="27" spans="1:7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B167" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E167" s="5"/>
+      <c r="F167" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F168" s="5"/>
+      <c r="G168" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" ht="27" spans="1:7">
+      <c r="A169" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="25"/>
-      <c r="B168" s="25"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="25"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E169" s="5"/>
-      <c r="F169" s="32" t="s">
-        <v>79</v>
+      <c r="C169" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="170" ht="27" spans="1:7">
-      <c r="A170" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F170" s="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
       <c r="G170" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C171" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E171" s="5"/>
+      <c r="F171" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="172" ht="27" spans="1:7">
+      <c r="A172" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C172" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D171" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="29"/>
-      <c r="B172" s="29"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
-      <c r="E172" s="31"/>
-      <c r="F172" s="30"/>
+      <c r="D172" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F172" s="5"/>
       <c r="G172" s="7" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E173" s="5"/>
-      <c r="F173" s="32" t="s">
-        <v>79</v>
+        <v>61</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="174" ht="27" spans="1:7">
-      <c r="A174" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F174" s="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="29"/>
+      <c r="B174" s="29"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="30"/>
+      <c r="E174" s="31"/>
+      <c r="F174" s="30"/>
       <c r="G174" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C175" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E175" s="5"/>
+      <c r="F175" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="176" ht="27" spans="1:7">
+      <c r="A176" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D175" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="25"/>
-      <c r="B176" s="25"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="27"/>
+      <c r="D176" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F176" s="5"/>
       <c r="G176" s="7" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E177" s="5"/>
-      <c r="F177" s="32" t="s">
-        <v>79</v>
+        <v>61</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F178" s="5"/>
+      <c r="A178" s="25"/>
+      <c r="B178" s="25"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="25"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
       <c r="G178" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>126</v>
@@ -5799,140 +5802,138 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E180" s="5" t="s">
         <v>231</v>
       </c>
+      <c r="F180" s="5"/>
       <c r="G180" s="7" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F181" s="6" t="s">
-        <v>233</v>
+        <v>61</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E181" s="5"/>
+      <c r="F181" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E182" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F182" s="5"/>
       <c r="G182" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="183" customFormat="1" spans="1:7">
-      <c r="A183" s="25"/>
-      <c r="B183" s="25"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="25"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="27"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="G183" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E184" s="5"/>
-      <c r="F184" s="32" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F184" s="5"/>
       <c r="G184" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F185" s="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" customFormat="1" spans="1:7">
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="25"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
       <c r="G185" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>188</v>
+        <v>63</v>
+      </c>
+      <c r="E186" s="5"/>
+      <c r="F186" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="G186" s="7" t="s">
         <v>56</v>
@@ -5940,232 +5941,232 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E187" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="F187" s="5"/>
       <c r="G187" s="7" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E188" s="5"/>
-      <c r="F188" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>236</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="32" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F191" s="5" t="s">
         <v>239</v>
       </c>
+      <c r="F191" s="5"/>
       <c r="G191" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F192" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="E192" s="5"/>
+      <c r="F192" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="G192" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E193" s="5"/>
-      <c r="F193" s="32" t="s">
-        <v>79</v>
+        <v>67</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="194" ht="27" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F194" s="5"/>
       <c r="G194" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="32" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="7" t="s">
-        <v>243</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>239</v>
+        <v>63</v>
+      </c>
+      <c r="E197" s="5"/>
+      <c r="F197" s="32" t="s">
+        <v>181</v>
       </c>
       <c r="G197" s="7" t="s">
         <v>8</v>
@@ -6173,18 +6174,20 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D198" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E198" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="F198" s="5"/>
       <c r="G198" s="7" t="s">
         <v>8</v>
@@ -6192,20 +6195,22 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E199" s="5"/>
-      <c r="F199" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="G199" s="7" t="s">
         <v>8</v>
@@ -6213,99 +6218,139 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B200" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E201" s="5"/>
+      <c r="F201" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C200" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F200" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G200" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="25"/>
-      <c r="B201" s="25"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="25"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="27"/>
-      <c r="G201" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="202" ht="27" spans="1:7">
-      <c r="A202" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5" t="s">
-        <v>172</v>
+      <c r="C202" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E203" s="5"/>
-      <c r="F203" s="32" t="s">
-        <v>64</v>
-      </c>
+      <c r="A203" s="25"/>
+      <c r="B203" s="25"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="25"/>
+      <c r="E203" s="27"/>
+      <c r="F203" s="27"/>
       <c r="G203" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" ht="27" spans="1:7">
       <c r="A204" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B204" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E205" s="5"/>
+      <c r="F205" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C204" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D204" s="5" t="s">
+      <c r="C206" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D206" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E204" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F204" s="5"/>
-      <c r="G204" s="7" t="s">
-        <v>243</v>
+      <c r="E206" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F206" s="5"/>
+      <c r="G206" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6314,15 +6359,15 @@
     <hyperlink ref="F11" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
     <hyperlink ref="F53" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
     <hyperlink ref="F59" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
-    <hyperlink ref="F74" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
-    <hyperlink ref="F85" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
-    <hyperlink ref="F96" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
-    <hyperlink ref="F110" r:id="rId3" display="https://tumaxadmin.to8to.com/#/material/materiallist" tooltip="https://tumaxadmin.to8to.com/#/material/materiallist"/>
-    <hyperlink ref="F151" r:id="rId3" display="https://tumaxadmin.to8to.com/#/material/materiallist" tooltip="https://tumaxadmin.to8to.com/#/material/materiallist"/>
-    <hyperlink ref="F100" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
+    <hyperlink ref="F76" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
+    <hyperlink ref="F87" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
+    <hyperlink ref="F98" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
+    <hyperlink ref="F112" r:id="rId3" display="https://tumaxadmin.to8to.com/#/material/materiallist" tooltip="https://tumaxadmin.to8to.com/#/material/materiallist"/>
+    <hyperlink ref="F153" r:id="rId3" display="https://tumaxadmin.to8to.com/#/material/materiallist" tooltip="https://tumaxadmin.to8to.com/#/material/materiallist"/>
+    <hyperlink ref="F102" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
     <hyperlink ref="F44" r:id="rId2" display="TestModelCyan"/>
     <hyperlink ref="F45" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
-    <hyperlink ref="F202" r:id="rId3" display="https://tumaxadmin.to8to.com/#/material/materiallist" tooltip="https://tumaxadmin.to8to.com/#/material/materiallist"/>
+    <hyperlink ref="F204" r:id="rId3" display="https://tumaxadmin.to8to.com/#/material/materiallist" tooltip="https://tumaxadmin.to8to.com/#/material/materiallist"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
+++ b/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
@@ -11,12 +11,12 @@
     <sheet name="测试用例" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <oleSize ref="A181:D182"/>
+  <oleSize ref="A190:D191"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -51,6 +51,9 @@
     <t>添加模型</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>selelctModelName</t>
   </si>
   <si>
@@ -81,84 +84,87 @@
     <t>模型导出</t>
   </si>
   <si>
+    <t>modelUpGoods</t>
+  </si>
+  <si>
+    <t>模型升级为商品</t>
+  </si>
+  <si>
+    <t>enableModel</t>
+  </si>
+  <si>
+    <t>启用模型</t>
+  </si>
+  <si>
+    <t>disableModel</t>
+  </si>
+  <si>
+    <t>禁用模型</t>
+  </si>
+  <si>
+    <t>addMaterial</t>
+  </si>
+  <si>
+    <t>添加材质</t>
+  </si>
+  <si>
+    <t>selelctMaterialName</t>
+  </si>
+  <si>
+    <t>根据材质名称查询</t>
+  </si>
+  <si>
+    <t>disableMaterial</t>
+  </si>
+  <si>
+    <t>禁用材质</t>
+  </si>
+  <si>
+    <t>enableMaterial</t>
+  </si>
+  <si>
+    <t>启用材质</t>
+  </si>
+  <si>
+    <t>setExclusiveSetMaterial</t>
+  </si>
+  <si>
+    <t>材质专属设定</t>
+  </si>
+  <si>
+    <t>cancelExclusiveSetMaterial</t>
+  </si>
+  <si>
+    <t>材质专属取消</t>
+  </si>
+  <si>
+    <t>viewMaterial</t>
+  </si>
+  <si>
+    <t>查看材质详情</t>
+  </si>
+  <si>
+    <t>updateMaterial</t>
+  </si>
+  <si>
+    <t>编辑材质</t>
+  </si>
+  <si>
+    <t>exportMaterial</t>
+  </si>
+  <si>
+    <t>材质导出</t>
+  </si>
+  <si>
+    <t>goodsList</t>
+  </si>
+  <si>
+    <t>商品分类列表</t>
+  </si>
+  <si>
     <t>测试用例执行失败</t>
   </si>
   <si>
-    <t>modelUpGoods</t>
-  </si>
-  <si>
-    <t>模型升级为商品</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>enableModel</t>
-  </si>
-  <si>
-    <t>启用模型</t>
-  </si>
-  <si>
-    <t>disableModel</t>
-  </si>
-  <si>
-    <t>禁用模型</t>
-  </si>
-  <si>
-    <t>addMaterial</t>
-  </si>
-  <si>
-    <t>添加材质</t>
-  </si>
-  <si>
-    <t>selelctMaterialName</t>
-  </si>
-  <si>
-    <t>根据材质名称查询</t>
-  </si>
-  <si>
-    <t>disableMaterial</t>
-  </si>
-  <si>
-    <t>禁用材质</t>
-  </si>
-  <si>
-    <t>enableMaterial</t>
-  </si>
-  <si>
-    <t>启用材质</t>
-  </si>
-  <si>
-    <t>setExclusiveSetMaterial</t>
-  </si>
-  <si>
-    <t>材质专属设定</t>
-  </si>
-  <si>
-    <t>cancelExclusiveSetMaterial</t>
-  </si>
-  <si>
-    <t>材质专属取消</t>
-  </si>
-  <si>
-    <t>viewMaterial</t>
-  </si>
-  <si>
-    <t>查看材质详情</t>
-  </si>
-  <si>
-    <t>updateMaterial</t>
-  </si>
-  <si>
-    <t>编辑材质</t>
-  </si>
-  <si>
-    <t>exportMaterial</t>
-  </si>
-  <si>
-    <t>材质导出</t>
-  </si>
-  <si>
     <t>测试用例步骤序号</t>
   </si>
   <si>
@@ -540,226 +546,241 @@
     <t>exportModelPage.exportModelButton</t>
   </si>
   <si>
+    <t>https://tumaxadmin.to8to.com/#/material/materiallist</t>
+  </si>
+  <si>
+    <t>点击添加材质</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialButton</t>
+  </si>
+  <si>
+    <t>点击上传图片</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addPhotoButton</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Git\workspace\WEBKeywordsFramework\model\3d66Model-589817-files-1.jpg</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>点击重新上传</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialUploadAgain</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Git\workspace\WEBKeywordsFramework\model\3d66Model-589817-files-3.jpg</t>
+  </si>
+  <si>
+    <t>点击删除</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialDelete</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialConfirm</t>
+  </si>
+  <si>
+    <t>暂停3秒</t>
+  </si>
+  <si>
+    <t>输入材质名称</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialName</t>
+  </si>
+  <si>
+    <t>TestMaterialCyan</t>
+  </si>
+  <si>
+    <t>点击材质分类</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialCategory</t>
+  </si>
+  <si>
+    <t>点击材质分类墙纸</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialCategory1</t>
+  </si>
+  <si>
+    <t>点击材质分类墙布</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialCategory2</t>
+  </si>
+  <si>
+    <t>TestStep_33</t>
+  </si>
+  <si>
+    <t>TestStep_34</t>
+  </si>
+  <si>
+    <t>点击高级设置</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialAdvancedSetting</t>
+  </si>
+  <si>
+    <t>TestStep_35</t>
+  </si>
+  <si>
+    <t>TestStep_36</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialAssertString</t>
+  </si>
+  <si>
+    <t>反射效果</t>
+  </si>
+  <si>
+    <t>TestStep_37</t>
+  </si>
+  <si>
+    <t>确认上传</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialConfirmUpload</t>
+  </si>
+  <si>
+    <t>TestStep_38</t>
+  </si>
+  <si>
+    <t>暂停5秒</t>
+  </si>
+  <si>
+    <t>TestStep_39</t>
+  </si>
+  <si>
+    <t>上传材质</t>
+  </si>
+  <si>
+    <t>TestStep_40</t>
+  </si>
+  <si>
+    <t>点击材质名称</t>
+  </si>
+  <si>
+    <t>selectModelPage.queryMaterialName</t>
+  </si>
+  <si>
+    <t>selectModelPage.queryMaterialNameInput</t>
+  </si>
+  <si>
+    <t>点击禁用</t>
+  </si>
+  <si>
+    <t>MaterialPage.MaterialDisableOrEnableButton</t>
+  </si>
+  <si>
+    <t>输入禁用原因</t>
+  </si>
+  <si>
+    <t>MaterialPage.MaterialDisableReason</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>MaterialPage.MaterialDisableConfirm</t>
+  </si>
+  <si>
+    <t>MaterialPage.MaterialDisableOrEnableState</t>
+  </si>
+  <si>
+    <t>禁用</t>
+  </si>
+  <si>
+    <t>点击启用</t>
+  </si>
+  <si>
+    <t>MaterialPage.MaterialEnableConfirm</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>MaterialPage.MaterialSetOrCancelExclusive</t>
+  </si>
+  <si>
+    <t>MaterialPage.MaterialExclusiveState</t>
+  </si>
+  <si>
+    <t>点击查看详情按钮</t>
+  </si>
+  <si>
+    <t>MaterialPage.viewDetailButton</t>
+  </si>
+  <si>
+    <t>截取详情页面</t>
+  </si>
+  <si>
+    <t>takesScreenhot</t>
+  </si>
+  <si>
+    <t>tumax-脚本截图</t>
+  </si>
+  <si>
+    <t>MaterialPage.viewDetailTitle</t>
+  </si>
+  <si>
+    <t>材质详情</t>
+  </si>
+  <si>
+    <t>MaterialPage.viewDetailReturnButton</t>
+  </si>
+  <si>
+    <t>点击修改材质按钮</t>
+  </si>
+  <si>
+    <t>MaterialPage.updateMaterialButton</t>
+  </si>
+  <si>
+    <t>修改材质名称</t>
+  </si>
+  <si>
+    <t>MaterialPage.updateMaterialNameInput</t>
+  </si>
+  <si>
+    <t>TestMaterialCyanUpdate</t>
+  </si>
+  <si>
+    <t>MaterialPage.updateMaterialSaveButton</t>
+  </si>
+  <si>
+    <t>MaterialPage.updateMaterialReturnButton</t>
+  </si>
+  <si>
+    <t>MaterialPage.firstMaterialName</t>
+  </si>
+  <si>
+    <t>点击导出按钮</t>
+  </si>
+  <si>
+    <t>MaterialPage.exportMaterialButton</t>
+  </si>
+  <si>
+    <t>https://tumaxadmin.to8to.com/#/material/classification</t>
+  </si>
+  <si>
+    <t>断言元素中包含字符串</t>
+  </si>
+  <si>
+    <t>assertElementContainString</t>
+  </si>
+  <si>
+    <t>goodsClassifyPage.ListElement</t>
+  </si>
+  <si>
+    <t>硬装,厨卫,配饰,电器,家具,灯饰,工装</t>
+  </si>
+  <si>
     <t>测试用例步骤执行失败</t>
-  </si>
-  <si>
-    <t>https://tumaxadmin.to8to.com/#/material/materiallist</t>
-  </si>
-  <si>
-    <t>点击添加材质</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialButton</t>
-  </si>
-  <si>
-    <t>点击上传图片</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addPhotoButton</t>
-  </si>
-  <si>
-    <t>C:\Program Files\Git\workspace\WEBKeywordsFramework\model\3d66Model-589817-files-1.jpg</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>点击重新上传</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialUploadAgain</t>
-  </si>
-  <si>
-    <t>C:\Program Files\Git\workspace\WEBKeywordsFramework\model\3d66Model-589817-files-3.jpg</t>
-  </si>
-  <si>
-    <t>点击删除</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialDelete</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialConfirm</t>
-  </si>
-  <si>
-    <t>暂停3秒</t>
-  </si>
-  <si>
-    <t>输入材质名称</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialName</t>
-  </si>
-  <si>
-    <t>TestMaterialCyan</t>
-  </si>
-  <si>
-    <t>点击材质分类</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialCategory</t>
-  </si>
-  <si>
-    <t>点击材质分类墙纸</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialCategory1</t>
-  </si>
-  <si>
-    <t>点击材质分类墙布</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialCategory2</t>
-  </si>
-  <si>
-    <t>TestStep_33</t>
-  </si>
-  <si>
-    <t>TestStep_34</t>
-  </si>
-  <si>
-    <t>点击高级设置</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialAdvancedSetting</t>
-  </si>
-  <si>
-    <t>TestStep_35</t>
-  </si>
-  <si>
-    <t>TestStep_36</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialAssertString</t>
-  </si>
-  <si>
-    <t>反射效果</t>
-  </si>
-  <si>
-    <t>TestStep_37</t>
-  </si>
-  <si>
-    <t>确认上传</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialConfirmUpload</t>
-  </si>
-  <si>
-    <t>TestStep_38</t>
-  </si>
-  <si>
-    <t>暂停5秒</t>
-  </si>
-  <si>
-    <t>TestStep_39</t>
-  </si>
-  <si>
-    <t>上传材质</t>
-  </si>
-  <si>
-    <t>TestStep_40</t>
-  </si>
-  <si>
-    <t>点击材质名称</t>
-  </si>
-  <si>
-    <t>selectModelPage.queryMaterialName</t>
-  </si>
-  <si>
-    <t>selectModelPage.queryMaterialNameInput</t>
-  </si>
-  <si>
-    <t>点击禁用</t>
-  </si>
-  <si>
-    <t>MaterialPage.MaterialDisableOrEnableButton</t>
-  </si>
-  <si>
-    <t>输入禁用原因</t>
-  </si>
-  <si>
-    <t>MaterialPage.MaterialDisableReason</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>MaterialPage.MaterialDisableConfirm</t>
-  </si>
-  <si>
-    <t>MaterialPage.MaterialDisableOrEnableState</t>
-  </si>
-  <si>
-    <t>禁用</t>
-  </si>
-  <si>
-    <t>点击启用</t>
-  </si>
-  <si>
-    <t>MaterialPage.MaterialEnableConfirm</t>
-  </si>
-  <si>
-    <t>启用</t>
-  </si>
-  <si>
-    <t>MaterialPage.MaterialSetOrCancelExclusive</t>
-  </si>
-  <si>
-    <t>MaterialPage.MaterialExclusiveState</t>
-  </si>
-  <si>
-    <t>点击查看详情按钮</t>
-  </si>
-  <si>
-    <t>MaterialPage.viewDetailButton</t>
-  </si>
-  <si>
-    <t>截取详情页面</t>
-  </si>
-  <si>
-    <t>takesScreenhot</t>
-  </si>
-  <si>
-    <t>tumax-脚本截图</t>
-  </si>
-  <si>
-    <t>MaterialPage.viewDetailTitle</t>
-  </si>
-  <si>
-    <t>材质详情</t>
-  </si>
-  <si>
-    <t>MaterialPage.viewDetailReturnButton</t>
-  </si>
-  <si>
-    <t>点击修改材质按钮</t>
-  </si>
-  <si>
-    <t>MaterialPage.updateMaterialButton</t>
-  </si>
-  <si>
-    <t>修改材质名称</t>
-  </si>
-  <si>
-    <t>MaterialPage.updateMaterialNameInput</t>
-  </si>
-  <si>
-    <t>TestMaterialCyanUpdate</t>
-  </si>
-  <si>
-    <t>MaterialPage.updateMaterialSaveButton</t>
-  </si>
-  <si>
-    <t>MaterialPage.updateMaterialReturnButton</t>
-  </si>
-  <si>
-    <t>MaterialPage.firstMaterialName</t>
-  </si>
-  <si>
-    <t>点击导出按钮</t>
-  </si>
-  <si>
-    <t>MaterialPage.exportMaterialButton</t>
   </si>
 </sst>
 </file>
@@ -767,10 +788,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -796,6 +817,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -810,16 +846,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,8 +877,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,7 +887,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,31 +924,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -894,42 +938,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -960,7 +981,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,31 +1011,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,55 +1035,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,19 +1077,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,37 +1155,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,11 +1254,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1257,41 +1299,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1313,11 +1327,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1327,10 +1348,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1339,131 +1360,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1876,10 +1897,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1934,80 +1955,80 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2018,7 +2039,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>8</v>
@@ -2026,13 +2047,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>8</v>
@@ -2040,13 +2061,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>8</v>
@@ -2062,128 +2083,150 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>21</v>
+      <c r="D24" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2196,10 +2239,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="E209" sqref="E209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2218,19 +2261,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -2241,41 +2284,41 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2283,20 +2326,20 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2304,22 +2347,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2327,22 +2370,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2350,20 +2393,20 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2371,20 +2414,20 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2392,20 +2435,20 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2424,20 +2467,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2445,20 +2488,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2466,20 +2509,20 @@
         <v>9</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2487,20 +2530,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2508,22 +2551,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2531,20 +2574,20 @@
         <v>9</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2552,20 +2595,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2573,20 +2616,20 @@
         <v>9</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2594,20 +2637,20 @@
         <v>9</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2615,20 +2658,20 @@
         <v>9</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2636,20 +2679,20 @@
         <v>9</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2657,20 +2700,20 @@
         <v>9</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2678,20 +2721,20 @@
         <v>9</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2699,20 +2742,20 @@
         <v>9</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2720,20 +2763,20 @@
         <v>9</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2741,20 +2784,20 @@
         <v>9</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2762,20 +2805,20 @@
         <v>9</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2783,20 +2826,20 @@
         <v>9</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2804,20 +2847,20 @@
         <v>9</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2825,22 +2868,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="D30" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2848,18 +2891,18 @@
         <v>9</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2867,20 +2910,20 @@
         <v>9</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2888,20 +2931,20 @@
         <v>9</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2909,20 +2952,20 @@
         <v>9</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:7">
@@ -2930,20 +2973,20 @@
         <v>9</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2951,20 +2994,20 @@
         <v>9</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2972,18 +3015,18 @@
         <v>9</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2991,20 +3034,20 @@
         <v>9</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3012,20 +3055,20 @@
         <v>9</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3033,20 +3076,20 @@
         <v>9</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3054,20 +3097,20 @@
         <v>9</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3075,20 +3118,20 @@
         <v>9</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3107,17 +3150,17 @@
         <v>22</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>8</v>
@@ -3128,17 +3171,17 @@
         <v>22</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>8</v>
@@ -3149,13 +3192,13 @@
         <v>22</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="5">
@@ -3170,16 +3213,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="7" t="s">
@@ -3191,19 +3234,19 @@
         <v>22</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>8</v>
@@ -3214,13 +3257,13 @@
         <v>22</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="5"/>
@@ -3233,17 +3276,17 @@
         <v>22</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>8</v>
@@ -3254,12 +3297,12 @@
         <v>22</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="7" t="s">
@@ -3279,107 +3322,107 @@
     </row>
     <row r="53" ht="27" spans="1:7">
       <c r="A53" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3395,340 +3438,340 @@
     </row>
     <row r="59" ht="27" spans="1:7">
       <c r="A59" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="E65" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" ht="27" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3744,212 +3787,212 @@
     </row>
     <row r="76" ht="27" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="E82" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3965,216 +4008,216 @@
     </row>
     <row r="87" ht="27" spans="1:7">
       <c r="A87" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F89" s="20"/>
       <c r="G89" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" ht="27" spans="1:7">
       <c r="A93" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C93" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="E93" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" ht="27" spans="1:7">
       <c r="A95" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4190,65 +4233,65 @@
     </row>
     <row r="98" ht="27" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F100" s="28"/>
       <c r="G100" s="7" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4264,20 +4307,20 @@
     </row>
     <row r="102" ht="27" spans="1:7">
       <c r="A102" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>8</v>
@@ -4285,20 +4328,20 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>8</v>
@@ -4306,19 +4349,19 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="7" t="s">
@@ -4327,22 +4370,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>8</v>
@@ -4350,7 +4393,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -4363,7 +4406,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -4376,7 +4419,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -4389,7 +4432,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -4402,7 +4445,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -4426,249 +4469,249 @@
     </row>
     <row r="112" ht="27" spans="1:7">
       <c r="A112" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F116" s="20"/>
       <c r="G116" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" ht="54" spans="1:7">
       <c r="A118" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="7" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>8</v>
@@ -4676,20 +4719,20 @@
     </row>
     <row r="124" ht="54" spans="1:7">
       <c r="A124" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>8</v>
@@ -4697,20 +4740,20 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>8</v>
@@ -4718,16 +4761,16 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -4737,20 +4780,20 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>8</v>
@@ -4758,19 +4801,19 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="7" t="s">
@@ -4779,20 +4822,20 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>8</v>
@@ -4800,19 +4843,19 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="7" t="s">
@@ -4821,20 +4864,20 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>8</v>
@@ -4842,19 +4885,19 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F132" s="20"/>
       <c r="G132" s="7" t="s">
@@ -4863,20 +4906,20 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>8</v>
@@ -4884,20 +4927,20 @@
     </row>
     <row r="134" ht="54" spans="1:7">
       <c r="A134" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>8</v>
@@ -4905,20 +4948,20 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>8</v>
@@ -4926,16 +4969,16 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -4945,20 +4988,20 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>8</v>
@@ -4966,22 +5009,22 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>8</v>
@@ -4989,19 +5032,19 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="7" t="s">
@@ -5010,20 +5053,20 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>8</v>
@@ -5031,19 +5074,19 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="7" t="s">
@@ -5052,20 +5095,20 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>8</v>
@@ -5073,19 +5116,19 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="7" t="s">
@@ -5094,20 +5137,20 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>8</v>
@@ -5115,19 +5158,19 @@
     </row>
     <row r="145" ht="27" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="7" t="s">
@@ -5136,63 +5179,63 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" ht="27" spans="1:7">
       <c r="A147" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" ht="27" spans="1:7">
       <c r="A148" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="7" t="s">
@@ -5201,20 +5244,20 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>8</v>
@@ -5222,20 +5265,20 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>8</v>
@@ -5243,20 +5286,20 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>8</v>
@@ -5275,107 +5318,107 @@
     </row>
     <row r="153" ht="27" spans="1:7">
       <c r="A153" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5391,64 +5434,64 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" ht="27" spans="1:7">
       <c r="A160" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="7" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>8</v>
@@ -5456,19 +5499,19 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="7" t="s">
@@ -5477,22 +5520,22 @@
     </row>
     <row r="163" ht="27" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>8</v>
@@ -5511,62 +5554,62 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" ht="27" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="7" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G167" s="7" t="s">
         <v>8</v>
@@ -5574,19 +5617,19 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="7" t="s">
@@ -5595,22 +5638,22 @@
     </row>
     <row r="169" ht="27" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G169" s="7" t="s">
         <v>8</v>
@@ -5629,64 +5672,64 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" ht="27" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="7" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G173" s="7" t="s">
         <v>8</v>
@@ -5705,64 +5748,64 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" ht="27" spans="1:7">
       <c r="A176" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="7" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G177" s="7" t="s">
         <v>8</v>
@@ -5781,62 +5824,62 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="7" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G181" s="7" t="s">
         <v>8</v>
@@ -5844,20 +5887,20 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G182" s="7" t="s">
         <v>8</v>
@@ -5865,22 +5908,22 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G183" s="7" t="s">
         <v>8</v>
@@ -5888,19 +5931,19 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="7" t="s">
@@ -5920,64 +5963,64 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="7" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G188" s="7" t="s">
         <v>8</v>
@@ -5985,16 +6028,16 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
@@ -6004,20 +6047,20 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G190" s="7" t="s">
         <v>8</v>
@@ -6025,19 +6068,19 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F191" s="5"/>
       <c r="G191" s="7" t="s">
@@ -6046,20 +6089,20 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G192" s="7" t="s">
         <v>8</v>
@@ -6067,22 +6110,22 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G193" s="7" t="s">
         <v>8</v>
@@ -6090,19 +6133,19 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F194" s="5"/>
       <c r="G194" s="7" t="s">
@@ -6111,40 +6154,40 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G195" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" ht="27" spans="1:7">
       <c r="A196" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="7" t="s">
@@ -6153,20 +6196,20 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G197" s="7" t="s">
         <v>8</v>
@@ -6174,19 +6217,19 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F198" s="5"/>
       <c r="G198" s="7" t="s">
@@ -6195,22 +6238,22 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G199" s="7" t="s">
         <v>8</v>
@@ -6218,16 +6261,16 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
@@ -6237,20 +6280,20 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G201" s="7" t="s">
         <v>8</v>
@@ -6258,22 +6301,22 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G202" s="7" t="s">
         <v>8</v>
@@ -6292,41 +6335,41 @@
     </row>
     <row r="204" ht="27" spans="1:7">
       <c r="A204" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G205" s="7" t="s">
         <v>8</v>
@@ -6334,23 +6377,78 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F206" s="5"/>
       <c r="G206" s="7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="25"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="26"/>
+      <c r="D207" s="25"/>
+      <c r="E207" s="27"/>
+      <c r="F207" s="27"/>
+      <c r="G207" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" ht="27" spans="1:7">
+      <c r="A208" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" ht="27" spans="1:7">
+      <c r="A209" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6368,6 +6466,7 @@
     <hyperlink ref="F44" r:id="rId2" display="TestModelCyan"/>
     <hyperlink ref="F45" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
     <hyperlink ref="F204" r:id="rId3" display="https://tumaxadmin.to8to.com/#/material/materiallist" tooltip="https://tumaxadmin.to8to.com/#/material/materiallist"/>
+    <hyperlink ref="F208" r:id="rId4" display="https://tumaxadmin.to8to.com/#/material/classification" tooltip="https://tumaxadmin.to8to.com/#/material/classification"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
+++ b/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
@@ -11,12 +11,12 @@
     <sheet name="测试用例" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <oleSize ref="A190:D191"/>
+  <oleSize ref="A251:D252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -156,15 +156,63 @@
     <t>材质导出</t>
   </si>
   <si>
+    <t>addMap</t>
+  </si>
+  <si>
+    <t>添加贴图</t>
+  </si>
+  <si>
+    <t>selelctMapName</t>
+  </si>
+  <si>
+    <t>根据贴图名称查询</t>
+  </si>
+  <si>
+    <t>viewMap</t>
+  </si>
+  <si>
+    <t>查看贴图详情</t>
+  </si>
+  <si>
+    <t>disableMap</t>
+  </si>
+  <si>
+    <t>禁用贴图</t>
+  </si>
+  <si>
+    <t>enableMap</t>
+  </si>
+  <si>
+    <t>启用贴图</t>
+  </si>
+  <si>
+    <t>exclusiveMap</t>
+  </si>
+  <si>
+    <t>贴图专属设定</t>
+  </si>
+  <si>
+    <t>贴图升级为商品</t>
+  </si>
+  <si>
+    <t>updateMap</t>
+  </si>
+  <si>
+    <t>编辑贴图</t>
+  </si>
+  <si>
+    <t>exportMap</t>
+  </si>
+  <si>
+    <t>贴图导出</t>
+  </si>
+  <si>
     <t>goodsList</t>
   </si>
   <si>
     <t>商品分类列表</t>
   </si>
   <si>
-    <t>测试用例执行失败</t>
-  </si>
-  <si>
     <t>测试用例步骤序号</t>
   </si>
   <si>
@@ -765,6 +813,162 @@
     <t>MaterialPage.exportMaterialButton</t>
   </si>
   <si>
+    <t>https://tumaxadmin.to8to.com/#/material/texturelist</t>
+  </si>
+  <si>
+    <t>点击添加按钮</t>
+  </si>
+  <si>
+    <t>MapPage.addMapButton</t>
+  </si>
+  <si>
+    <t>输入贴图名称</t>
+  </si>
+  <si>
+    <t>MapPage.MapNameInput</t>
+  </si>
+  <si>
+    <t>TestMapCyan</t>
+  </si>
+  <si>
+    <t>选择贴图类别</t>
+  </si>
+  <si>
+    <t>MapPage.MapCategoryBox</t>
+  </si>
+  <si>
+    <t>MapPage.MapCategoryBox1</t>
+  </si>
+  <si>
+    <t>MapPage.MapCategoryBox2</t>
+  </si>
+  <si>
+    <t>MapPage.MapCategoryBox3</t>
+  </si>
+  <si>
+    <t>输入贴图尺寸</t>
+  </si>
+  <si>
+    <t>MapPage.ImageSizeLongInput</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>MapPage.ImageSizeWideInput</t>
+  </si>
+  <si>
+    <t>选择贴图类型</t>
+  </si>
+  <si>
+    <t>MapPage.MapTypeBox</t>
+  </si>
+  <si>
+    <t>MapPage.MapTypeBox1</t>
+  </si>
+  <si>
+    <t>MapPage.MapTypeBox2</t>
+  </si>
+  <si>
+    <t>点击关键字按钮</t>
+  </si>
+  <si>
+    <t>MapPage.SearchKeywordAddButton</t>
+  </si>
+  <si>
+    <t>输入关键字</t>
+  </si>
+  <si>
+    <t>MapPage.SearchKeywordAddInput</t>
+  </si>
+  <si>
+    <t>点击装修风格按钮</t>
+  </si>
+  <si>
+    <t>MapPage.DecorateStyleButton</t>
+  </si>
+  <si>
+    <t>点击添加规格按钮</t>
+  </si>
+  <si>
+    <t>MapPage.MapSpecificationAddButton</t>
+  </si>
+  <si>
+    <t>输入规格</t>
+  </si>
+  <si>
+    <t>MapPage.MapSpecificationAddInput</t>
+  </si>
+  <si>
+    <t>MapPage.PhotoUploadButton</t>
+  </si>
+  <si>
+    <t>点击确定按钮</t>
+  </si>
+  <si>
+    <t>MapPage.SaveButton</t>
+  </si>
+  <si>
+    <t>MapPage.MapNameAssertString</t>
+  </si>
+  <si>
+    <t>点击贴图名称按钮</t>
+  </si>
+  <si>
+    <t>MapPage.SelectMapNameButton</t>
+  </si>
+  <si>
+    <t>MapPage.SelectMapNameInput</t>
+  </si>
+  <si>
+    <t>MapPage.MapViewDetailButton</t>
+  </si>
+  <si>
+    <t>MapPage.MapViewDetailMapNameLabel</t>
+  </si>
+  <si>
+    <t>点击放回按钮</t>
+  </si>
+  <si>
+    <t>MapPage.MapViewDetailBackButton</t>
+  </si>
+  <si>
+    <t>MapPage.MapListName</t>
+  </si>
+  <si>
+    <t>贴图列表</t>
+  </si>
+  <si>
+    <t>点击禁用按钮</t>
+  </si>
+  <si>
+    <t>MapPage.DisableOrEnableMapButton</t>
+  </si>
+  <si>
+    <t>MapPage.DisableReasonInput</t>
+  </si>
+  <si>
+    <t>点击确认按钮</t>
+  </si>
+  <si>
+    <t>MapPage.ConfirmDisableButton</t>
+  </si>
+  <si>
+    <t>MapPage.MapStateLabel</t>
+  </si>
+  <si>
+    <t>点击启用按钮</t>
+  </si>
+  <si>
+    <t>MapPage.ConfirmEnableButton</t>
+  </si>
+  <si>
+    <t>MapPage.ExclusiveButton</t>
+  </si>
+  <si>
+    <t>MapPage.ExclusiveStateLabel</t>
+  </si>
+  <si>
     <t>https://tumaxadmin.to8to.com/#/material/classification</t>
   </si>
   <si>
@@ -778,9 +982,6 @@
   </si>
   <si>
     <t>硬装,厨卫,配饰,电器,家具,灯饰,工装</t>
-  </si>
-  <si>
-    <t>测试用例步骤执行失败</t>
   </si>
 </sst>
 </file>
@@ -788,10 +989,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -811,7 +1012,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,14 +1065,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,8 +1109,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,16 +1125,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -885,72 +1148,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -981,13 +1182,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,25 +1230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +1248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,13 +1266,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,31 +1320,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,61 +1350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,8 +1449,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,21 +1516,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1301,44 +1537,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,10 +1549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1360,131 +1561,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1897,10 +2098,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C24" sqref="C24:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2223,10 +2424,138 @@
         <v>47</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>48</v>
+      <c r="D29" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2239,10 +2568,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="E209" sqref="E209"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2261,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -2284,20 +2613,20 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:7">
@@ -2305,20 +2634,20 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2326,20 +2655,20 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2347,22 +2676,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2370,22 +2699,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2393,20 +2722,20 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2414,20 +2743,20 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2435,20 +2764,20 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="9" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2467,17 +2796,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>8</v>
@@ -2488,17 +2817,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>8</v>
@@ -2509,16 +2838,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="7" t="s">
@@ -2530,17 +2859,17 @@
         <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>8</v>
@@ -2551,19 +2880,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>8</v>
@@ -2574,16 +2903,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="7" t="s">
@@ -2595,17 +2924,17 @@
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="D17" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>8</v>
@@ -2616,16 +2945,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="7" t="s">
@@ -2637,17 +2966,17 @@
         <v>9</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>8</v>
@@ -2658,16 +2987,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="7" t="s">
@@ -2679,17 +3008,17 @@
         <v>9</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>8</v>
@@ -2700,16 +3029,16 @@
         <v>9</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="7" t="s">
@@ -2721,17 +3050,17 @@
         <v>9</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>8</v>
@@ -2742,16 +3071,16 @@
         <v>9</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="7" t="s">
@@ -2763,17 +3092,17 @@
         <v>9</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>8</v>
@@ -2784,16 +3113,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="7" t="s">
@@ -2805,16 +3134,16 @@
         <v>9</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="7" t="s">
@@ -2826,16 +3155,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="7" t="s">
@@ -2847,16 +3176,16 @@
         <v>9</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="7" t="s">
@@ -2868,19 +3197,19 @@
         <v>9</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>8</v>
@@ -2891,13 +3220,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -2910,17 +3239,17 @@
         <v>9</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>8</v>
@@ -2931,16 +3260,16 @@
         <v>9</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="7" t="s">
@@ -2952,17 +3281,17 @@
         <v>9</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>8</v>
@@ -2973,17 +3302,17 @@
         <v>9</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>8</v>
@@ -2994,17 +3323,17 @@
         <v>9</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>8</v>
@@ -3015,13 +3344,13 @@
         <v>9</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3034,17 +3363,17 @@
         <v>9</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>8</v>
@@ -3055,16 +3384,16 @@
         <v>9</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="7" t="s">
@@ -3076,17 +3405,17 @@
         <v>9</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>8</v>
@@ -3097,17 +3426,17 @@
         <v>9</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>8</v>
@@ -3118,17 +3447,17 @@
         <v>9</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>8</v>
@@ -3150,17 +3479,17 @@
         <v>22</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>8</v>
@@ -3171,17 +3500,17 @@
         <v>22</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="5" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>8</v>
@@ -3192,13 +3521,13 @@
         <v>22</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="5">
@@ -3213,16 +3542,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="7" t="s">
@@ -3234,19 +3563,19 @@
         <v>22</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>8</v>
@@ -3257,13 +3586,13 @@
         <v>22</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="5"/>
@@ -3276,17 +3605,17 @@
         <v>22</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="D50" s="20" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="5" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>8</v>
@@ -3297,12 +3626,12 @@
         <v>22</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="7" t="s">
@@ -3325,17 +3654,17 @@
         <v>12</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>8</v>
@@ -3346,17 +3675,17 @@
         <v>12</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>8</v>
@@ -3367,16 +3696,16 @@
         <v>12</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="7" t="s">
@@ -3388,19 +3717,19 @@
         <v>12</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>8</v>
@@ -3411,13 +3740,13 @@
         <v>12</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -3441,17 +3770,17 @@
         <v>14</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>8</v>
@@ -3462,17 +3791,17 @@
         <v>14</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>8</v>
@@ -3483,16 +3812,16 @@
         <v>14</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="7" t="s">
@@ -3504,19 +3833,19 @@
         <v>14</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>8</v>
@@ -3527,13 +3856,13 @@
         <v>14</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -3546,17 +3875,17 @@
         <v>14</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>8</v>
@@ -3567,16 +3896,16 @@
         <v>14</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="7" t="s">
@@ -3588,17 +3917,17 @@
         <v>14</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>8</v>
@@ -3609,19 +3938,19 @@
         <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>8</v>
@@ -3632,17 +3961,17 @@
         <v>14</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>8</v>
@@ -3653,16 +3982,16 @@
         <v>14</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="7" t="s">
@@ -3674,17 +4003,17 @@
         <v>14</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>8</v>
@@ -3695,16 +4024,16 @@
         <v>14</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="7" t="s">
@@ -3716,17 +4045,17 @@
         <v>14</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="32" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>8</v>
@@ -3737,17 +4066,17 @@
         <v>14</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>8</v>
@@ -3758,17 +4087,17 @@
         <v>14</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>8</v>
@@ -3790,17 +4119,17 @@
         <v>16</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>8</v>
@@ -3811,17 +4140,17 @@
         <v>16</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>8</v>
@@ -3832,16 +4161,16 @@
         <v>16</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="7" t="s">
@@ -3853,19 +4182,19 @@
         <v>16</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>8</v>
@@ -3876,13 +4205,13 @@
         <v>16</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -3895,17 +4224,17 @@
         <v>16</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>8</v>
@@ -3916,16 +4245,16 @@
         <v>16</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="7" t="s">
@@ -3937,17 +4266,17 @@
         <v>16</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>8</v>
@@ -3958,16 +4287,16 @@
         <v>16</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="7" t="s">
@@ -3979,17 +4308,17 @@
         <v>16</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>8</v>
@@ -4011,17 +4340,17 @@
         <v>18</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>8</v>
@@ -4032,17 +4361,17 @@
         <v>18</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>8</v>
@@ -4053,16 +4382,16 @@
         <v>18</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F89" s="20"/>
       <c r="G89" s="7" t="s">
@@ -4074,19 +4403,19 @@
         <v>18</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>8</v>
@@ -4097,13 +4426,13 @@
         <v>18</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -4116,17 +4445,17 @@
         <v>18</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>8</v>
@@ -4137,16 +4466,16 @@
         <v>18</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="7" t="s">
@@ -4158,19 +4487,19 @@
         <v>18</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>8</v>
@@ -4181,16 +4510,16 @@
         <v>18</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="7" t="s">
@@ -4202,19 +4531,19 @@
         <v>18</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>8</v>
@@ -4236,17 +4565,17 @@
         <v>20</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>8</v>
@@ -4257,17 +4586,17 @@
         <v>20</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>8</v>
@@ -4278,16 +4607,16 @@
         <v>20</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="F100" s="28"/>
       <c r="G100" s="7" t="s">
@@ -4310,17 +4639,17 @@
         <v>24</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>8</v>
@@ -4331,17 +4660,17 @@
         <v>24</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>8</v>
@@ -4352,16 +4681,16 @@
         <v>24</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="7" t="s">
@@ -4373,19 +4702,19 @@
         <v>24</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>8</v>
@@ -4472,17 +4801,17 @@
         <v>28</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>8</v>
@@ -4493,17 +4822,17 @@
         <v>28</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>8</v>
@@ -4514,16 +4843,16 @@
         <v>28</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="7" t="s">
@@ -4535,17 +4864,17 @@
         <v>28</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>8</v>
@@ -4556,16 +4885,16 @@
         <v>28</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F116" s="20"/>
       <c r="G116" s="7" t="s">
@@ -4577,17 +4906,17 @@
         <v>28</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>8</v>
@@ -4598,17 +4927,17 @@
         <v>28</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>8</v>
@@ -4619,17 +4948,17 @@
         <v>28</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>8</v>
@@ -4640,13 +4969,13 @@
         <v>28</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -4659,17 +4988,17 @@
         <v>28</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="32" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>8</v>
@@ -4680,16 +5009,16 @@
         <v>28</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="7" t="s">
@@ -4701,17 +5030,17 @@
         <v>28</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>8</v>
@@ -4722,17 +5051,17 @@
         <v>28</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>8</v>
@@ -4743,17 +5072,17 @@
         <v>28</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>8</v>
@@ -4764,13 +5093,13 @@
         <v>28</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -4783,17 +5112,17 @@
         <v>28</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="32" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>8</v>
@@ -4804,16 +5133,16 @@
         <v>28</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="7" t="s">
@@ -4825,17 +5154,17 @@
         <v>28</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>8</v>
@@ -4846,16 +5175,16 @@
         <v>28</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="7" t="s">
@@ -4867,17 +5196,17 @@
         <v>28</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>8</v>
@@ -4888,16 +5217,16 @@
         <v>28</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F132" s="20"/>
       <c r="G132" s="7" t="s">
@@ -4909,17 +5238,17 @@
         <v>28</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>8</v>
@@ -4930,17 +5259,17 @@
         <v>28</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>8</v>
@@ -4951,17 +5280,17 @@
         <v>28</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>8</v>
@@ -4972,13 +5301,13 @@
         <v>28</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -4991,17 +5320,17 @@
         <v>28</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="32" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>8</v>
@@ -5012,19 +5341,19 @@
         <v>28</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>8</v>
@@ -5035,16 +5364,16 @@
         <v>28</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="7" t="s">
@@ -5056,17 +5385,17 @@
         <v>28</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>8</v>
@@ -5077,16 +5406,16 @@
         <v>28</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="7" t="s">
@@ -5098,17 +5427,17 @@
         <v>28</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>8</v>
@@ -5119,16 +5448,16 @@
         <v>28</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="7" t="s">
@@ -5140,17 +5469,17 @@
         <v>28</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>8</v>
@@ -5161,16 +5490,16 @@
         <v>28</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="7" t="s">
@@ -5182,17 +5511,17 @@
         <v>28</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>8</v>
@@ -5203,19 +5532,19 @@
         <v>28</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>8</v>
@@ -5226,16 +5555,16 @@
         <v>28</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="7" t="s">
@@ -5247,17 +5576,17 @@
         <v>28</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="32" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>8</v>
@@ -5268,17 +5597,17 @@
         <v>28</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>8</v>
@@ -5289,17 +5618,17 @@
         <v>28</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>8</v>
@@ -5321,17 +5650,17 @@
         <v>30</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>8</v>
@@ -5342,17 +5671,17 @@
         <v>30</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>8</v>
@@ -5363,16 +5692,16 @@
         <v>30</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="7" t="s">
@@ -5384,19 +5713,19 @@
         <v>30</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="G156" s="7" t="s">
         <v>8</v>
@@ -5407,13 +5736,13 @@
         <v>30</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
@@ -5437,17 +5766,17 @@
         <v>32</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G159" s="7" t="s">
         <v>8</v>
@@ -5458,16 +5787,16 @@
         <v>32</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="7" t="s">
@@ -5479,19 +5808,19 @@
         <v>32</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>8</v>
@@ -5502,16 +5831,16 @@
         <v>32</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="7" t="s">
@@ -5523,19 +5852,19 @@
         <v>32</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>8</v>
@@ -5557,17 +5886,17 @@
         <v>34</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G165" s="7" t="s">
         <v>8</v>
@@ -5578,16 +5907,16 @@
         <v>34</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="7" t="s">
@@ -5599,17 +5928,17 @@
         <v>34</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G167" s="7" t="s">
         <v>8</v>
@@ -5620,16 +5949,16 @@
         <v>34</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="7" t="s">
@@ -5641,19 +5970,19 @@
         <v>34</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="G169" s="7" t="s">
         <v>8</v>
@@ -5675,17 +6004,17 @@
         <v>36</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G171" s="7" t="s">
         <v>8</v>
@@ -5696,16 +6025,16 @@
         <v>36</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="7" t="s">
@@ -5717,19 +6046,19 @@
         <v>36</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G173" s="7" t="s">
         <v>8</v>
@@ -5751,17 +6080,17 @@
         <v>38</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G175" s="7" t="s">
         <v>8</v>
@@ -5772,16 +6101,16 @@
         <v>38</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="7" t="s">
@@ -5793,19 +6122,19 @@
         <v>38</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G177" s="7" t="s">
         <v>8</v>
@@ -5827,17 +6156,17 @@
         <v>40</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G179" s="7" t="s">
         <v>8</v>
@@ -5848,16 +6177,16 @@
         <v>40</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="7" t="s">
@@ -5869,17 +6198,17 @@
         <v>40</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G181" s="7" t="s">
         <v>8</v>
@@ -5890,17 +6219,17 @@
         <v>40</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="G182" s="7" t="s">
         <v>8</v>
@@ -5911,19 +6240,19 @@
         <v>40</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="G183" s="7" t="s">
         <v>8</v>
@@ -5934,16 +6263,16 @@
         <v>40</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="7" t="s">
@@ -5966,17 +6295,17 @@
         <v>42</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G186" s="7" t="s">
         <v>8</v>
@@ -5987,16 +6316,16 @@
         <v>42</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="7" t="s">
@@ -6008,19 +6337,19 @@
         <v>42</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="G188" s="7" t="s">
         <v>8</v>
@@ -6031,13 +6360,13 @@
         <v>42</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
@@ -6050,17 +6379,17 @@
         <v>42</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G190" s="7" t="s">
         <v>8</v>
@@ -6071,16 +6400,16 @@
         <v>42</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F191" s="5"/>
       <c r="G191" s="7" t="s">
@@ -6092,17 +6421,17 @@
         <v>42</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G192" s="7" t="s">
         <v>8</v>
@@ -6113,19 +6442,19 @@
         <v>42</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G193" s="7" t="s">
         <v>8</v>
@@ -6136,16 +6465,16 @@
         <v>42</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="F194" s="5"/>
       <c r="G194" s="7" t="s">
@@ -6157,17 +6486,17 @@
         <v>42</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G195" s="7" t="s">
         <v>8</v>
@@ -6178,16 +6507,16 @@
         <v>42</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="7" t="s">
@@ -6199,17 +6528,17 @@
         <v>42</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="32" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G197" s="7" t="s">
         <v>8</v>
@@ -6220,16 +6549,16 @@
         <v>42</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F198" s="5"/>
       <c r="G198" s="7" t="s">
@@ -6241,19 +6570,19 @@
         <v>42</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G199" s="7" t="s">
         <v>8</v>
@@ -6264,13 +6593,13 @@
         <v>42</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
@@ -6283,17 +6612,17 @@
         <v>42</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G201" s="7" t="s">
         <v>8</v>
@@ -6304,19 +6633,19 @@
         <v>42</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G202" s="7" t="s">
         <v>8</v>
@@ -6338,17 +6667,17 @@
         <v>44</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G204" s="7" t="s">
         <v>8</v>
@@ -6359,17 +6688,17 @@
         <v>44</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G205" s="7" t="s">
         <v>8</v>
@@ -6380,16 +6709,16 @@
         <v>44</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F206" s="5"/>
       <c r="G206" s="7" t="s">
@@ -6412,43 +6741,1521 @@
         <v>46</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="209" ht="27" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F209" s="5" t="s">
-        <v>253</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="F209" s="5"/>
       <c r="G209" s="7" t="s">
-        <v>254</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F211" s="5"/>
+      <c r="G211" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F212" s="5"/>
+      <c r="G212" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F213" s="5"/>
+      <c r="G213" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F214" s="5"/>
+      <c r="G214" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F215" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F216" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F217" s="5"/>
+      <c r="G217" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F218" s="5"/>
+      <c r="G218" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F219" s="5"/>
+      <c r="G219" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F220" s="5"/>
+      <c r="G220" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F223" s="5"/>
+      <c r="G223" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F224" s="5"/>
+      <c r="G224" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F227" s="5"/>
+      <c r="G227" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E228" s="5"/>
+      <c r="F228" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" ht="54" spans="1:7">
+      <c r="A229" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G229" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E230" s="5"/>
+      <c r="F230" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D231" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D232" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E232" s="5"/>
+      <c r="F232" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="G232" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F233" s="5"/>
+      <c r="G233" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G234" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="29"/>
+      <c r="B235" s="29"/>
+      <c r="C235" s="31"/>
+      <c r="D235" s="31"/>
+      <c r="E235" s="31"/>
+      <c r="F235" s="31"/>
+      <c r="G235" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" ht="27" spans="1:7">
+      <c r="A236" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G236" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F237" s="5"/>
+      <c r="G237" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="7"/>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="29"/>
+      <c r="B241" s="29"/>
+      <c r="C241" s="31"/>
+      <c r="D241" s="31"/>
+      <c r="E241" s="31"/>
+      <c r="F241" s="31"/>
+      <c r="G241" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" ht="27" spans="1:7">
+      <c r="A242" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G242" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F243" s="5"/>
+      <c r="G243" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G244" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="7"/>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F246" s="5"/>
+      <c r="G246" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G247" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F248" s="5"/>
+      <c r="G248" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="29"/>
+      <c r="B250" s="29"/>
+      <c r="C250" s="31"/>
+      <c r="D250" s="31"/>
+      <c r="E250" s="31"/>
+      <c r="F250" s="31"/>
+      <c r="G250" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" ht="27" spans="1:7">
+      <c r="A251" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F252" s="5"/>
+      <c r="G252" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G253" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="7"/>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F255" s="5"/>
+      <c r="G255" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G256" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F257" s="5"/>
+      <c r="G257" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G258" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="29"/>
+      <c r="B259" s="29"/>
+      <c r="C259" s="31"/>
+      <c r="D259" s="31"/>
+      <c r="E259" s="31"/>
+      <c r="F259" s="31"/>
+      <c r="G259" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" ht="27" spans="1:7">
+      <c r="A260" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G260" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F261" s="5"/>
+      <c r="G261" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G262" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D263" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="7"/>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F264" s="5"/>
+      <c r="G264" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F265" s="5"/>
+      <c r="G265" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G266" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="29"/>
+      <c r="B267" s="29"/>
+      <c r="C267" s="31"/>
+      <c r="D267" s="31"/>
+      <c r="E267" s="31"/>
+      <c r="F267" s="31"/>
+      <c r="G267" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" ht="27" spans="1:7">
+      <c r="A268" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G268" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F269" s="5"/>
+      <c r="G269" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G270" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D271" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="7"/>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F272" s="5"/>
+      <c r="G272" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G273" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F274" s="5"/>
+      <c r="G274" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G275" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="29"/>
+      <c r="B276" s="29"/>
+      <c r="C276" s="31"/>
+      <c r="D276" s="31"/>
+      <c r="E276" s="31"/>
+      <c r="F276" s="31"/>
+      <c r="G276" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="4"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="4"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="4"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="4"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="4"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" ht="27" spans="1:7">
+      <c r="A284" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G284" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" ht="27" spans="1:7">
+      <c r="A285" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G285" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6466,7 +8273,13 @@
     <hyperlink ref="F44" r:id="rId2" display="TestModelCyan"/>
     <hyperlink ref="F45" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
     <hyperlink ref="F204" r:id="rId3" display="https://tumaxadmin.to8to.com/#/material/materiallist" tooltip="https://tumaxadmin.to8to.com/#/material/materiallist"/>
-    <hyperlink ref="F208" r:id="rId4" display="https://tumaxadmin.to8to.com/#/material/classification" tooltip="https://tumaxadmin.to8to.com/#/material/classification"/>
+    <hyperlink ref="F284" r:id="rId4" display="https://tumaxadmin.to8to.com/#/material/classification" tooltip="https://tumaxadmin.to8to.com/#/material/classification"/>
+    <hyperlink ref="F208" r:id="rId5" display="https://tumaxadmin.to8to.com/#/material/texturelist"/>
+    <hyperlink ref="F236" r:id="rId5" display="https://tumaxadmin.to8to.com/#/material/texturelist"/>
+    <hyperlink ref="F242" r:id="rId5" display="https://tumaxadmin.to8to.com/#/material/texturelist"/>
+    <hyperlink ref="F251" r:id="rId5" display="https://tumaxadmin.to8to.com/#/material/texturelist"/>
+    <hyperlink ref="F260" r:id="rId5" display="https://tumaxadmin.to8to.com/#/material/texturelist"/>
+    <hyperlink ref="F268" r:id="rId5" display="https://tumaxadmin.to8to.com/#/material/texturelist"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
+++ b/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
+    <workbookView windowHeight="13065" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet name="测试用例集合" sheetId="2" r:id="rId1"/>
-    <sheet name="测试用例" sheetId="1" r:id="rId2"/>
+    <sheet name="测试用例集合" r:id="rId1" sheetId="2"/>
+    <sheet name="测试用例" r:id="rId2" sheetId="1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <oleSize ref="A251:D252"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="2">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -51,45 +51,45 @@
     <t>添加模型</t>
   </si>
   <si>
+    <t>selelctModelName</t>
+  </si>
+  <si>
+    <t>根据模型名称查询</t>
+  </si>
+  <si>
+    <t>updateModel</t>
+  </si>
+  <si>
+    <t>编辑模型</t>
+  </si>
+  <si>
+    <t>viewModel</t>
+  </si>
+  <si>
+    <t>查看模型详情</t>
+  </si>
+  <si>
+    <t>exclusiveModel</t>
+  </si>
+  <si>
+    <t>模型专属设定</t>
+  </si>
+  <si>
+    <t>exportModel</t>
+  </si>
+  <si>
+    <t>模型导出</t>
+  </si>
+  <si>
+    <t>modelUpGoods</t>
+  </si>
+  <si>
+    <t>模型升级为商品</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
-    <t>selelctModelName</t>
-  </si>
-  <si>
-    <t>根据模型名称查询</t>
-  </si>
-  <si>
-    <t>updateModel</t>
-  </si>
-  <si>
-    <t>编辑模型</t>
-  </si>
-  <si>
-    <t>viewModel</t>
-  </si>
-  <si>
-    <t>查看模型详情</t>
-  </si>
-  <si>
-    <t>exclusiveModel</t>
-  </si>
-  <si>
-    <t>模型专属设定</t>
-  </si>
-  <si>
-    <t>exportModel</t>
-  </si>
-  <si>
-    <t>模型导出</t>
-  </si>
-  <si>
-    <t>modelUpGoods</t>
-  </si>
-  <si>
-    <t>模型升级为商品</t>
-  </si>
-  <si>
     <t>enableModel</t>
   </si>
   <si>
@@ -982,6 +982,12 @@
   </si>
   <si>
     <t>硬装,厨卫,配饰,电器,家具,灯饰,工装</t>
+  </si>
+  <si>
+    <t>测试用例步骤执行失败</t>
+  </si>
+  <si>
+    <t>测试用例执行失败</t>
   </si>
 </sst>
 </file>
@@ -989,10 +995,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1012,7 +1018,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,53 +1055,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,15 +1077,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1112,6 +1095,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,17 +1124,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1182,7 +1188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,13 +1200,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,13 +1248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,7 +1367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1449,8 +1455,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1470,368 +1541,1863 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="7" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="12" fillId="9" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="14" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="13" fillId="15" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="15" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="8" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+  <cellXfs count="1575">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1845,10 +3411,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2012,21 +3578,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2043,7 +3609,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2096,23 +3662,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C24" sqref="C24:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" customHeight="1" spans="1:4">
+    <row customHeight="1" ht="28.5" r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2136,7 +3702,7 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1122" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2144,7 +3710,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="791" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2156,93 +3722,93 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="1186" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="1196" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="1228" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="1248" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="1268" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D9" s="1274" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="798" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2254,9 +3820,9 @@
         <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="799" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2268,9 +3834,9 @@
         <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="800" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2278,7 +3844,7 @@
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="801" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2290,10 +3856,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D14" s="1354" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2304,10 +3870,10 @@
         <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D15" s="1364" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2318,10 +3884,10 @@
         <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D16" s="1374" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2332,10 +3898,10 @@
         <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D17" s="1384" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2346,10 +3912,10 @@
         <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D18" s="1390" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2360,10 +3926,10 @@
         <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D19" s="1396" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2374,10 +3940,10 @@
         <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D20" s="1408" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2388,10 +3954,10 @@
         <v>43</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D21" s="1442" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2402,17 +3968,17 @@
         <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D22" s="1448" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="811" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2424,10 +3990,10 @@
         <v>47</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D24" s="1502" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2438,10 +4004,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D25" s="1512" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2452,10 +4018,10 @@
         <v>51</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D26" s="1528" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2466,10 +4032,10 @@
         <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D27" s="1544" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2480,10 +4046,10 @@
         <v>55</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D28" s="1558" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2496,19 +4062,19 @@
       <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1574" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="818" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2520,7 +4086,7 @@
         <v>60</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="819" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2532,7 +4098,7 @@
         <v>62</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="820" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2540,7 +4106,7 @@
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="29"/>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="821" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2552,37 +4118,37 @@
         <v>64</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="822" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:G285"/>
+  <dimension ref="A1:H285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+    <sheetView topLeftCell="A251" workbookViewId="0">
       <selection activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="41.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="41.25" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="36.875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2625,11 +4191,11 @@
       <c r="F2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="1:7">
+      <c r="G2" s="1107" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="27" r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2646,7 +4212,7 @@
       <c r="F3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="1109" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2667,7 +4233,7 @@
       <c r="F4" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="1111" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2690,7 +4256,7 @@
       <c r="F5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="1113" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2713,7 +4279,7 @@
       <c r="F6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="1115" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2734,7 +4300,7 @@
         <v>95</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="1117" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2755,7 +4321,7 @@
       <c r="F8" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="1119" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2776,7 +4342,7 @@
       <c r="F9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="1121" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2787,11 +4353,11 @@
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="831" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="1:7">
+    <row ht="27" r="11" spans="1:7">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
@@ -2808,8 +4374,8 @@
       <c r="F11" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>8</v>
+      <c r="G11" s="1123" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2829,8 +4395,8 @@
       <c r="F12" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>8</v>
+      <c r="G12" s="1125" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2850,8 +4416,8 @@
         <v>104</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="7" t="s">
-        <v>8</v>
+      <c r="G13" s="1127" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2871,8 +4437,8 @@
       <c r="F14" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>8</v>
+      <c r="G14" s="1129" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2894,8 +4460,8 @@
       <c r="F15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>8</v>
+      <c r="G15" s="1131" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2915,8 +4481,8 @@
         <v>109</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="7" t="s">
-        <v>8</v>
+      <c r="G16" s="1133" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2936,8 +4502,8 @@
       <c r="F17" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>8</v>
+      <c r="G17" s="1135" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2957,8 +4523,8 @@
         <v>111</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="7" t="s">
-        <v>8</v>
+      <c r="G18" s="1137" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2978,8 +4544,8 @@
       <c r="F19" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>8</v>
+      <c r="G19" s="1139" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2999,8 +4565,8 @@
         <v>114</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="7" t="s">
-        <v>8</v>
+      <c r="G20" s="1141" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3020,8 +4586,8 @@
       <c r="F21" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>8</v>
+      <c r="G21" s="1143" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3041,8 +4607,8 @@
         <v>117</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="7" t="s">
-        <v>8</v>
+      <c r="G22" s="1145" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3062,8 +4628,8 @@
       <c r="F23" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>8</v>
+      <c r="G23" s="1147" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3083,8 +4649,8 @@
         <v>121</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="7" t="s">
-        <v>8</v>
+      <c r="G24" s="1149" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3104,8 +4670,8 @@
       <c r="F25" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>8</v>
+      <c r="G25" s="1151" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3125,8 +4691,8 @@
         <v>124</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="7" t="s">
-        <v>8</v>
+      <c r="G26" s="1153" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3146,8 +4712,8 @@
         <v>127</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="7" t="s">
-        <v>8</v>
+      <c r="G27" s="1155" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3167,8 +4733,8 @@
         <v>130</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="7" t="s">
-        <v>8</v>
+      <c r="G28" s="1157" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3188,8 +4754,8 @@
         <v>133</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="7" t="s">
-        <v>8</v>
+      <c r="G29" s="1159" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3211,8 +4777,8 @@
       <c r="F30" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>8</v>
+      <c r="G30" s="1161" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3230,8 +4796,8 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="7" t="s">
-        <v>8</v>
+      <c r="G31" s="1163" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3251,8 +4817,8 @@
       <c r="F32" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>8</v>
+      <c r="G32" s="1165" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3272,8 +4838,8 @@
         <v>142</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="7" t="s">
-        <v>8</v>
+      <c r="G33" s="1167" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3293,11 +4859,11 @@
       <c r="F34" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" ht="40.5" spans="1:7">
+      <c r="G34" s="1169" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="40.5" r="35" spans="1:7">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -3314,8 +4880,8 @@
       <c r="F35" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>8</v>
+      <c r="G35" s="1171" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3335,8 +4901,8 @@
       <c r="F36" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>8</v>
+      <c r="G36" s="1173" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3354,8 +4920,8 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="7" t="s">
-        <v>8</v>
+      <c r="G37" s="1175" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3375,8 +4941,8 @@
       <c r="F38" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>8</v>
+      <c r="G38" s="1177" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3396,8 +4962,8 @@
         <v>154</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="7" t="s">
-        <v>8</v>
+      <c r="G39" s="1179" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3417,8 +4983,8 @@
       <c r="F40" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>8</v>
+      <c r="G40" s="1181" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3438,8 +5004,8 @@
       <c r="F41" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>8</v>
+      <c r="G41" s="1183" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3459,8 +5025,8 @@
       <c r="F42" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>8</v>
+      <c r="G42" s="1185" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3470,13 +5036,13 @@
       <c r="D43" s="12"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="864" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" ht="27" spans="1:7">
+    <row ht="27" r="44" spans="1:7">
       <c r="A44" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>70</v>
@@ -3491,13 +5057,13 @@
       <c r="F44" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="865" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" ht="27" spans="1:7">
+    <row ht="27" r="45" spans="1:7">
       <c r="A45" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>75</v>
@@ -3512,13 +5078,13 @@
       <c r="F45" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="866" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>79</v>
@@ -3533,13 +5099,13 @@
       <c r="F46" s="5">
         <v>2000</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="867" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>83</v>
@@ -3554,13 +5120,13 @@
         <v>164</v>
       </c>
       <c r="F47" s="20"/>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="868" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>88</v>
@@ -3577,13 +5143,13 @@
       <c r="F48" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="869" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>92</v>
@@ -3596,13 +5162,13 @@
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="870" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>96</v>
@@ -3617,13 +5183,13 @@
       <c r="F50" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="871" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>98</v>
@@ -3634,7 +5200,7 @@
         <v>166</v>
       </c>
       <c r="F51" s="15"/>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="872" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3645,13 +5211,13 @@
       <c r="D52" s="12"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="873" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" ht="27" spans="1:7">
+    <row ht="27" r="53" spans="1:7">
       <c r="A53" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>70</v>
@@ -3666,13 +5232,13 @@
       <c r="F53" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>8</v>
+      <c r="G53" s="1187" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>75</v>
@@ -3687,13 +5253,13 @@
       <c r="F54" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>8</v>
+      <c r="G54" s="1189" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>79</v>
@@ -3708,13 +5274,13 @@
         <v>164</v>
       </c>
       <c r="F55" s="22"/>
-      <c r="G55" s="7" t="s">
-        <v>8</v>
+      <c r="G55" s="1191" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>83</v>
@@ -3731,13 +5297,13 @@
       <c r="F56" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>8</v>
+      <c r="G56" s="1193" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>88</v>
@@ -3750,8 +5316,8 @@
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="7" t="s">
-        <v>8</v>
+      <c r="G57" s="1195" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3761,13 +5327,13 @@
       <c r="D58" s="12"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="879" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" ht="27" spans="1:7">
+    <row ht="27" r="59" spans="1:7">
       <c r="A59" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>70</v>
@@ -3782,13 +5348,13 @@
       <c r="F59" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>8</v>
+      <c r="G59" s="1197" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>75</v>
@@ -3803,13 +5369,13 @@
       <c r="F60" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>8</v>
+      <c r="G60" s="1199" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>79</v>
@@ -3824,13 +5390,13 @@
         <v>164</v>
       </c>
       <c r="F61" s="20"/>
-      <c r="G61" s="7" t="s">
-        <v>8</v>
+      <c r="G61" s="1201" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>83</v>
@@ -3847,13 +5413,13 @@
       <c r="F62" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>8</v>
+      <c r="G62" s="1203" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>88</v>
@@ -3866,13 +5432,13 @@
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="7" t="s">
-        <v>8</v>
+      <c r="G63" s="1205" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>92</v>
@@ -3887,13 +5453,13 @@
       <c r="F64" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G64" s="7" t="s">
-        <v>8</v>
+      <c r="G64" s="1207" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>96</v>
@@ -3908,13 +5474,13 @@
         <v>168</v>
       </c>
       <c r="F65" s="5"/>
-      <c r="G65" s="7" t="s">
-        <v>8</v>
+      <c r="G65" s="1209" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>98</v>
@@ -3929,13 +5495,13 @@
       <c r="F66" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>8</v>
+      <c r="G66" s="1211" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>112</v>
@@ -3952,13 +5518,13 @@
       <c r="F67" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G67" s="7" t="s">
-        <v>8</v>
+      <c r="G67" s="1213" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>113</v>
@@ -3973,13 +5539,13 @@
       <c r="F68" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>8</v>
+      <c r="G68" s="1215" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>115</v>
@@ -3994,13 +5560,13 @@
         <v>173</v>
       </c>
       <c r="F69" s="5"/>
-      <c r="G69" s="7" t="s">
-        <v>8</v>
+      <c r="G69" s="1217" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>116</v>
@@ -4015,13 +5581,13 @@
       <c r="F70" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" ht="27" spans="1:7">
+      <c r="G70" s="1219" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="27" r="71" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>118</v>
@@ -4036,13 +5602,13 @@
         <v>175</v>
       </c>
       <c r="F71" s="5"/>
-      <c r="G71" s="7" t="s">
-        <v>8</v>
+      <c r="G71" s="1221" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>116</v>
@@ -4057,13 +5623,13 @@
       <c r="F72" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>8</v>
+      <c r="G72" s="1223" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>118</v>
@@ -4078,13 +5644,13 @@
       <c r="F73" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>8</v>
+      <c r="G73" s="1225" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>119</v>
@@ -4099,8 +5665,8 @@
       <c r="F74" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>8</v>
+      <c r="G74" s="1227" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4110,13 +5676,13 @@
       <c r="D75" s="25"/>
       <c r="E75" s="27"/>
       <c r="F75" s="27"/>
-      <c r="G75" s="7" t="s">
+      <c r="G75" s="896" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" ht="27" spans="1:7">
+    <row ht="27" r="76" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>70</v>
@@ -4131,13 +5697,13 @@
       <c r="F76" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G76" s="7" t="s">
-        <v>8</v>
+      <c r="G76" s="1229" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>75</v>
@@ -4152,13 +5718,13 @@
       <c r="F77" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G77" s="7" t="s">
-        <v>8</v>
+      <c r="G77" s="1231" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>79</v>
@@ -4173,13 +5739,13 @@
         <v>164</v>
       </c>
       <c r="F78" s="20"/>
-      <c r="G78" s="7" t="s">
-        <v>8</v>
+      <c r="G78" s="1233" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>83</v>
@@ -4196,13 +5762,13 @@
       <c r="F79" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="7" t="s">
-        <v>8</v>
+      <c r="G79" s="1235" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>88</v>
@@ -4215,13 +5781,13 @@
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="7" t="s">
-        <v>8</v>
+      <c r="G80" s="1237" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>92</v>
@@ -4236,13 +5802,13 @@
       <c r="F81" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G81" s="7" t="s">
-        <v>8</v>
+      <c r="G81" s="1239" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>96</v>
@@ -4257,13 +5823,13 @@
         <v>179</v>
       </c>
       <c r="F82" s="5"/>
-      <c r="G82" s="7" t="s">
-        <v>8</v>
+      <c r="G82" s="1241" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>98</v>
@@ -4278,13 +5844,13 @@
       <c r="F83" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G83" s="7" t="s">
-        <v>8</v>
+      <c r="G83" s="1243" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>112</v>
@@ -4299,13 +5865,13 @@
         <v>180</v>
       </c>
       <c r="F84" s="5"/>
-      <c r="G84" s="7" t="s">
-        <v>8</v>
+      <c r="G84" s="1245" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>113</v>
@@ -4320,8 +5886,8 @@
       <c r="F85" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>8</v>
+      <c r="G85" s="1247" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4331,13 +5897,13 @@
       <c r="D86" s="25"/>
       <c r="E86" s="27"/>
       <c r="F86" s="27"/>
-      <c r="G86" s="7" t="s">
+      <c r="G86" s="907" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" ht="27" spans="1:7">
+    <row ht="27" r="87" spans="1:7">
       <c r="A87" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>70</v>
@@ -4352,13 +5918,13 @@
       <c r="F87" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="7" t="s">
-        <v>8</v>
+      <c r="G87" s="1249" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>75</v>
@@ -4373,13 +5939,13 @@
       <c r="F88" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G88" s="7" t="s">
-        <v>8</v>
+      <c r="G88" s="1251" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>79</v>
@@ -4394,13 +5960,13 @@
         <v>164</v>
       </c>
       <c r="F89" s="20"/>
-      <c r="G89" s="7" t="s">
-        <v>8</v>
+      <c r="G89" s="1253" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>83</v>
@@ -4417,13 +5983,13 @@
       <c r="F90" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G90" s="7" t="s">
-        <v>8</v>
+      <c r="G90" s="1255" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>88</v>
@@ -4436,13 +6002,13 @@
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="7" t="s">
-        <v>8</v>
+      <c r="G91" s="1257" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>92</v>
@@ -4457,13 +6023,13 @@
       <c r="F92" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G92" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" ht="27" spans="1:7">
+      <c r="G92" s="1259" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="27" r="93" spans="1:7">
       <c r="A93" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>96</v>
@@ -4478,13 +6044,13 @@
         <v>182</v>
       </c>
       <c r="F93" s="6"/>
-      <c r="G93" s="7" t="s">
-        <v>8</v>
+      <c r="G93" s="1261" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>98</v>
@@ -4501,13 +6067,13 @@
       <c r="F94" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G94" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" ht="27" spans="1:7">
+      <c r="G94" s="1263" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="27" r="95" spans="1:7">
       <c r="A95" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>112</v>
@@ -4522,13 +6088,13 @@
         <v>188</v>
       </c>
       <c r="F95" s="6"/>
-      <c r="G95" s="7" t="s">
-        <v>8</v>
+      <c r="G95" s="1265" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>113</v>
@@ -4545,8 +6111,8 @@
       <c r="F96" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G96" s="7" t="s">
-        <v>8</v>
+      <c r="G96" s="1267" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4556,13 +6122,13 @@
       <c r="D97" s="25"/>
       <c r="E97" s="27"/>
       <c r="F97" s="27"/>
-      <c r="G97" s="7" t="s">
+      <c r="G97" s="918" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" ht="27" spans="1:7">
+    <row ht="27" r="98" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>70</v>
@@ -4577,13 +6143,13 @@
       <c r="F98" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G98" s="7" t="s">
-        <v>8</v>
+      <c r="G98" s="1269" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>75</v>
@@ -4598,13 +6164,13 @@
       <c r="F99" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G99" s="7" t="s">
-        <v>8</v>
+      <c r="G99" s="1271" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>79</v>
@@ -4619,8 +6185,8 @@
         <v>191</v>
       </c>
       <c r="F100" s="28"/>
-      <c r="G100" s="7" t="s">
-        <v>8</v>
+      <c r="G100" s="1273" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4630,11 +6196,11 @@
       <c r="D101" s="25"/>
       <c r="E101" s="27"/>
       <c r="F101" s="27"/>
-      <c r="G101" s="7" t="s">
+      <c r="G101" s="922" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" ht="27" spans="1:7">
+    <row ht="27" r="102" spans="1:7">
       <c r="A102" s="4" t="s">
         <v>24</v>
       </c>
@@ -4651,7 +6217,7 @@
       <c r="F102" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G102" s="7" t="s">
+      <c r="G102" s="923" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4672,7 +6238,7 @@
       <c r="F103" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="G103" s="924" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4693,7 +6259,7 @@
         <v>164</v>
       </c>
       <c r="F104" s="20"/>
-      <c r="G104" s="7" t="s">
+      <c r="G104" s="925" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4716,7 +6282,7 @@
       <c r="F105" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G105" s="7" t="s">
+      <c r="G105" s="926" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4729,7 +6295,7 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="7" t="s">
+      <c r="G106" s="927" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4742,7 +6308,7 @@
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="7" t="s">
+      <c r="G107" s="928" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4755,7 +6321,7 @@
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="7" t="s">
+      <c r="G108" s="929" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4768,7 +6334,7 @@
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="7" t="s">
+      <c r="G109" s="930" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4781,7 +6347,7 @@
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="7" t="s">
+      <c r="G110" s="931" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4792,11 +6358,11 @@
       <c r="D111" s="25"/>
       <c r="E111" s="27"/>
       <c r="F111" s="27"/>
-      <c r="G111" s="7" t="s">
+      <c r="G111" s="932" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" ht="27" spans="1:7">
+    <row ht="27" r="112" spans="1:7">
       <c r="A112" s="4" t="s">
         <v>28</v>
       </c>
@@ -4813,8 +6379,8 @@
       <c r="F112" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G112" s="7" t="s">
-        <v>8</v>
+      <c r="G112" s="1275" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4834,8 +6400,8 @@
       <c r="F113" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G113" s="7" t="s">
-        <v>8</v>
+      <c r="G113" s="1277" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4855,8 +6421,8 @@
         <v>194</v>
       </c>
       <c r="F114" s="20"/>
-      <c r="G114" s="7" t="s">
-        <v>8</v>
+      <c r="G114" s="1279" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4876,8 +6442,8 @@
       <c r="F115" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G115" s="7" t="s">
-        <v>8</v>
+      <c r="G115" s="1281" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4897,8 +6463,8 @@
         <v>196</v>
       </c>
       <c r="F116" s="20"/>
-      <c r="G116" s="7" t="s">
-        <v>8</v>
+      <c r="G116" s="1283" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4918,11 +6484,11 @@
       <c r="F117" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G117" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" ht="54" spans="1:7">
+      <c r="G117" s="1285" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="54" r="118" spans="1:7">
       <c r="A118" s="4" t="s">
         <v>28</v>
       </c>
@@ -4939,8 +6505,8 @@
       <c r="F118" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G118" s="7" t="s">
-        <v>8</v>
+      <c r="G118" s="1287" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4960,8 +6526,8 @@
       <c r="F119" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G119" s="7" t="s">
-        <v>8</v>
+      <c r="G119" s="1289" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4979,8 +6545,8 @@
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="7" t="s">
-        <v>8</v>
+      <c r="G120" s="1291" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5000,8 +6566,8 @@
       <c r="F121" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="G121" s="7" t="s">
-        <v>8</v>
+      <c r="G121" s="1293" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5021,8 +6587,8 @@
         <v>200</v>
       </c>
       <c r="F122" s="20"/>
-      <c r="G122" s="7" t="s">
-        <v>8</v>
+      <c r="G122" s="1295" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5042,11 +6608,11 @@
       <c r="F123" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G123" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" ht="54" spans="1:7">
+      <c r="G123" s="1297" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="54" r="124" spans="1:7">
       <c r="A124" s="4" t="s">
         <v>28</v>
       </c>
@@ -5063,8 +6629,8 @@
       <c r="F124" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G124" s="7" t="s">
-        <v>8</v>
+      <c r="G124" s="1299" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5084,8 +6650,8 @@
       <c r="F125" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G125" s="7" t="s">
-        <v>8</v>
+      <c r="G125" s="1301" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5103,8 +6669,8 @@
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
-      <c r="G126" s="7" t="s">
-        <v>8</v>
+      <c r="G126" s="1303" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5124,8 +6690,8 @@
       <c r="F127" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="G127" s="7" t="s">
-        <v>8</v>
+      <c r="G127" s="1305" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5145,8 +6711,8 @@
         <v>203</v>
       </c>
       <c r="F128" s="5"/>
-      <c r="G128" s="7" t="s">
-        <v>8</v>
+      <c r="G128" s="1307" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5166,8 +6732,8 @@
       <c r="F129" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G129" s="7" t="s">
-        <v>8</v>
+      <c r="G129" s="1309" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5187,8 +6753,8 @@
         <v>204</v>
       </c>
       <c r="F130" s="5"/>
-      <c r="G130" s="7" t="s">
-        <v>8</v>
+      <c r="G130" s="1311" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5208,8 +6774,8 @@
       <c r="F131" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G131" s="7" t="s">
-        <v>8</v>
+      <c r="G131" s="1313" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5229,8 +6795,8 @@
         <v>196</v>
       </c>
       <c r="F132" s="20"/>
-      <c r="G132" s="7" t="s">
-        <v>8</v>
+      <c r="G132" s="1315" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5250,11 +6816,11 @@
       <c r="F133" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G133" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" ht="54" spans="1:7">
+      <c r="G133" s="1317" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="54" r="134" spans="1:7">
       <c r="A134" s="4" t="s">
         <v>28</v>
       </c>
@@ -5271,8 +6837,8 @@
       <c r="F134" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G134" s="7" t="s">
-        <v>8</v>
+      <c r="G134" s="1319" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5292,8 +6858,8 @@
       <c r="F135" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G135" s="7" t="s">
-        <v>8</v>
+      <c r="G135" s="1321" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5311,8 +6877,8 @@
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="7" t="s">
-        <v>8</v>
+      <c r="G136" s="1323" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5332,8 +6898,8 @@
       <c r="F137" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="G137" s="7" t="s">
-        <v>8</v>
+      <c r="G137" s="1325" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5355,8 +6921,8 @@
       <c r="F138" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="G138" s="7" t="s">
-        <v>8</v>
+      <c r="G138" s="1327" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5376,8 +6942,8 @@
         <v>210</v>
       </c>
       <c r="F139" s="5"/>
-      <c r="G139" s="7" t="s">
-        <v>8</v>
+      <c r="G139" s="1329" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5397,8 +6963,8 @@
       <c r="F140" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G140" s="7" t="s">
-        <v>8</v>
+      <c r="G140" s="1331" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5418,8 +6984,8 @@
         <v>212</v>
       </c>
       <c r="F141" s="5"/>
-      <c r="G141" s="7" t="s">
-        <v>8</v>
+      <c r="G141" s="1333" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5439,8 +7005,8 @@
       <c r="F142" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G142" s="7" t="s">
-        <v>8</v>
+      <c r="G142" s="1335" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5460,8 +7026,8 @@
         <v>214</v>
       </c>
       <c r="F143" s="5"/>
-      <c r="G143" s="7" t="s">
-        <v>8</v>
+      <c r="G143" s="1337" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5481,11 +7047,11 @@
       <c r="F144" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G144" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" ht="27" spans="1:7">
+      <c r="G144" s="1339" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="27" r="145" spans="1:7">
       <c r="A145" s="4" t="s">
         <v>28</v>
       </c>
@@ -5502,8 +7068,8 @@
         <v>218</v>
       </c>
       <c r="F145" s="5"/>
-      <c r="G145" s="7" t="s">
-        <v>8</v>
+      <c r="G145" s="1341" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5523,11 +7089,11 @@
       <c r="F146" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G146" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" ht="27" spans="1:7">
+      <c r="G146" s="1343" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="27" r="147" spans="1:7">
       <c r="A147" s="4" t="s">
         <v>28</v>
       </c>
@@ -5546,11 +7112,11 @@
       <c r="F147" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G147" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" ht="27" spans="1:7">
+      <c r="G147" s="1345" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="27" r="148" spans="1:7">
       <c r="A148" s="4" t="s">
         <v>28</v>
       </c>
@@ -5567,8 +7133,8 @@
         <v>225</v>
       </c>
       <c r="F148" s="5"/>
-      <c r="G148" s="7" t="s">
-        <v>8</v>
+      <c r="G148" s="1347" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5588,8 +7154,8 @@
       <c r="F149" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="G149" s="7" t="s">
-        <v>8</v>
+      <c r="G149" s="1349" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5609,8 +7175,8 @@
       <c r="F150" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G150" s="7" t="s">
-        <v>8</v>
+      <c r="G150" s="1351" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5630,8 +7196,8 @@
       <c r="F151" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G151" s="7" t="s">
-        <v>8</v>
+      <c r="G151" s="1353" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5641,11 +7207,11 @@
       <c r="D152" s="25"/>
       <c r="E152" s="27"/>
       <c r="F152" s="27"/>
-      <c r="G152" s="7" t="s">
+      <c r="G152" s="973" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153" ht="27" spans="1:7">
+    <row ht="27" r="153" spans="1:7">
       <c r="A153" s="4" t="s">
         <v>30</v>
       </c>
@@ -5662,8 +7228,8 @@
       <c r="F153" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G153" s="7" t="s">
-        <v>8</v>
+      <c r="G153" s="1355" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5683,8 +7249,8 @@
       <c r="F154" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G154" s="7" t="s">
-        <v>8</v>
+      <c r="G154" s="1357" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5704,8 +7270,8 @@
         <v>232</v>
       </c>
       <c r="F155" s="5"/>
-      <c r="G155" s="7" t="s">
-        <v>8</v>
+      <c r="G155" s="1359" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5727,8 +7293,8 @@
       <c r="F156" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G156" s="7" t="s">
-        <v>8</v>
+      <c r="G156" s="1361" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5746,8 +7312,8 @@
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
-      <c r="G157" s="7" t="s">
-        <v>8</v>
+      <c r="G157" s="1363" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5757,7 +7323,7 @@
       <c r="D158" s="25"/>
       <c r="E158" s="27"/>
       <c r="F158" s="27"/>
-      <c r="G158" s="7" t="s">
+      <c r="G158" s="979" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5778,11 +7344,11 @@
       <c r="F159" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G159" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" ht="27" spans="1:7">
+      <c r="G159" s="1365" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="27" r="160" spans="1:7">
       <c r="A160" s="4" t="s">
         <v>32</v>
       </c>
@@ -5799,8 +7365,8 @@
         <v>235</v>
       </c>
       <c r="F160" s="5"/>
-      <c r="G160" s="7" t="s">
-        <v>8</v>
+      <c r="G160" s="1367" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5822,8 +7388,8 @@
       <c r="F161" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G161" s="7" t="s">
-        <v>8</v>
+      <c r="G161" s="1369" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5843,11 +7409,11 @@
         <v>239</v>
       </c>
       <c r="F162" s="5"/>
-      <c r="G162" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" ht="27" spans="1:7">
+      <c r="G162" s="1371" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="27" r="163" spans="1:7">
       <c r="A163" s="4" t="s">
         <v>32</v>
       </c>
@@ -5866,8 +7432,8 @@
       <c r="F163" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="G163" s="7" t="s">
-        <v>8</v>
+      <c r="G163" s="1373" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5877,7 +7443,7 @@
       <c r="D164" s="25"/>
       <c r="E164" s="27"/>
       <c r="F164" s="27"/>
-      <c r="G164" s="7" t="s">
+      <c r="G164" s="985" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5898,11 +7464,11 @@
       <c r="F165" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G165" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" ht="27" spans="1:7">
+      <c r="G165" s="1375" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="27" r="166" spans="1:7">
       <c r="A166" s="4" t="s">
         <v>34</v>
       </c>
@@ -5919,8 +7485,8 @@
         <v>235</v>
       </c>
       <c r="F166" s="5"/>
-      <c r="G166" s="7" t="s">
-        <v>8</v>
+      <c r="G166" s="1377" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5940,8 +7506,8 @@
       <c r="F167" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G167" s="7" t="s">
-        <v>8</v>
+      <c r="G167" s="1379" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5961,11 +7527,11 @@
         <v>243</v>
       </c>
       <c r="F168" s="5"/>
-      <c r="G168" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" ht="27" spans="1:7">
+      <c r="G168" s="1381" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="27" r="169" spans="1:7">
       <c r="A169" s="4" t="s">
         <v>34</v>
       </c>
@@ -5984,8 +7550,8 @@
       <c r="F169" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="G169" s="7" t="s">
-        <v>8</v>
+      <c r="G169" s="1383" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5995,7 +7561,7 @@
       <c r="D170" s="25"/>
       <c r="E170" s="27"/>
       <c r="F170" s="27"/>
-      <c r="G170" s="7" t="s">
+      <c r="G170" s="991" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6016,11 +7582,11 @@
       <c r="F171" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G171" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" ht="27" spans="1:7">
+      <c r="G171" s="1385" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="27" r="172" spans="1:7">
       <c r="A172" s="4" t="s">
         <v>36</v>
       </c>
@@ -6037,8 +7603,8 @@
         <v>245</v>
       </c>
       <c r="F172" s="5"/>
-      <c r="G172" s="7" t="s">
-        <v>8</v>
+      <c r="G172" s="1387" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -6060,8 +7626,8 @@
       <c r="F173" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G173" s="7" t="s">
-        <v>8</v>
+      <c r="G173" s="1389" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6071,7 +7637,7 @@
       <c r="D174" s="30"/>
       <c r="E174" s="31"/>
       <c r="F174" s="30"/>
-      <c r="G174" s="7" t="s">
+      <c r="G174" s="995" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6092,11 +7658,11 @@
       <c r="F175" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G175" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" ht="27" spans="1:7">
+      <c r="G175" s="1391" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="27" r="176" spans="1:7">
       <c r="A176" s="4" t="s">
         <v>38</v>
       </c>
@@ -6113,8 +7679,8 @@
         <v>245</v>
       </c>
       <c r="F176" s="5"/>
-      <c r="G176" s="7" t="s">
-        <v>8</v>
+      <c r="G176" s="1393" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6136,8 +7702,8 @@
       <c r="F177" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G177" s="7" t="s">
-        <v>8</v>
+      <c r="G177" s="1395" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6147,7 +7713,7 @@
       <c r="D178" s="25"/>
       <c r="E178" s="27"/>
       <c r="F178" s="27"/>
-      <c r="G178" s="7" t="s">
+      <c r="G178" s="999" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6168,8 +7734,8 @@
       <c r="F179" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G179" s="7" t="s">
-        <v>8</v>
+      <c r="G179" s="1397" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6189,8 +7755,8 @@
         <v>248</v>
       </c>
       <c r="F180" s="5"/>
-      <c r="G180" s="7" t="s">
-        <v>8</v>
+      <c r="G180" s="1399" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6210,8 +7776,8 @@
       <c r="F181" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G181" s="7" t="s">
-        <v>8</v>
+      <c r="G181" s="1401" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6231,8 +7797,8 @@
       <c r="F182" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G182" s="7" t="s">
-        <v>8</v>
+      <c r="G182" s="1403" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6254,8 +7820,8 @@
       <c r="F183" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="G183" s="7" t="s">
-        <v>8</v>
+      <c r="G183" s="1405" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6275,18 +7841,18 @@
         <v>254</v>
       </c>
       <c r="F184" s="5"/>
-      <c r="G184" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" customFormat="1" spans="1:7">
+      <c r="G184" s="1407" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row customFormat="1" r="185" spans="1:7">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="26"/>
       <c r="D185" s="25"/>
       <c r="E185" s="27"/>
       <c r="F185" s="27"/>
-      <c r="G185" s="7" t="s">
+      <c r="G185" s="1006" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6307,8 +7873,8 @@
       <c r="F186" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G186" s="7" t="s">
-        <v>8</v>
+      <c r="G186" s="1409" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6328,8 +7894,8 @@
         <v>232</v>
       </c>
       <c r="F187" s="5"/>
-      <c r="G187" s="7" t="s">
-        <v>8</v>
+      <c r="G187" s="1411" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6351,8 +7917,8 @@
       <c r="F188" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G188" s="7" t="s">
-        <v>8</v>
+      <c r="G188" s="1413" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6370,8 +7936,8 @@
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
-      <c r="G189" s="7" t="s">
-        <v>8</v>
+      <c r="G189" s="1415" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6391,8 +7957,8 @@
       <c r="F190" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G190" s="7" t="s">
-        <v>8</v>
+      <c r="G190" s="1417" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6412,8 +7978,8 @@
         <v>256</v>
       </c>
       <c r="F191" s="5"/>
-      <c r="G191" s="7" t="s">
-        <v>8</v>
+      <c r="G191" s="1419" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6433,8 +7999,8 @@
       <c r="F192" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G192" s="7" t="s">
-        <v>8</v>
+      <c r="G192" s="1421" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6456,8 +8022,8 @@
       <c r="F193" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G193" s="7" t="s">
-        <v>8</v>
+      <c r="G193" s="1423" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6477,8 +8043,8 @@
         <v>260</v>
       </c>
       <c r="F194" s="5"/>
-      <c r="G194" s="7" t="s">
-        <v>8</v>
+      <c r="G194" s="1425" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6498,11 +8064,11 @@
       <c r="F195" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G195" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" ht="27" spans="1:7">
+      <c r="G195" s="1427" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="27" r="196" spans="1:7">
       <c r="A196" s="4" t="s">
         <v>42</v>
       </c>
@@ -6519,8 +8085,8 @@
         <v>261</v>
       </c>
       <c r="F196" s="5"/>
-      <c r="G196" s="7" t="s">
-        <v>8</v>
+      <c r="G196" s="1429" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6540,8 +8106,8 @@
       <c r="F197" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="G197" s="7" t="s">
-        <v>8</v>
+      <c r="G197" s="1431" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6561,8 +8127,8 @@
         <v>232</v>
       </c>
       <c r="F198" s="5"/>
-      <c r="G198" s="7" t="s">
-        <v>8</v>
+      <c r="G198" s="1433" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6584,8 +8150,8 @@
       <c r="F199" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G199" s="7" t="s">
-        <v>8</v>
+      <c r="G199" s="1435" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6603,8 +8169,8 @@
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
-      <c r="G200" s="7" t="s">
-        <v>8</v>
+      <c r="G200" s="1437" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6624,8 +8190,8 @@
       <c r="F201" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G201" s="7" t="s">
-        <v>8</v>
+      <c r="G201" s="1439" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6647,8 +8213,8 @@
       <c r="F202" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G202" s="7" t="s">
-        <v>8</v>
+      <c r="G202" s="1441" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6658,11 +8224,11 @@
       <c r="D203" s="25"/>
       <c r="E203" s="27"/>
       <c r="F203" s="27"/>
-      <c r="G203" s="7" t="s">
+      <c r="G203" s="1024" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="204" ht="27" spans="1:7">
+    <row ht="27" r="204" spans="1:7">
       <c r="A204" s="4" t="s">
         <v>44</v>
       </c>
@@ -6679,8 +8245,8 @@
       <c r="F204" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G204" s="7" t="s">
-        <v>8</v>
+      <c r="G204" s="1443" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6700,8 +8266,8 @@
       <c r="F205" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G205" s="7" t="s">
-        <v>8</v>
+      <c r="G205" s="1445" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6721,8 +8287,8 @@
         <v>264</v>
       </c>
       <c r="F206" s="5"/>
-      <c r="G206" s="7" t="s">
-        <v>8</v>
+      <c r="G206" s="1447" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6732,11 +8298,11 @@
       <c r="D207" s="25"/>
       <c r="E207" s="27"/>
       <c r="F207" s="27"/>
-      <c r="G207" s="7" t="s">
+      <c r="G207" s="1028" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="208" ht="27" spans="1:7">
+    <row ht="27" r="208" spans="1:7">
       <c r="A208" s="4" t="s">
         <v>46</v>
       </c>
@@ -6753,8 +8319,8 @@
       <c r="F208" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G208" s="7" t="s">
-        <v>8</v>
+      <c r="G208" s="1449" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6774,8 +8340,8 @@
         <v>267</v>
       </c>
       <c r="F209" s="5"/>
-      <c r="G209" s="7" t="s">
-        <v>8</v>
+      <c r="G209" s="1451" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6797,8 +8363,8 @@
       <c r="F210" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G210" s="7" t="s">
-        <v>8</v>
+      <c r="G210" s="1453" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6818,8 +8384,8 @@
         <v>272</v>
       </c>
       <c r="F211" s="5"/>
-      <c r="G211" s="7" t="s">
-        <v>8</v>
+      <c r="G211" s="1455" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6839,8 +8405,8 @@
         <v>273</v>
       </c>
       <c r="F212" s="5"/>
-      <c r="G212" s="7" t="s">
-        <v>8</v>
+      <c r="G212" s="1457" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6860,8 +8426,8 @@
         <v>274</v>
       </c>
       <c r="F213" s="5"/>
-      <c r="G213" s="7" t="s">
-        <v>8</v>
+      <c r="G213" s="1459" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6881,8 +8447,8 @@
         <v>275</v>
       </c>
       <c r="F214" s="5"/>
-      <c r="G214" s="7" t="s">
-        <v>8</v>
+      <c r="G214" s="1461" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6904,8 +8470,8 @@
       <c r="F215" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="G215" s="7" t="s">
-        <v>8</v>
+      <c r="G215" s="1463" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6927,8 +8493,8 @@
       <c r="F216" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="G216" s="7" t="s">
-        <v>8</v>
+      <c r="G216" s="1465" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6948,8 +8514,8 @@
         <v>281</v>
       </c>
       <c r="F217" s="5"/>
-      <c r="G217" s="7" t="s">
-        <v>8</v>
+      <c r="G217" s="1467" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6969,8 +8535,8 @@
         <v>282</v>
       </c>
       <c r="F218" s="5"/>
-      <c r="G218" s="7" t="s">
-        <v>8</v>
+      <c r="G218" s="1469" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6990,8 +8556,8 @@
         <v>283</v>
       </c>
       <c r="F219" s="5"/>
-      <c r="G219" s="7" t="s">
-        <v>8</v>
+      <c r="G219" s="1471" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7011,8 +8577,8 @@
         <v>285</v>
       </c>
       <c r="F220" s="5"/>
-      <c r="G220" s="7" t="s">
-        <v>8</v>
+      <c r="G220" s="1473" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7034,8 +8600,8 @@
       <c r="F221" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G221" s="7" t="s">
-        <v>8</v>
+      <c r="G221" s="1475" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7053,8 +8619,8 @@
       </c>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
-      <c r="G222" s="7" t="s">
-        <v>8</v>
+      <c r="G222" s="1477" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7074,8 +8640,8 @@
         <v>289</v>
       </c>
       <c r="F223" s="5"/>
-      <c r="G223" s="7" t="s">
-        <v>8</v>
+      <c r="G223" s="1479" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7095,8 +8661,8 @@
         <v>291</v>
       </c>
       <c r="F224" s="5"/>
-      <c r="G224" s="7" t="s">
-        <v>8</v>
+      <c r="G224" s="1481" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7118,8 +8684,8 @@
       <c r="F225" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G225" s="7" t="s">
-        <v>8</v>
+      <c r="G225" s="1483" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7137,8 +8703,8 @@
       </c>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
-      <c r="G226" s="7" t="s">
-        <v>8</v>
+      <c r="G226" s="1485" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7158,8 +8724,8 @@
         <v>294</v>
       </c>
       <c r="F227" s="5"/>
-      <c r="G227" s="7" t="s">
-        <v>8</v>
+      <c r="G227" s="1487" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7179,11 +8745,11 @@
       <c r="F228" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G228" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="229" ht="54" spans="1:7">
+      <c r="G228" s="1489" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row ht="54" r="229" spans="1:7">
       <c r="A229" s="4" t="s">
         <v>46</v>
       </c>
@@ -7200,8 +8766,8 @@
       <c r="F229" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G229" s="7" t="s">
-        <v>8</v>
+      <c r="G229" s="1491" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7221,8 +8787,8 @@
       <c r="F230" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G230" s="7" t="s">
-        <v>8</v>
+      <c r="G230" s="1493" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7240,8 +8806,8 @@
       </c>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
-      <c r="G231" s="7" t="s">
-        <v>8</v>
+      <c r="G231" s="1495" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7261,8 +8827,8 @@
       <c r="F232" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="G232" s="7" t="s">
-        <v>8</v>
+      <c r="G232" s="1497" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7282,8 +8848,8 @@
         <v>296</v>
       </c>
       <c r="F233" s="5"/>
-      <c r="G233" s="7" t="s">
-        <v>8</v>
+      <c r="G233" s="1499" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7305,8 +8871,8 @@
       <c r="F234" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G234" s="7" t="s">
-        <v>8</v>
+      <c r="G234" s="1501" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7316,11 +8882,11 @@
       <c r="D235" s="31"/>
       <c r="E235" s="31"/>
       <c r="F235" s="31"/>
-      <c r="G235" s="7" t="s">
+      <c r="G235" s="1056" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="236" ht="27" spans="1:7">
+    <row ht="27" r="236" spans="1:7">
       <c r="A236" s="4" t="s">
         <v>48</v>
       </c>
@@ -7337,8 +8903,8 @@
       <c r="F236" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G236" s="7" t="s">
-        <v>8</v>
+      <c r="G236" s="1503" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7358,8 +8924,8 @@
         <v>299</v>
       </c>
       <c r="F237" s="5"/>
-      <c r="G237" s="7" t="s">
-        <v>8</v>
+      <c r="G237" s="1505" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7381,8 +8947,8 @@
       <c r="F238" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G238" s="7" t="s">
-        <v>8</v>
+      <c r="G238" s="1507" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7400,7 +8966,9 @@
       </c>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
-      <c r="G239" s="7"/>
+      <c r="G239" s="1509" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="4" t="s">
@@ -7421,8 +8989,8 @@
       <c r="F240" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G240" s="7" t="s">
-        <v>8</v>
+      <c r="G240" s="1511" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7432,11 +9000,11 @@
       <c r="D241" s="31"/>
       <c r="E241" s="31"/>
       <c r="F241" s="31"/>
-      <c r="G241" s="7" t="s">
+      <c r="G241" s="1062" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="242" ht="27" spans="1:7">
+    <row ht="27" r="242" spans="1:7">
       <c r="A242" s="4" t="s">
         <v>50</v>
       </c>
@@ -7453,8 +9021,8 @@
       <c r="F242" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G242" s="7" t="s">
-        <v>8</v>
+      <c r="G242" s="1513" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7474,8 +9042,8 @@
         <v>299</v>
       </c>
       <c r="F243" s="5"/>
-      <c r="G243" s="7" t="s">
-        <v>8</v>
+      <c r="G243" s="1515" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7497,8 +9065,8 @@
       <c r="F244" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G244" s="7" t="s">
-        <v>8</v>
+      <c r="G244" s="1517" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7516,7 +9084,9 @@
       </c>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
-      <c r="G245" s="7"/>
+      <c r="G245" s="1519" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="4" t="s">
@@ -7535,8 +9105,8 @@
         <v>301</v>
       </c>
       <c r="F246" s="5"/>
-      <c r="G246" s="7" t="s">
-        <v>8</v>
+      <c r="G246" s="1521" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7558,8 +9128,8 @@
       <c r="F247" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G247" s="7" t="s">
-        <v>8</v>
+      <c r="G247" s="1523" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7579,8 +9149,8 @@
         <v>304</v>
       </c>
       <c r="F248" s="5"/>
-      <c r="G248" s="7" t="s">
-        <v>8</v>
+      <c r="G248" s="1525" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7602,8 +9172,8 @@
       <c r="F249" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="G249" s="7" t="s">
-        <v>8</v>
+      <c r="G249" s="1527" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7613,11 +9183,11 @@
       <c r="D250" s="31"/>
       <c r="E250" s="31"/>
       <c r="F250" s="31"/>
-      <c r="G250" s="7" t="s">
+      <c r="G250" s="1071" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="251" ht="27" spans="1:7">
+    <row ht="27" r="251" spans="1:7">
       <c r="A251" s="4" t="s">
         <v>52</v>
       </c>
@@ -7634,8 +9204,8 @@
       <c r="F251" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G251" s="7" t="s">
-        <v>8</v>
+      <c r="G251" s="1529" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7655,8 +9225,8 @@
         <v>299</v>
       </c>
       <c r="F252" s="5"/>
-      <c r="G252" s="7" t="s">
-        <v>8</v>
+      <c r="G252" s="1531" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7678,8 +9248,8 @@
       <c r="F253" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G253" s="7" t="s">
-        <v>8</v>
+      <c r="G253" s="1533" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7697,7 +9267,9 @@
       </c>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
-      <c r="G254" s="7"/>
+      <c r="G254" s="1535" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="4" t="s">
@@ -7716,8 +9288,8 @@
         <v>308</v>
       </c>
       <c r="F255" s="5"/>
-      <c r="G255" s="7" t="s">
-        <v>8</v>
+      <c r="G255" s="1537" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7739,8 +9311,8 @@
       <c r="F256" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G256" s="7" t="s">
-        <v>8</v>
+      <c r="G256" s="1539" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7760,8 +9332,8 @@
         <v>311</v>
       </c>
       <c r="F257" s="5"/>
-      <c r="G257" s="7" t="s">
-        <v>8</v>
+      <c r="G257" s="1541" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7783,8 +9355,8 @@
       <c r="F258" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G258" s="7" t="s">
-        <v>8</v>
+      <c r="G258" s="1543" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7794,11 +9366,11 @@
       <c r="D259" s="31"/>
       <c r="E259" s="31"/>
       <c r="F259" s="31"/>
-      <c r="G259" s="7" t="s">
+      <c r="G259" s="1080" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="260" ht="27" spans="1:7">
+    <row ht="27" r="260" spans="1:7">
       <c r="A260" s="4" t="s">
         <v>54</v>
       </c>
@@ -7815,8 +9387,8 @@
       <c r="F260" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G260" s="7" t="s">
-        <v>8</v>
+      <c r="G260" s="1545" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7836,8 +9408,8 @@
         <v>299</v>
       </c>
       <c r="F261" s="5"/>
-      <c r="G261" s="7" t="s">
-        <v>8</v>
+      <c r="G261" s="1547" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7859,8 +9431,8 @@
       <c r="F262" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G262" s="7" t="s">
-        <v>8</v>
+      <c r="G262" s="1549" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7878,7 +9450,9 @@
       </c>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
-      <c r="G263" s="7"/>
+      <c r="G263" s="1551" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="4" t="s">
@@ -7897,8 +9471,8 @@
         <v>308</v>
       </c>
       <c r="F264" s="5"/>
-      <c r="G264" s="7" t="s">
-        <v>8</v>
+      <c r="G264" s="1553" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7918,8 +9492,8 @@
         <v>314</v>
       </c>
       <c r="F265" s="5"/>
-      <c r="G265" s="7" t="s">
-        <v>8</v>
+      <c r="G265" s="1555" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7941,8 +9515,8 @@
       <c r="F266" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G266" s="7" t="s">
-        <v>8</v>
+      <c r="G266" s="1557" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -7952,11 +9526,11 @@
       <c r="D267" s="31"/>
       <c r="E267" s="31"/>
       <c r="F267" s="31"/>
-      <c r="G267" s="7" t="s">
+      <c r="G267" s="1088" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="268" ht="27" spans="1:7">
+    <row ht="27" r="268" spans="1:7">
       <c r="A268" s="4" t="s">
         <v>56</v>
       </c>
@@ -7973,7 +9547,7 @@
       <c r="F268" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G268" s="7" t="s">
+      <c r="G268" s="1559" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7994,7 +9568,7 @@
         <v>299</v>
       </c>
       <c r="F269" s="5"/>
-      <c r="G269" s="7" t="s">
+      <c r="G269" s="1561" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8017,7 +9591,7 @@
       <c r="F270" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G270" s="7" t="s">
+      <c r="G270" s="1563" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8036,7 +9610,9 @@
       </c>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
-      <c r="G271" s="7"/>
+      <c r="G271" s="1565" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="4" t="s">
@@ -8055,7 +9631,7 @@
         <v>315</v>
       </c>
       <c r="F272" s="5"/>
-      <c r="G272" s="7" t="s">
+      <c r="G272" s="1567" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8078,7 +9654,7 @@
       <c r="F273" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G273" s="7" t="s">
+      <c r="G273" s="1569" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8099,7 +9675,7 @@
         <v>315</v>
       </c>
       <c r="F274" s="5"/>
-      <c r="G274" s="7" t="s">
+      <c r="G274" s="1571" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8122,7 +9698,7 @@
       <c r="F275" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G275" s="7" t="s">
+      <c r="G275" s="1573" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8133,7 +9709,7 @@
       <c r="D276" s="31"/>
       <c r="E276" s="31"/>
       <c r="F276" s="31"/>
-      <c r="G276" s="7" t="s">
+      <c r="G276" s="1097" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8144,7 +9720,7 @@
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
-      <c r="G277" s="7" t="s">
+      <c r="G277" s="1098" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8155,7 +9731,7 @@
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
-      <c r="G278" s="7" t="s">
+      <c r="G278" s="1099" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8166,7 +9742,7 @@
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
-      <c r="G279" s="7" t="s">
+      <c r="G279" s="1100" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8177,7 +9753,7 @@
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
-      <c r="G280" s="7" t="s">
+      <c r="G280" s="1101" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8188,7 +9764,7 @@
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
-      <c r="G281" s="7" t="s">
+      <c r="G281" s="1102" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8199,7 +9775,7 @@
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
-      <c r="G282" s="7" t="s">
+      <c r="G282" s="1103" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8210,11 +9786,11 @@
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
-      <c r="G283" s="7" t="s">
+      <c r="G283" s="1104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="284" ht="27" spans="1:7">
+    <row ht="27" r="284" spans="1:7">
       <c r="A284" s="4" t="s">
         <v>63</v>
       </c>
@@ -8231,11 +9807,11 @@
       <c r="F284" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="G284" s="7" t="s">
+      <c r="G284" s="1105" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="285" ht="27" spans="1:7">
+    <row ht="27" r="285" spans="1:7">
       <c r="A285" s="4" t="s">
         <v>63</v>
       </c>
@@ -8254,35 +9830,35 @@
       <c r="F285" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G285" s="7" t="s">
+      <c r="G285" s="1106" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="http://tumaxadmin.to8to.com/#/login" tooltip="http://tumaxadmin.to8to.com/#/login"/>
-    <hyperlink ref="F11" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
-    <hyperlink ref="F53" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
-    <hyperlink ref="F59" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
-    <hyperlink ref="F76" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
-    <hyperlink ref="F87" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
-    <hyperlink ref="F98" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
-    <hyperlink ref="F112" r:id="rId3" display="https://tumaxadmin.to8to.com/#/material/materiallist" tooltip="https://tumaxadmin.to8to.com/#/material/materiallist"/>
-    <hyperlink ref="F153" r:id="rId3" display="https://tumaxadmin.to8to.com/#/material/materiallist" tooltip="https://tumaxadmin.to8to.com/#/material/materiallist"/>
-    <hyperlink ref="F102" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
-    <hyperlink ref="F44" r:id="rId2" display="TestModelCyan"/>
-    <hyperlink ref="F45" r:id="rId2" display="http://tumaxadmin.to8to.com/#/material/modellist"/>
-    <hyperlink ref="F204" r:id="rId3" display="https://tumaxadmin.to8to.com/#/material/materiallist" tooltip="https://tumaxadmin.to8to.com/#/material/materiallist"/>
-    <hyperlink ref="F284" r:id="rId4" display="https://tumaxadmin.to8to.com/#/material/classification" tooltip="https://tumaxadmin.to8to.com/#/material/classification"/>
-    <hyperlink ref="F208" r:id="rId5" display="https://tumaxadmin.to8to.com/#/material/texturelist"/>
-    <hyperlink ref="F236" r:id="rId5" display="https://tumaxadmin.to8to.com/#/material/texturelist"/>
-    <hyperlink ref="F242" r:id="rId5" display="https://tumaxadmin.to8to.com/#/material/texturelist"/>
-    <hyperlink ref="F251" r:id="rId5" display="https://tumaxadmin.to8to.com/#/material/texturelist"/>
-    <hyperlink ref="F260" r:id="rId5" display="https://tumaxadmin.to8to.com/#/material/texturelist"/>
-    <hyperlink ref="F268" r:id="rId5" display="https://tumaxadmin.to8to.com/#/material/texturelist"/>
+    <hyperlink display="http://tumaxadmin.to8to.com/#/login" r:id="rId1" ref="F3" tooltip="http://tumaxadmin.to8to.com/#/login"/>
+    <hyperlink display="http://tumaxadmin.to8to.com/#/material/modellist" r:id="rId2" ref="F11"/>
+    <hyperlink display="http://tumaxadmin.to8to.com/#/material/modellist" r:id="rId2" ref="F53"/>
+    <hyperlink display="http://tumaxadmin.to8to.com/#/material/modellist" r:id="rId2" ref="F59"/>
+    <hyperlink display="http://tumaxadmin.to8to.com/#/material/modellist" r:id="rId2" ref="F76"/>
+    <hyperlink display="http://tumaxadmin.to8to.com/#/material/modellist" r:id="rId2" ref="F87"/>
+    <hyperlink display="http://tumaxadmin.to8to.com/#/material/modellist" r:id="rId2" ref="F98"/>
+    <hyperlink display="https://tumaxadmin.to8to.com/#/material/materiallist" r:id="rId3" ref="F112" tooltip="https://tumaxadmin.to8to.com/#/material/materiallist"/>
+    <hyperlink display="https://tumaxadmin.to8to.com/#/material/materiallist" r:id="rId3" ref="F153" tooltip="https://tumaxadmin.to8to.com/#/material/materiallist"/>
+    <hyperlink display="http://tumaxadmin.to8to.com/#/material/modellist" r:id="rId2" ref="F102"/>
+    <hyperlink display="TestModelCyan" r:id="rId2" ref="F44"/>
+    <hyperlink display="http://tumaxadmin.to8to.com/#/material/modellist" r:id="rId2" ref="F45"/>
+    <hyperlink display="https://tumaxadmin.to8to.com/#/material/materiallist" r:id="rId3" ref="F204" tooltip="https://tumaxadmin.to8to.com/#/material/materiallist"/>
+    <hyperlink display="https://tumaxadmin.to8to.com/#/material/classification" r:id="rId4" ref="F284" tooltip="https://tumaxadmin.to8to.com/#/material/classification"/>
+    <hyperlink display="https://tumaxadmin.to8to.com/#/material/texturelist" r:id="rId5" ref="F208"/>
+    <hyperlink display="https://tumaxadmin.to8to.com/#/material/texturelist" r:id="rId5" ref="F236"/>
+    <hyperlink display="https://tumaxadmin.to8to.com/#/material/texturelist" r:id="rId5" ref="F242"/>
+    <hyperlink display="https://tumaxadmin.to8to.com/#/material/texturelist" r:id="rId5" ref="F251"/>
+    <hyperlink display="https://tumaxadmin.to8to.com/#/material/texturelist" r:id="rId5" ref="F260"/>
+    <hyperlink display="https://tumaxadmin.to8to.com/#/material/texturelist" r:id="rId5" ref="F268"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
+++ b/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
@@ -11,12 +11,12 @@
     <sheet name="测试用例" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <oleSize ref="A126:D127"/>
+  <oleSize ref="A272:D273"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -1063,6 +1063,9 @@
   </si>
   <si>
     <t>修改贴图名称</t>
+  </si>
+  <si>
+    <t>ForSendKeys</t>
   </si>
   <si>
     <t>MapPage.UpdateMapNameInput</t>
@@ -1496,8 +1499,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1519,14 +1522,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1534,7 +1545,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1554,62 +1589,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1632,23 +1614,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,6 +1646,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1689,7 +1692,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,121 +1734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,7 +1752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1857,13 +1776,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,36 +1956,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2001,17 +1974,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2037,16 +2031,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2056,10 +2059,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2068,131 +2071,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2613,7 +2616,7 @@
   <sheetPr/>
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C31" sqref="C31:C39"/>
     </sheetView>
   </sheetViews>
@@ -3375,8 +3378,8 @@
   <sheetPr/>
   <dimension ref="A1:G440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="F282" sqref="F282"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="D282" sqref="D282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3434,7 +3437,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4824,7 +4827,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" ht="27" spans="1:7">
+    <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
         <v>26</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" ht="27" spans="1:7">
+    <row r="147" spans="1:7">
       <c r="A147" s="4" t="s">
         <v>41</v>
       </c>
@@ -6355,7 +6358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" ht="27" spans="1:7">
+    <row r="148" spans="1:7">
       <c r="A148" s="4" t="s">
         <v>41</v>
       </c>
@@ -7307,7 +7310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" ht="27" spans="1:7">
+    <row r="196" spans="1:7">
       <c r="A196" s="4" t="s">
         <v>55</v>
       </c>
@@ -9068,13 +9071,13 @@
         <v>348</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G282" s="7" t="s">
         <v>102</v>
@@ -9088,16 +9091,16 @@
         <v>124</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F283" s="33" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G283" s="7" t="s">
         <v>102</v>
@@ -9111,16 +9114,16 @@
         <v>126</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F284" s="33" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G284" s="7" t="s">
         <v>102</v>
@@ -9134,13 +9137,13 @@
         <v>140</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F285" s="5"/>
       <c r="G285" s="7" t="s">
@@ -9161,7 +9164,7 @@
         <v>122</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F286" s="5"/>
       <c r="G286" s="7" t="s">
@@ -9206,7 +9209,7 @@
         <v>329</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G288" s="7" t="s">
         <v>102</v>
@@ -9248,7 +9251,7 @@
         <v>326</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G290" s="7" t="s">
         <v>206</v>
@@ -9357,13 +9360,13 @@
         <v>116</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D296" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F296" s="5"/>
       <c r="G296" s="7" t="s">
@@ -9378,16 +9381,16 @@
         <v>120</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D297" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G297" s="7" t="s">
         <v>8</v>
@@ -9401,13 +9404,13 @@
         <v>124</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D298" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F298" s="5" t="s">
         <v>267</v>
@@ -9424,16 +9427,16 @@
         <v>126</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D299" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F299" s="33" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G299" s="7" t="s">
         <v>8</v>
@@ -9447,13 +9450,13 @@
         <v>140</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F300" s="5"/>
       <c r="G300" s="7" t="s">
@@ -9468,16 +9471,16 @@
         <v>141</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G301" s="7" t="s">
         <v>8</v>
@@ -9491,13 +9494,13 @@
         <v>143</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D302" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F302" s="5"/>
       <c r="G302" s="7" t="s">
@@ -9512,16 +9515,16 @@
         <v>144</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F303" s="33" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G303" s="7" t="s">
         <v>8</v>
@@ -9535,16 +9538,16 @@
         <v>146</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F304" s="33" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G304" s="7" t="s">
         <v>8</v>
@@ -9558,13 +9561,13 @@
         <v>147</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D305" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F305" s="5"/>
       <c r="G305" s="7" t="s">
@@ -9579,13 +9582,13 @@
         <v>150</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D306" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F306" s="5"/>
       <c r="G306" s="7" t="s">
@@ -9600,16 +9603,16 @@
         <v>151</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G307" s="7" t="s">
         <v>8</v>
@@ -9623,13 +9626,13 @@
         <v>153</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D308" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F308" s="5"/>
       <c r="G308" s="7" t="s">
@@ -9644,16 +9647,16 @@
         <v>156</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D309" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F309" s="33" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G309" s="7" t="s">
         <v>8</v>
@@ -9673,7 +9676,7 @@
         <v>122</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F310" s="5"/>
       <c r="G310" s="7" t="s">
@@ -9791,16 +9794,16 @@
         <v>173</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D316" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G316" s="7" t="s">
         <v>8</v>
@@ -9814,10 +9817,10 @@
         <v>177</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
@@ -9833,13 +9836,13 @@
         <v>178</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D318" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F318" s="5"/>
       <c r="G318" s="7" t="s">
@@ -9860,10 +9863,10 @@
         <v>213</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G319" s="7" t="s">
         <v>8</v>
@@ -9915,7 +9918,7 @@
         <v>122</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F322" s="5"/>
       <c r="G322" s="7" t="s">
@@ -9948,7 +9951,7 @@
       </c>
       <c r="E324" s="5"/>
       <c r="F324" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G324" s="7" t="s">
         <v>8</v>
@@ -9962,13 +9965,13 @@
         <v>103</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D325" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F325" s="5"/>
       <c r="G325" s="7" t="s">
@@ -9983,13 +9986,13 @@
         <v>107</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D326" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F326" s="5"/>
       <c r="G326" s="7" t="s">
@@ -10032,7 +10035,7 @@
       </c>
       <c r="E328" s="5"/>
       <c r="F328" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G328" s="7" t="s">
         <v>8</v>
@@ -10107,16 +10110,16 @@
         <v>140</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D332" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G332" s="7" t="s">
         <v>8</v>
@@ -10136,7 +10139,7 @@
         <v>122</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F333" s="5"/>
       <c r="G333" s="7" t="s">
@@ -10157,10 +10160,10 @@
         <v>213</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G334" s="7" t="s">
         <v>8</v>
@@ -10192,7 +10195,7 @@
       </c>
       <c r="E336" s="5"/>
       <c r="F336" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G336" s="7" t="s">
         <v>8</v>
@@ -10206,16 +10209,16 @@
         <v>103</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D337" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G337" s="7" t="s">
         <v>8</v>
@@ -10229,13 +10232,13 @@
         <v>107</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D338" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F338" s="5"/>
       <c r="G338" s="7" t="s">
@@ -10256,10 +10259,10 @@
         <v>213</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G339" s="7" t="s">
         <v>8</v>
@@ -10291,7 +10294,7 @@
       </c>
       <c r="E341" s="5"/>
       <c r="F341" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G341" s="7" t="s">
         <v>8</v>
@@ -10305,16 +10308,16 @@
         <v>103</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D342" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G342" s="7" t="s">
         <v>8</v>
@@ -10328,13 +10331,13 @@
         <v>107</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D343" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F343" s="5"/>
       <c r="G343" s="7" t="s">
@@ -10349,13 +10352,13 @@
         <v>111</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D344" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F344" s="5"/>
       <c r="G344" s="7" t="s">
@@ -10370,13 +10373,13 @@
         <v>116</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D345" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F345" s="5"/>
       <c r="G345" s="7" t="s">
@@ -10419,7 +10422,7 @@
       </c>
       <c r="E347" s="5"/>
       <c r="F347" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G347" s="7" t="s">
         <v>8</v>
@@ -10494,16 +10497,16 @@
         <v>143</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D351" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G351" s="7" t="s">
         <v>8</v>
@@ -10523,7 +10526,7 @@
         <v>122</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F352" s="5"/>
       <c r="G352" s="7" t="s">
@@ -10544,10 +10547,10 @@
         <v>213</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G353" s="7" t="s">
         <v>8</v>
@@ -10579,7 +10582,7 @@
       </c>
       <c r="E355" s="5"/>
       <c r="F355" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G355" s="7" t="s">
         <v>8</v>
@@ -10593,16 +10596,16 @@
         <v>103</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D356" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G356" s="7" t="s">
         <v>8</v>
@@ -10616,13 +10619,13 @@
         <v>107</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D357" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F357" s="5"/>
       <c r="G357" s="7" t="s">
@@ -10637,13 +10640,13 @@
         <v>111</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D358" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F358" s="5"/>
       <c r="G358" s="7" t="s">
@@ -10658,13 +10661,13 @@
         <v>116</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D359" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F359" s="5"/>
       <c r="G359" s="7" t="s">
@@ -10679,16 +10682,16 @@
         <v>120</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D360" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G360" s="7" t="s">
         <v>8</v>
@@ -10708,7 +10711,7 @@
         <v>122</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F361" s="5"/>
       <c r="G361" s="7" t="s">
@@ -10729,10 +10732,10 @@
         <v>213</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G362" s="7" t="s">
         <v>8</v>
@@ -10764,7 +10767,7 @@
       </c>
       <c r="E364" s="5"/>
       <c r="F364" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G364" s="7" t="s">
         <v>8</v>
@@ -10778,16 +10781,16 @@
         <v>103</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D365" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G365" s="7" t="s">
         <v>8</v>
@@ -10801,13 +10804,13 @@
         <v>107</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D366" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F366" s="5"/>
       <c r="G366" s="7" t="s">
@@ -10822,13 +10825,13 @@
         <v>111</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D367" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F367" s="5"/>
       <c r="G367" s="7" t="s">
@@ -10843,16 +10846,16 @@
         <v>116</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D368" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G368" s="7" t="s">
         <v>8</v>
@@ -10872,7 +10875,7 @@
         <v>122</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F369" s="5"/>
       <c r="G369" s="7" t="s">
@@ -10893,10 +10896,10 @@
         <v>213</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G370" s="7" t="s">
         <v>8</v>
@@ -10928,7 +10931,7 @@
       </c>
       <c r="E372" s="5"/>
       <c r="F372" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G372" s="7" t="s">
         <v>8</v>
@@ -10942,16 +10945,16 @@
         <v>103</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D373" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G373" s="7" t="s">
         <v>8</v>
@@ -10965,13 +10968,13 @@
         <v>107</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F374" s="5"/>
       <c r="G374" s="7" t="s">
@@ -10986,13 +10989,13 @@
         <v>111</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D375" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E375" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F375" s="5"/>
       <c r="G375" s="7" t="s">
@@ -11007,13 +11010,13 @@
         <v>116</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D376" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F376" s="5"/>
       <c r="G376" s="7" t="s">
@@ -11028,13 +11031,13 @@
         <v>120</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D377" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F377" s="5"/>
       <c r="G377" s="7" t="s">
@@ -11055,7 +11058,7 @@
         <v>122</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F378" s="5"/>
       <c r="G378" s="7" t="s">
@@ -11076,10 +11079,10 @@
         <v>213</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G379" s="7" t="s">
         <v>8</v>
@@ -11111,7 +11114,7 @@
       </c>
       <c r="E381" s="5"/>
       <c r="F381" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G381" s="7" t="s">
         <v>8</v>
@@ -11125,16 +11128,16 @@
         <v>103</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D382" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G382" s="7" t="s">
         <v>8</v>
@@ -11148,13 +11151,13 @@
         <v>107</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D383" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F383" s="5"/>
       <c r="G383" s="7" t="s">
@@ -11175,10 +11178,10 @@
         <v>213</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F384" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G384" s="7" t="s">
         <v>8</v>
@@ -11192,16 +11195,16 @@
         <v>116</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D385" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F385" s="33" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G385" s="7" t="s">
         <v>8</v>
@@ -11215,13 +11218,13 @@
         <v>120</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D386" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E386" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F386" s="5"/>
       <c r="G386" s="7" t="s">
@@ -11242,10 +11245,10 @@
         <v>213</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G387" s="7" t="s">
         <v>8</v>
@@ -11277,13 +11280,13 @@
       </c>
       <c r="E389" s="5"/>
       <c r="F389" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G389" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="390" ht="27" spans="1:7">
+    <row r="390" spans="1:7">
       <c r="A390" s="4" t="s">
         <v>77</v>
       </c>
@@ -11291,16 +11294,16 @@
         <v>103</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D390" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F390" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G390" s="7" t="s">
         <v>8</v>
@@ -11332,7 +11335,7 @@
       </c>
       <c r="E392" s="5"/>
       <c r="F392" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G392" s="7" t="s">
         <v>8</v>
@@ -11346,14 +11349,14 @@
         <v>103</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D393" s="16" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E393" s="5"/>
       <c r="F393" s="34" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G393" s="7" t="s">
         <v>8</v>
@@ -11367,16 +11370,16 @@
         <v>107</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D394" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F394" s="33" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G394" s="7" t="s">
         <v>8</v>
@@ -11390,13 +11393,13 @@
         <v>111</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D395" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F395" s="5"/>
       <c r="G395" s="7" t="s">
@@ -11417,10 +11420,10 @@
         <v>213</v>
       </c>
       <c r="E396" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F396" s="34" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G396" s="7" t="s">
         <v>8</v>
@@ -11452,7 +11455,7 @@
       </c>
       <c r="E398" s="5"/>
       <c r="F398" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G398" s="7" t="s">
         <v>8</v>
@@ -11466,16 +11469,16 @@
         <v>103</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D399" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E399" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F399" s="33" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G399" s="7" t="s">
         <v>8</v>
@@ -11489,13 +11492,13 @@
         <v>107</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D400" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F400" s="5"/>
       <c r="G400" s="7" t="s">
@@ -11516,7 +11519,7 @@
         <v>122</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F401" s="5"/>
       <c r="G401" s="7" t="s">
@@ -11537,10 +11540,10 @@
         <v>213</v>
       </c>
       <c r="E402" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F402" s="33" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G402" s="7" t="s">
         <v>8</v>
@@ -11560,7 +11563,7 @@
         <v>213</v>
       </c>
       <c r="E403" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F403" s="5" t="s">
         <v>267</v>
@@ -11583,7 +11586,7 @@
         <v>122</v>
       </c>
       <c r="E404" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F404" s="5"/>
       <c r="G404" s="7" t="s">
@@ -11616,7 +11619,7 @@
       </c>
       <c r="E406" s="5"/>
       <c r="F406" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G406" s="7" t="s">
         <v>8</v>
@@ -11630,16 +11633,16 @@
         <v>103</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D407" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E407" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F407" s="33" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G407" s="7" t="s">
         <v>8</v>
@@ -11653,13 +11656,13 @@
         <v>107</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D408" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E408" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F408" s="5"/>
       <c r="G408" s="7" t="s">
@@ -11680,7 +11683,7 @@
         <v>122</v>
       </c>
       <c r="E409" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F409" s="5"/>
       <c r="G409" s="7" t="s">
@@ -11701,7 +11704,7 @@
         <v>122</v>
       </c>
       <c r="E410" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F410" s="5"/>
       <c r="G410" s="7" t="s">
@@ -11716,13 +11719,13 @@
         <v>120</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D411" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E411" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F411" s="5"/>
       <c r="G411" s="7" t="s">
@@ -11737,13 +11740,13 @@
         <v>124</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D412" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E412" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F412" s="5"/>
       <c r="G412" s="7" t="s">
@@ -11758,13 +11761,13 @@
         <v>126</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D413" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E413" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F413" s="5" t="s">
         <v>267</v>
@@ -11781,13 +11784,13 @@
         <v>140</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D414" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E414" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F414" s="5"/>
       <c r="G414" s="7" t="s">
@@ -11808,10 +11811,10 @@
         <v>213</v>
       </c>
       <c r="E415" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G415" s="7" t="s">
         <v>8</v>
@@ -11831,10 +11834,10 @@
         <v>213</v>
       </c>
       <c r="E416" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G416" s="7" t="s">
         <v>8</v>
@@ -11866,7 +11869,7 @@
       </c>
       <c r="E418" s="5"/>
       <c r="F418" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G418" s="7" t="s">
         <v>8</v>
@@ -11880,16 +11883,16 @@
         <v>103</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D419" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E419" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F419" s="33" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G419" s="7" t="s">
         <v>8</v>
@@ -11903,13 +11906,13 @@
         <v>107</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D420" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E420" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F420" s="5"/>
       <c r="G420" s="7" t="s">
@@ -11924,13 +11927,13 @@
         <v>111</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D421" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E421" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F421" s="5"/>
       <c r="G421" s="7" t="s">
@@ -11945,13 +11948,13 @@
         <v>116</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D422" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E422" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F422" s="5"/>
       <c r="G422" s="7" t="s">
@@ -11966,13 +11969,13 @@
         <v>120</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D423" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E423" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F423" s="5"/>
       <c r="G423" s="7" t="s">
@@ -11993,7 +11996,7 @@
         <v>122</v>
       </c>
       <c r="E424" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F424" s="5"/>
       <c r="G424" s="7" t="s">
@@ -12014,10 +12017,10 @@
         <v>213</v>
       </c>
       <c r="E425" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F425" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G425" s="7" t="s">
         <v>8</v>
@@ -12049,7 +12052,7 @@
       </c>
       <c r="E427" s="5"/>
       <c r="F427" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G427" s="7" t="s">
         <v>8</v>
@@ -12063,14 +12066,14 @@
         <v>103</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D428" s="16" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E428" s="5"/>
       <c r="F428" s="34" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G428" s="7" t="s">
         <v>8</v>
@@ -12084,16 +12087,16 @@
         <v>107</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D429" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E429" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F429" s="33" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G429" s="7" t="s">
         <v>8</v>
@@ -12107,13 +12110,13 @@
         <v>111</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D430" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E430" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F430" s="5"/>
       <c r="G430" s="7" t="s">
@@ -12128,13 +12131,13 @@
         <v>116</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D431" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E431" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F431" s="5"/>
       <c r="G431" s="7" t="s">
@@ -12149,13 +12152,13 @@
         <v>120</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D432" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E432" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F432" s="5"/>
       <c r="G432" s="7" t="s">
@@ -12174,7 +12177,7 @@
         <v>122</v>
       </c>
       <c r="E433" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F433" s="5"/>
       <c r="G433" s="7" t="s">
@@ -12189,13 +12192,13 @@
         <v>126</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D434" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E434" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F434" s="5"/>
       <c r="G434" s="7" t="s">
@@ -12210,13 +12213,13 @@
         <v>140</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D435" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E435" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F435" s="5"/>
       <c r="G435" s="7" t="s">
@@ -12237,16 +12240,16 @@
         <v>213</v>
       </c>
       <c r="E436" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G436" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="437" ht="27" spans="1:7">
+    <row r="437" spans="1:7">
       <c r="A437" s="4" t="s">
         <v>89</v>
       </c>
@@ -12260,10 +12263,10 @@
         <v>213</v>
       </c>
       <c r="E437" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F437" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="F437" s="5" t="s">
-        <v>488</v>
       </c>
       <c r="G437" s="7" t="s">
         <v>8</v>
@@ -12295,7 +12298,7 @@
       </c>
       <c r="E439" s="5"/>
       <c r="F439" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G439" s="7" t="s">
         <v>8</v>
@@ -12315,10 +12318,10 @@
         <v>122</v>
       </c>
       <c r="E440" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F440" s="34" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G440" s="7" t="s">
         <v>8</v>

--- a/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
+++ b/src/main/java/org/keywordsFramework/data/关键字驱动测试用例.xlsx
@@ -11,7 +11,7 @@
     <sheet name="测试用例" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <oleSize ref="A272:D273"/>
+  <oleSize ref="A365:D366"/>
 </workbook>
 </file>
 
@@ -51,210 +51,210 @@
     <t>添加品牌</t>
   </si>
   <si>
+    <t>selectBrand</t>
+  </si>
+  <si>
+    <t>查询品牌</t>
+  </si>
+  <si>
+    <t>updateBrand</t>
+  </si>
+  <si>
+    <t>编辑品牌</t>
+  </si>
+  <si>
+    <t>addSeries</t>
+  </si>
+  <si>
+    <t>添加系列</t>
+  </si>
+  <si>
+    <t>updateSeries</t>
+  </si>
+  <si>
+    <t>编辑系列</t>
+  </si>
+  <si>
+    <t>deleteSeries</t>
+  </si>
+  <si>
+    <t>删除系列</t>
+  </si>
+  <si>
+    <t>addModel</t>
+  </si>
+  <si>
+    <t>添加模型</t>
+  </si>
+  <si>
+    <t>selelctModelName</t>
+  </si>
+  <si>
+    <t>根据模型名称查询</t>
+  </si>
+  <si>
+    <t>updateModel</t>
+  </si>
+  <si>
+    <t>编辑模型</t>
+  </si>
+  <si>
+    <t>viewModel</t>
+  </si>
+  <si>
+    <t>查看模型详情</t>
+  </si>
+  <si>
+    <t>exclusiveModel</t>
+  </si>
+  <si>
+    <t>模型专属设定</t>
+  </si>
+  <si>
+    <t>exportModel</t>
+  </si>
+  <si>
+    <t>模型导出</t>
+  </si>
+  <si>
+    <t>modelUpGoods</t>
+  </si>
+  <si>
+    <t>模型升级为商品</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
-    <t>selectBrand</t>
-  </si>
-  <si>
-    <t>查询品牌</t>
-  </si>
-  <si>
-    <t>updateBrand</t>
-  </si>
-  <si>
-    <t>编辑品牌</t>
-  </si>
-  <si>
-    <t>addSeries</t>
-  </si>
-  <si>
-    <t>添加系列</t>
-  </si>
-  <si>
-    <t>updateSeries</t>
-  </si>
-  <si>
-    <t>编辑系列</t>
-  </si>
-  <si>
-    <t>deleteSeries</t>
-  </si>
-  <si>
-    <t>删除系列</t>
-  </si>
-  <si>
-    <t>addModel</t>
-  </si>
-  <si>
-    <t>添加模型</t>
-  </si>
-  <si>
-    <t>selelctModelName</t>
-  </si>
-  <si>
-    <t>根据模型名称查询</t>
-  </si>
-  <si>
-    <t>updateModel</t>
-  </si>
-  <si>
-    <t>编辑模型</t>
+    <t>enableModel</t>
+  </si>
+  <si>
+    <t>启用模型</t>
+  </si>
+  <si>
+    <t>disableModel</t>
+  </si>
+  <si>
+    <t>禁用模型</t>
+  </si>
+  <si>
+    <t>addMaterial</t>
+  </si>
+  <si>
+    <t>添加材质</t>
+  </si>
+  <si>
+    <t>selelctMaterialName</t>
+  </si>
+  <si>
+    <t>根据材质名称查询</t>
+  </si>
+  <si>
+    <t>disableMaterial</t>
+  </si>
+  <si>
+    <t>禁用材质</t>
+  </si>
+  <si>
+    <t>enableMaterial</t>
+  </si>
+  <si>
+    <t>启用材质</t>
+  </si>
+  <si>
+    <t>setExclusiveSetMaterial</t>
+  </si>
+  <si>
+    <t>材质专属设定</t>
+  </si>
+  <si>
+    <t>cancelExclusiveSetMaterial</t>
+  </si>
+  <si>
+    <t>材质专属取消</t>
+  </si>
+  <si>
+    <t>viewMaterial</t>
+  </si>
+  <si>
+    <t>查看材质详情</t>
+  </si>
+  <si>
+    <t>updateMaterial</t>
+  </si>
+  <si>
+    <t>编辑材质</t>
+  </si>
+  <si>
+    <t>exportMaterial</t>
+  </si>
+  <si>
+    <t>材质导出</t>
+  </si>
+  <si>
+    <t>addMap</t>
+  </si>
+  <si>
+    <t>添加贴图</t>
+  </si>
+  <si>
+    <t>selelctMapName</t>
+  </si>
+  <si>
+    <t>根据贴图名称查询</t>
+  </si>
+  <si>
+    <t>viewMap</t>
+  </si>
+  <si>
+    <t>查看贴图详情</t>
+  </si>
+  <si>
+    <t>disableMap</t>
+  </si>
+  <si>
+    <t>禁用贴图</t>
+  </si>
+  <si>
+    <t>enableMap</t>
+  </si>
+  <si>
+    <t>启用贴图</t>
+  </si>
+  <si>
+    <t>exclusiveMap</t>
+  </si>
+  <si>
+    <t>贴图专属设定</t>
+  </si>
+  <si>
+    <t>updateMap</t>
+  </si>
+  <si>
+    <t>编辑贴图</t>
+  </si>
+  <si>
+    <t>mapUpGoods</t>
+  </si>
+  <si>
+    <t>贴图升级为商品</t>
+  </si>
+  <si>
+    <t>exportMap</t>
+  </si>
+  <si>
+    <t>贴图导出</t>
+  </si>
+  <si>
+    <t>goodsList</t>
+  </si>
+  <si>
+    <t>商品分类列表</t>
   </si>
   <si>
     <t>测试用例执行失败</t>
   </si>
   <si>
-    <t>viewModel</t>
-  </si>
-  <si>
-    <t>查看模型详情</t>
-  </si>
-  <si>
-    <t>exclusiveModel</t>
-  </si>
-  <si>
-    <t>模型专属设定</t>
-  </si>
-  <si>
-    <t>exportModel</t>
-  </si>
-  <si>
-    <t>模型导出</t>
-  </si>
-  <si>
-    <t>modelUpGoods</t>
-  </si>
-  <si>
-    <t>模型升级为商品</t>
-  </si>
-  <si>
-    <t>enableModel</t>
-  </si>
-  <si>
-    <t>启用模型</t>
-  </si>
-  <si>
-    <t>disableModel</t>
-  </si>
-  <si>
-    <t>禁用模型</t>
-  </si>
-  <si>
-    <t>addMaterial</t>
-  </si>
-  <si>
-    <t>添加材质</t>
-  </si>
-  <si>
-    <t>selelctMaterialName</t>
-  </si>
-  <si>
-    <t>根据材质名称查询</t>
-  </si>
-  <si>
-    <t>disableMaterial</t>
-  </si>
-  <si>
-    <t>禁用材质</t>
-  </si>
-  <si>
-    <t>enableMaterial</t>
-  </si>
-  <si>
-    <t>启用材质</t>
-  </si>
-  <si>
-    <t>setExclusiveSetMaterial</t>
-  </si>
-  <si>
-    <t>材质专属设定</t>
-  </si>
-  <si>
-    <t>cancelExclusiveSetMaterial</t>
-  </si>
-  <si>
-    <t>材质专属取消</t>
-  </si>
-  <si>
-    <t>viewMaterial</t>
-  </si>
-  <si>
-    <t>查看材质详情</t>
-  </si>
-  <si>
-    <t>updateMaterial</t>
-  </si>
-  <si>
-    <t>编辑材质</t>
-  </si>
-  <si>
-    <t>exportMaterial</t>
-  </si>
-  <si>
-    <t>材质导出</t>
-  </si>
-  <si>
-    <t>addMap</t>
-  </si>
-  <si>
-    <t>添加贴图</t>
-  </si>
-  <si>
-    <t>selelctMapName</t>
-  </si>
-  <si>
-    <t>根据贴图名称查询</t>
-  </si>
-  <si>
-    <t>viewMap</t>
-  </si>
-  <si>
-    <t>查看贴图详情</t>
-  </si>
-  <si>
-    <t>disableMap</t>
-  </si>
-  <si>
-    <t>禁用贴图</t>
-  </si>
-  <si>
-    <t>enableMap</t>
-  </si>
-  <si>
-    <t>启用贴图</t>
-  </si>
-  <si>
-    <t>exclusiveMap</t>
-  </si>
-  <si>
-    <t>贴图专属设定</t>
-  </si>
-  <si>
-    <t>updateMap</t>
-  </si>
-  <si>
-    <t>编辑贴图</t>
-  </si>
-  <si>
-    <t>mapUpGoods</t>
-  </si>
-  <si>
-    <t>贴图升级为商品</t>
-  </si>
-  <si>
-    <t>exportMap</t>
-  </si>
-  <si>
-    <t>贴图导出</t>
-  </si>
-  <si>
-    <t>goodsList</t>
-  </si>
-  <si>
-    <t>商品分类列表</t>
-  </si>
-  <si>
     <t>selectCompanyList</t>
   </si>
   <si>
@@ -612,6 +612,9 @@
     <t>编辑模型名称</t>
   </si>
   <si>
+    <t>ForSendKeys</t>
+  </si>
+  <si>
     <t>updataModelPage.updateModelName</t>
   </si>
   <si>
@@ -636,733 +639,730 @@
     <t>模型详情</t>
   </si>
   <si>
+    <t>点击查看按钮</t>
+  </si>
+  <si>
+    <t>viewModelPage.viewModelButton</t>
+  </si>
+  <si>
+    <t>viewModelPage.viewModelReturnButton</t>
+  </si>
+  <si>
+    <t>点击设定专属按钮</t>
+  </si>
+  <si>
+    <t>exclusiveModelPage.setExclusiveModelButton</t>
+  </si>
+  <si>
+    <t>断言元素字符</t>
+  </si>
+  <si>
+    <t>getElementTextAssert</t>
+  </si>
+  <si>
+    <t>exclusiveModelPage.ModelExclusiveState</t>
+  </si>
+  <si>
+    <t>专属</t>
+  </si>
+  <si>
+    <t>点击取消专属按钮</t>
+  </si>
+  <si>
+    <t>exclusiveModelPage.cancelExclusiveModelButton</t>
+  </si>
+  <si>
+    <t>公库</t>
+  </si>
+  <si>
+    <t>点击导出</t>
+  </si>
+  <si>
+    <t>exportModelPage.exportModelButton</t>
+  </si>
+  <si>
+    <t>https://tumaxadmin.to8to.com/#/material/materiallist</t>
+  </si>
+  <si>
+    <t>点击添加材质</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialButton</t>
+  </si>
+  <si>
+    <t>点击上传图片</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addPhotoButton</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Git\workspace\WEBKeywordsFramework\model\3d66Model-589817-files-1.jpg</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>点击重新上传</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialUploadAgain</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Git\workspace\WEBKeywordsFramework\model\3d66Model-589817-files-3.jpg</t>
+  </si>
+  <si>
+    <t>点击删除</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialDelete</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialConfirm</t>
+  </si>
+  <si>
+    <t>暂停3秒</t>
+  </si>
+  <si>
+    <t>输入材质名称</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialName</t>
+  </si>
+  <si>
+    <t>TestMaterialCyan</t>
+  </si>
+  <si>
+    <t>点击材质分类</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialCategory</t>
+  </si>
+  <si>
+    <t>点击材质分类墙纸</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialCategory1</t>
+  </si>
+  <si>
+    <t>点击材质分类墙布</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialCategory2</t>
+  </si>
+  <si>
+    <t>TestStep_33</t>
+  </si>
+  <si>
+    <t>TestStep_34</t>
+  </si>
+  <si>
+    <t>点击高级设置</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialAdvancedSetting</t>
+  </si>
+  <si>
+    <t>TestStep_35</t>
+  </si>
+  <si>
+    <t>TestStep_36</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialAssertString</t>
+  </si>
+  <si>
+    <t>反射效果</t>
+  </si>
+  <si>
+    <t>TestStep_37</t>
+  </si>
+  <si>
+    <t>确认上传</t>
+  </si>
+  <si>
+    <t>addMaterialPage.addMaterialConfirmUpload</t>
+  </si>
+  <si>
+    <t>TestStep_38</t>
+  </si>
+  <si>
+    <t>暂停5秒</t>
+  </si>
+  <si>
+    <t>TestStep_39</t>
+  </si>
+  <si>
+    <t>上传材质</t>
+  </si>
+  <si>
+    <t>TestStep_40</t>
+  </si>
+  <si>
+    <t>点击材质名称</t>
+  </si>
+  <si>
+    <t>selectModelPage.queryMaterialName</t>
+  </si>
+  <si>
+    <t>selectModelPage.queryMaterialNameInput</t>
+  </si>
+  <si>
+    <t>点击禁用</t>
+  </si>
+  <si>
+    <t>MaterialPage.MaterialDisableOrEnableButton</t>
+  </si>
+  <si>
+    <t>输入禁用原因</t>
+  </si>
+  <si>
+    <t>MaterialPage.MaterialDisableReason</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>MaterialPage.MaterialDisableConfirm</t>
+  </si>
+  <si>
+    <t>MaterialPage.MaterialDisableOrEnableState</t>
+  </si>
+  <si>
+    <t>禁用</t>
+  </si>
+  <si>
+    <t>点击启用</t>
+  </si>
+  <si>
+    <t>MaterialPage.MaterialEnableConfirm</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>MaterialPage.MaterialSetOrCancelExclusive</t>
+  </si>
+  <si>
+    <t>MaterialPage.MaterialExclusiveState</t>
+  </si>
+  <si>
+    <t>点击查看详情按钮</t>
+  </si>
+  <si>
+    <t>MaterialPage.viewDetailButton</t>
+  </si>
+  <si>
+    <t>截取详情页面</t>
+  </si>
+  <si>
+    <t>takesScreenhot</t>
+  </si>
+  <si>
+    <t>tumax-脚本截图</t>
+  </si>
+  <si>
+    <t>MaterialPage.viewDetailTitle</t>
+  </si>
+  <si>
+    <t>材质详情</t>
+  </si>
+  <si>
+    <t>MaterialPage.viewDetailReturnButton</t>
+  </si>
+  <si>
+    <t>点击修改材质按钮</t>
+  </si>
+  <si>
+    <t>MaterialPage.updateMaterialButton</t>
+  </si>
+  <si>
+    <t>修改材质名称</t>
+  </si>
+  <si>
+    <t>MaterialPage.updateMaterialNameInput</t>
+  </si>
+  <si>
+    <t>TestMaterialCyanUpdate</t>
+  </si>
+  <si>
+    <t>MaterialPage.updateMaterialSaveButton</t>
+  </si>
+  <si>
+    <t>MaterialPage.updateMaterialReturnButton</t>
+  </si>
+  <si>
+    <t>MaterialPage.firstMaterialName</t>
+  </si>
+  <si>
+    <t>点击导出按钮</t>
+  </si>
+  <si>
+    <t>MaterialPage.exportMaterialButton</t>
+  </si>
+  <si>
+    <t>https://tumaxadmin.to8to.com/#/material/texturelist</t>
+  </si>
+  <si>
+    <t>点击添加按钮</t>
+  </si>
+  <si>
+    <t>MapPage.addMapButton</t>
+  </si>
+  <si>
+    <t>输入贴图名称</t>
+  </si>
+  <si>
+    <t>MapPage.MapNameInput</t>
+  </si>
+  <si>
+    <t>TestMapCyan</t>
+  </si>
+  <si>
+    <t>选择贴图类别</t>
+  </si>
+  <si>
+    <t>MapPage.MapCategoryBox</t>
+  </si>
+  <si>
+    <t>MapPage.MapCategoryBox1</t>
+  </si>
+  <si>
+    <t>MapPage.MapCategoryBox2</t>
+  </si>
+  <si>
+    <t>MapPage.MapCategoryBox3</t>
+  </si>
+  <si>
+    <t>输入贴图尺寸</t>
+  </si>
+  <si>
+    <t>MapPage.ImageSizeLongInput</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>MapPage.ImageSizeWideInput</t>
+  </si>
+  <si>
+    <t>选择贴图类型</t>
+  </si>
+  <si>
+    <t>MapPage.MapTypeBox</t>
+  </si>
+  <si>
+    <t>MapPage.MapTypeBox1</t>
+  </si>
+  <si>
+    <t>MapPage.MapTypeBox2</t>
+  </si>
+  <si>
+    <t>点击关键字按钮</t>
+  </si>
+  <si>
+    <t>MapPage.SearchKeywordAddButton</t>
+  </si>
+  <si>
+    <t>输入关键字</t>
+  </si>
+  <si>
+    <t>MapPage.SearchKeywordAddInput</t>
+  </si>
+  <si>
+    <t>点击装修风格按钮</t>
+  </si>
+  <si>
+    <t>MapPage.DecorateStyleButton</t>
+  </si>
+  <si>
+    <t>点击添加规格按钮</t>
+  </si>
+  <si>
+    <t>MapPage.MapSpecificationAddButton</t>
+  </si>
+  <si>
+    <t>输入规格</t>
+  </si>
+  <si>
+    <t>MapPage.MapSpecificationAddInput</t>
+  </si>
+  <si>
+    <t>MapPage.PhotoUploadButton</t>
+  </si>
+  <si>
+    <t>点击确定按钮</t>
+  </si>
+  <si>
+    <t>MapPage.SaveButton</t>
+  </si>
+  <si>
+    <t>MapPage.MapNameAssertString</t>
+  </si>
+  <si>
+    <t>点击贴图名称按钮</t>
+  </si>
+  <si>
+    <t>MapPage.SelectMapNameButton</t>
+  </si>
+  <si>
+    <t>MapPage.SelectMapNameInput</t>
+  </si>
+  <si>
+    <t>MapPage.MapViewDetailButton</t>
+  </si>
+  <si>
+    <t>MapPage.MapViewDetailMapNameLabel</t>
+  </si>
+  <si>
+    <t>点击放回按钮</t>
+  </si>
+  <si>
+    <t>MapPage.MapViewDetailBackButton</t>
+  </si>
+  <si>
+    <t>MapPage.MapListName</t>
+  </si>
+  <si>
+    <t>贴图列表</t>
+  </si>
+  <si>
+    <t>点击禁用按钮</t>
+  </si>
+  <si>
+    <t>MapPage.DisableOrEnableMapButton</t>
+  </si>
+  <si>
+    <t>MapPage.DisableReasonInput</t>
+  </si>
+  <si>
+    <t>点击确认按钮</t>
+  </si>
+  <si>
+    <t>MapPage.ConfirmDisableButton</t>
+  </si>
+  <si>
+    <t>MapPage.MapStateLabel</t>
+  </si>
+  <si>
+    <t>点击启用按钮</t>
+  </si>
+  <si>
+    <t>MapPage.ConfirmEnableButton</t>
+  </si>
+  <si>
+    <t>MapPage.ExclusiveButton</t>
+  </si>
+  <si>
+    <t>MapPage.ExclusiveStateLabel</t>
+  </si>
+  <si>
+    <t>点击编辑贴图按钮</t>
+  </si>
+  <si>
+    <t>MapPage.UpdateMapButton</t>
+  </si>
+  <si>
+    <t>修改贴图名称</t>
+  </si>
+  <si>
+    <t>MapPage.UpdateMapNameInput</t>
+  </si>
+  <si>
+    <t>TestMapCyanUpdate</t>
+  </si>
+  <si>
+    <t>修改贴图尺寸长</t>
+  </si>
+  <si>
+    <t>MapPage.UpdateMapSizeLongInput</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>修改贴图尺寸宽</t>
+  </si>
+  <si>
+    <t>MapPage.UpdateMapSizeWideInput</t>
+  </si>
+  <si>
+    <t>点击保存按钮</t>
+  </si>
+  <si>
+    <t>MapPage.UpdateSaveButton</t>
+  </si>
+  <si>
+    <t>MapPage.UpdateBackButton</t>
+  </si>
+  <si>
+    <t>点击升级商品按钮</t>
+  </si>
+  <si>
+    <t>MapPage.MapUpGoodsButton</t>
+  </si>
+  <si>
+    <t>输入商品名称</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsNameInput</t>
+  </si>
+  <si>
+    <t>TestMapGoodsCyan</t>
+  </si>
+  <si>
+    <t>输入商品型号</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsTypeInput</t>
+  </si>
+  <si>
+    <t>输入商品编号</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsNumInput</t>
+  </si>
+  <si>
+    <t>9527</t>
+  </si>
+  <si>
+    <t>点击商品品牌</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsBrand</t>
+  </si>
+  <si>
+    <t>输入商品品牌</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsBrandInput</t>
+  </si>
+  <si>
+    <t>TestBrandCyan</t>
+  </si>
+  <si>
+    <t>选择品牌</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsBrandInput1</t>
+  </si>
+  <si>
+    <t>输入商品尺寸长</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsSizeLongInput</t>
+  </si>
+  <si>
+    <t>输入商品尺寸宽</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsSizeWideInput</t>
+  </si>
+  <si>
+    <t>点击计价单位</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsUnitInput</t>
+  </si>
+  <si>
+    <t>选择计价单位</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsUnitValue</t>
+  </si>
+  <si>
+    <t>输入购买链接</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsUrlInput</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+  </si>
+  <si>
+    <t>选择商品标签</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsLabelValue</t>
+  </si>
+  <si>
+    <t>输入商品价格</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsPriceInput</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsUploadPhotoButton</t>
+  </si>
+  <si>
+    <t>输入描述内容</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsDescriptionInput</t>
+  </si>
+  <si>
+    <t>TestDescription</t>
+  </si>
+  <si>
+    <t>滚动条移动到顶端</t>
+  </si>
+  <si>
+    <t>scrollBarTop</t>
+  </si>
+  <si>
+    <t>MapPage.MapGoodsSaveButton</t>
+  </si>
+  <si>
+    <t>MapPage.AssertMapGoodsToast</t>
+  </si>
+  <si>
+    <t>升级商品已提交审核，将于1~3个工作日完成审核!</t>
+  </si>
+  <si>
+    <t>MapPage.ExportButton</t>
+  </si>
+  <si>
+    <t>https://tumaxadmin.to8to.com/#/goods/brandManagement</t>
+  </si>
+  <si>
+    <t>点击添加品牌按钮</t>
+  </si>
+  <si>
+    <t>BrandPage.AddBrandButton</t>
+  </si>
+  <si>
+    <t>点击添加品牌LOGO按钮</t>
+  </si>
+  <si>
+    <t>BrandPage.AddBrandLogoButton</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Git\workspace\WEBKeywordsFramework\model\BrandLogo.png</t>
+  </si>
+  <si>
+    <t>输入品牌名称</t>
+  </si>
+  <si>
+    <t>BrandPage.AddBrandNameInput</t>
+  </si>
+  <si>
+    <t>BrandPage.AddBrandSaveButton</t>
+  </si>
+  <si>
+    <t>BrandPage.BrandListFirstName</t>
+  </si>
+  <si>
+    <t>BrandPage.selectBrandInput</t>
+  </si>
+  <si>
+    <t>点击查询按钮</t>
+  </si>
+  <si>
+    <t>BrandPage.selectBrandButton</t>
+  </si>
+  <si>
+    <t>点击编辑品牌按钮</t>
+  </si>
+  <si>
+    <t>BrandPage.UpdateBrandButton</t>
+  </si>
+  <si>
+    <t>点击编辑品牌LOGO按钮</t>
+  </si>
+  <si>
+    <t>BrandPage.UpdateBrandLogoButton</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Git\workspace\WEBKeywordsFramework\model\BrandLogo1.png</t>
+  </si>
+  <si>
+    <t>BrandPage.UpdateBrandNameInput</t>
+  </si>
+  <si>
+    <t>TestBrandCyanUpdate</t>
+  </si>
+  <si>
+    <t>BrandPage.UpdateBrandSaveButton</t>
+  </si>
+  <si>
+    <t>点击添加系列按钮</t>
+  </si>
+  <si>
+    <t>BrandPage.AddSeriesButton</t>
+  </si>
+  <si>
+    <t>输入系列名称</t>
+  </si>
+  <si>
+    <t>BrandPage.AddSeriesInput</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>BrandPage.AddSeriesSaveButton</t>
+  </si>
+  <si>
+    <t>BrandPage.BrandListFirstSeries</t>
+  </si>
+  <si>
+    <t>1.Series;</t>
+  </si>
+  <si>
+    <t>SeriesUpdate</t>
+  </si>
+  <si>
+    <t>1.SeriesUpdate;</t>
+  </si>
+  <si>
+    <t>点击删除系列按钮</t>
+  </si>
+  <si>
+    <t>BrandPage.DeleteSeriesButton</t>
+  </si>
+  <si>
+    <t>点击删除系列确认按钮</t>
+  </si>
+  <si>
+    <t>BrandPage.DeleteSeriesSaveButton</t>
+  </si>
+  <si>
+    <t>BrandPage.BrandListDeleteSeries</t>
+  </si>
+  <si>
+    <t>尚未创建系列，可在编辑中进行创建</t>
+  </si>
+  <si>
+    <t>https://tumaxadmin.to8to.com/#/material/comclassification</t>
+  </si>
+  <si>
+    <t>输入装修公司名称</t>
+  </si>
+  <si>
+    <t>CompanyMaterialPage.QueryInput</t>
+  </si>
+  <si>
+    <t>tumax测试专用装企03</t>
+  </si>
+  <si>
+    <t>CompanyMaterialPage.QueryButton</t>
+  </si>
+  <si>
+    <t>CompanyMaterialPage.AssertCompanyName</t>
+  </si>
+  <si>
+    <t>输入装修公司ID</t>
+  </si>
+  <si>
+    <t>1725353</t>
+  </si>
+  <si>
+    <t>CompanyMaterialPage.AssertCompanyId</t>
+  </si>
+  <si>
+    <t>装企ID：1725353</t>
+  </si>
+  <si>
     <t>测试用例步骤执行失败</t>
-  </si>
-  <si>
-    <t>点击查看按钮</t>
-  </si>
-  <si>
-    <t>viewModelPage.viewModelButton</t>
-  </si>
-  <si>
-    <t>viewModelPage.viewModelReturnButton</t>
-  </si>
-  <si>
-    <t>点击设定专属按钮</t>
-  </si>
-  <si>
-    <t>exclusiveModelPage.setExclusiveModelButton</t>
-  </si>
-  <si>
-    <t>断言元素字符</t>
-  </si>
-  <si>
-    <t>getElementTextAssert</t>
-  </si>
-  <si>
-    <t>exclusiveModelPage.ModelExclusiveState</t>
-  </si>
-  <si>
-    <t>专属</t>
-  </si>
-  <si>
-    <t>点击取消专属按钮</t>
-  </si>
-  <si>
-    <t>exclusiveModelPage.cancelExclusiveModelButton</t>
-  </si>
-  <si>
-    <t>公库</t>
-  </si>
-  <si>
-    <t>点击导出</t>
-  </si>
-  <si>
-    <t>exportModelPage.exportModelButton</t>
-  </si>
-  <si>
-    <t>https://tumaxadmin.to8to.com/#/material/materiallist</t>
-  </si>
-  <si>
-    <t>点击添加材质</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialButton</t>
-  </si>
-  <si>
-    <t>点击上传图片</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addPhotoButton</t>
-  </si>
-  <si>
-    <t>C:\Program Files\Git\workspace\WEBKeywordsFramework\model\3d66Model-589817-files-1.jpg</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>点击重新上传</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialUploadAgain</t>
-  </si>
-  <si>
-    <t>C:\Program Files\Git\workspace\WEBKeywordsFramework\model\3d66Model-589817-files-3.jpg</t>
-  </si>
-  <si>
-    <t>点击删除</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialDelete</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialConfirm</t>
-  </si>
-  <si>
-    <t>暂停3秒</t>
-  </si>
-  <si>
-    <t>输入材质名称</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialName</t>
-  </si>
-  <si>
-    <t>TestMaterialCyan</t>
-  </si>
-  <si>
-    <t>点击材质分类</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialCategory</t>
-  </si>
-  <si>
-    <t>点击材质分类墙纸</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialCategory1</t>
-  </si>
-  <si>
-    <t>点击材质分类墙布</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialCategory2</t>
-  </si>
-  <si>
-    <t>TestStep_33</t>
-  </si>
-  <si>
-    <t>TestStep_34</t>
-  </si>
-  <si>
-    <t>点击高级设置</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialAdvancedSetting</t>
-  </si>
-  <si>
-    <t>TestStep_35</t>
-  </si>
-  <si>
-    <t>TestStep_36</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialAssertString</t>
-  </si>
-  <si>
-    <t>反射效果</t>
-  </si>
-  <si>
-    <t>TestStep_37</t>
-  </si>
-  <si>
-    <t>确认上传</t>
-  </si>
-  <si>
-    <t>addMaterialPage.addMaterialConfirmUpload</t>
-  </si>
-  <si>
-    <t>TestStep_38</t>
-  </si>
-  <si>
-    <t>暂停5秒</t>
-  </si>
-  <si>
-    <t>TestStep_39</t>
-  </si>
-  <si>
-    <t>上传材质</t>
-  </si>
-  <si>
-    <t>TestStep_40</t>
-  </si>
-  <si>
-    <t>点击材质名称</t>
-  </si>
-  <si>
-    <t>selectModelPage.queryMaterialName</t>
-  </si>
-  <si>
-    <t>selectModelPage.queryMaterialNameInput</t>
-  </si>
-  <si>
-    <t>点击禁用</t>
-  </si>
-  <si>
-    <t>MaterialPage.MaterialDisableOrEnableButton</t>
-  </si>
-  <si>
-    <t>输入禁用原因</t>
-  </si>
-  <si>
-    <t>MaterialPage.MaterialDisableReason</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>MaterialPage.MaterialDisableConfirm</t>
-  </si>
-  <si>
-    <t>MaterialPage.MaterialDisableOrEnableState</t>
-  </si>
-  <si>
-    <t>禁用</t>
-  </si>
-  <si>
-    <t>点击启用</t>
-  </si>
-  <si>
-    <t>MaterialPage.MaterialEnableConfirm</t>
-  </si>
-  <si>
-    <t>启用</t>
-  </si>
-  <si>
-    <t>MaterialPage.MaterialSetOrCancelExclusive</t>
-  </si>
-  <si>
-    <t>MaterialPage.MaterialExclusiveState</t>
-  </si>
-  <si>
-    <t>点击查看详情按钮</t>
-  </si>
-  <si>
-    <t>MaterialPage.viewDetailButton</t>
-  </si>
-  <si>
-    <t>截取详情页面</t>
-  </si>
-  <si>
-    <t>takesScreenhot</t>
-  </si>
-  <si>
-    <t>tumax-脚本截图</t>
-  </si>
-  <si>
-    <t>MaterialPage.viewDetailTitle</t>
-  </si>
-  <si>
-    <t>材质详情</t>
-  </si>
-  <si>
-    <t>MaterialPage.viewDetailReturnButton</t>
-  </si>
-  <si>
-    <t>点击修改材质按钮</t>
-  </si>
-  <si>
-    <t>MaterialPage.updateMaterialButton</t>
-  </si>
-  <si>
-    <t>修改材质名称</t>
-  </si>
-  <si>
-    <t>MaterialPage.updateMaterialNameInput</t>
-  </si>
-  <si>
-    <t>TestMaterialCyanUpdate</t>
-  </si>
-  <si>
-    <t>MaterialPage.updateMaterialSaveButton</t>
-  </si>
-  <si>
-    <t>MaterialPage.updateMaterialReturnButton</t>
-  </si>
-  <si>
-    <t>MaterialPage.firstMaterialName</t>
-  </si>
-  <si>
-    <t>点击导出按钮</t>
-  </si>
-  <si>
-    <t>MaterialPage.exportMaterialButton</t>
-  </si>
-  <si>
-    <t>https://tumaxadmin.to8to.com/#/material/texturelist</t>
-  </si>
-  <si>
-    <t>点击添加按钮</t>
-  </si>
-  <si>
-    <t>MapPage.addMapButton</t>
-  </si>
-  <si>
-    <t>输入贴图名称</t>
-  </si>
-  <si>
-    <t>MapPage.MapNameInput</t>
-  </si>
-  <si>
-    <t>TestMapCyan</t>
-  </si>
-  <si>
-    <t>选择贴图类别</t>
-  </si>
-  <si>
-    <t>MapPage.MapCategoryBox</t>
-  </si>
-  <si>
-    <t>MapPage.MapCategoryBox1</t>
-  </si>
-  <si>
-    <t>MapPage.MapCategoryBox2</t>
-  </si>
-  <si>
-    <t>MapPage.MapCategoryBox3</t>
-  </si>
-  <si>
-    <t>输入贴图尺寸</t>
-  </si>
-  <si>
-    <t>MapPage.ImageSizeLongInput</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>MapPage.ImageSizeWideInput</t>
-  </si>
-  <si>
-    <t>选择贴图类型</t>
-  </si>
-  <si>
-    <t>MapPage.MapTypeBox</t>
-  </si>
-  <si>
-    <t>MapPage.MapTypeBox1</t>
-  </si>
-  <si>
-    <t>MapPage.MapTypeBox2</t>
-  </si>
-  <si>
-    <t>点击关键字按钮</t>
-  </si>
-  <si>
-    <t>MapPage.SearchKeywordAddButton</t>
-  </si>
-  <si>
-    <t>输入关键字</t>
-  </si>
-  <si>
-    <t>MapPage.SearchKeywordAddInput</t>
-  </si>
-  <si>
-    <t>点击装修风格按钮</t>
-  </si>
-  <si>
-    <t>MapPage.DecorateStyleButton</t>
-  </si>
-  <si>
-    <t>点击添加规格按钮</t>
-  </si>
-  <si>
-    <t>MapPage.MapSpecificationAddButton</t>
-  </si>
-  <si>
-    <t>输入规格</t>
-  </si>
-  <si>
-    <t>MapPage.MapSpecificationAddInput</t>
-  </si>
-  <si>
-    <t>MapPage.PhotoUploadButton</t>
-  </si>
-  <si>
-    <t>点击确定按钮</t>
-  </si>
-  <si>
-    <t>MapPage.SaveButton</t>
-  </si>
-  <si>
-    <t>MapPage.MapNameAssertString</t>
-  </si>
-  <si>
-    <t>点击贴图名称按钮</t>
-  </si>
-  <si>
-    <t>MapPage.SelectMapNameButton</t>
-  </si>
-  <si>
-    <t>MapPage.SelectMapNameInput</t>
-  </si>
-  <si>
-    <t>MapPage.MapViewDetailButton</t>
-  </si>
-  <si>
-    <t>MapPage.MapViewDetailMapNameLabel</t>
-  </si>
-  <si>
-    <t>点击放回按钮</t>
-  </si>
-  <si>
-    <t>MapPage.MapViewDetailBackButton</t>
-  </si>
-  <si>
-    <t>MapPage.MapListName</t>
-  </si>
-  <si>
-    <t>贴图列表</t>
-  </si>
-  <si>
-    <t>点击禁用按钮</t>
-  </si>
-  <si>
-    <t>MapPage.DisableOrEnableMapButton</t>
-  </si>
-  <si>
-    <t>MapPage.DisableReasonInput</t>
-  </si>
-  <si>
-    <t>点击确认按钮</t>
-  </si>
-  <si>
-    <t>MapPage.ConfirmDisableButton</t>
-  </si>
-  <si>
-    <t>MapPage.MapStateLabel</t>
-  </si>
-  <si>
-    <t>点击启用按钮</t>
-  </si>
-  <si>
-    <t>MapPage.ConfirmEnableButton</t>
-  </si>
-  <si>
-    <t>MapPage.ExclusiveButton</t>
-  </si>
-  <si>
-    <t>MapPage.ExclusiveStateLabel</t>
-  </si>
-  <si>
-    <t>点击编辑贴图按钮</t>
-  </si>
-  <si>
-    <t>MapPage.UpdateMapButton</t>
-  </si>
-  <si>
-    <t>修改贴图名称</t>
-  </si>
-  <si>
-    <t>ForSendKeys</t>
-  </si>
-  <si>
-    <t>MapPage.UpdateMapNameInput</t>
-  </si>
-  <si>
-    <t>TestMapCyanUpdate</t>
-  </si>
-  <si>
-    <t>修改贴图尺寸长</t>
-  </si>
-  <si>
-    <t>MapPage.UpdateMapSizeLongInput</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>修改贴图尺寸宽</t>
-  </si>
-  <si>
-    <t>MapPage.UpdateMapSizeWideInput</t>
-  </si>
-  <si>
-    <t>点击保存按钮</t>
-  </si>
-  <si>
-    <t>MapPage.UpdateSaveButton</t>
-  </si>
-  <si>
-    <t>MapPage.UpdateBackButton</t>
-  </si>
-  <si>
-    <t>点击升级商品按钮</t>
-  </si>
-  <si>
-    <t>MapPage.MapUpGoodsButton</t>
-  </si>
-  <si>
-    <t>输入商品名称</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsNameInput</t>
-  </si>
-  <si>
-    <t>TestMapGoodsCyan</t>
-  </si>
-  <si>
-    <t>输入商品型号</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsTypeInput</t>
-  </si>
-  <si>
-    <t>输入商品编号</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsNumInput</t>
-  </si>
-  <si>
-    <t>9527</t>
-  </si>
-  <si>
-    <t>点击商品品牌</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsBrand</t>
-  </si>
-  <si>
-    <t>输入商品品牌</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsBrandInput</t>
-  </si>
-  <si>
-    <t>TestBrandCyan</t>
-  </si>
-  <si>
-    <t>选择品牌</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsBrandInput1</t>
-  </si>
-  <si>
-    <t>输入商品尺寸长</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsSizeLongInput</t>
-  </si>
-  <si>
-    <t>输入商品尺寸宽</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsSizeWideInput</t>
-  </si>
-  <si>
-    <t>点击计价单位</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsUnitInput</t>
-  </si>
-  <si>
-    <t>选择计价单位</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsUnitValue</t>
-  </si>
-  <si>
-    <t>输入购买链接</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsUrlInput</t>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-  </si>
-  <si>
-    <t>选择商品标签</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsLabelValue</t>
-  </si>
-  <si>
-    <t>输入商品价格</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsPriceInput</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsUploadPhotoButton</t>
-  </si>
-  <si>
-    <t>输入描述内容</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsDescriptionInput</t>
-  </si>
-  <si>
-    <t>TestDescription</t>
-  </si>
-  <si>
-    <t>滚动条移动到顶端</t>
-  </si>
-  <si>
-    <t>scrollBarTop</t>
-  </si>
-  <si>
-    <t>MapPage.MapGoodsSaveButton</t>
-  </si>
-  <si>
-    <t>MapPage.AssertMapGoodsToast</t>
-  </si>
-  <si>
-    <t>升级商品已提交审核，将于1~3个工作日完成审核!</t>
-  </si>
-  <si>
-    <t>MapPage.ExportButton</t>
-  </si>
-  <si>
-    <t>https://tumaxadmin.to8to.com/#/goods/brandManagement</t>
-  </si>
-  <si>
-    <t>点击添加品牌按钮</t>
-  </si>
-  <si>
-    <t>BrandPage.AddBrandButton</t>
-  </si>
-  <si>
-    <t>点击添加品牌LOGO按钮</t>
-  </si>
-  <si>
-    <t>BrandPage.AddBrandLogoButton</t>
-  </si>
-  <si>
-    <t>C:\Program Files\Git\workspace\WEBKeywordsFramework\model\BrandLogo.png</t>
-  </si>
-  <si>
-    <t>输入品牌名称</t>
-  </si>
-  <si>
-    <t>BrandPage.AddBrandNameInput</t>
-  </si>
-  <si>
-    <t>BrandPage.AddBrandSaveButton</t>
-  </si>
-  <si>
-    <t>BrandPage.BrandListFirstName</t>
-  </si>
-  <si>
-    <t>BrandPage.selectBrandInput</t>
-  </si>
-  <si>
-    <t>点击查询按钮</t>
-  </si>
-  <si>
-    <t>BrandPage.selectBrandButton</t>
-  </si>
-  <si>
-    <t>点击编辑品牌按钮</t>
-  </si>
-  <si>
-    <t>BrandPage.UpdateBrandButton</t>
-  </si>
-  <si>
-    <t>点击编辑品牌LOGO按钮</t>
-  </si>
-  <si>
-    <t>BrandPage.UpdateBrandLogoButton</t>
-  </si>
-  <si>
-    <t>C:\Program Files\Git\workspace\WEBKeywordsFramework\model\BrandLogo1.png</t>
-  </si>
-  <si>
-    <t>BrandPage.UpdateBrandNameInput</t>
-  </si>
-  <si>
-    <t>TestBrandCyanUpdate</t>
-  </si>
-  <si>
-    <t>BrandPage.UpdateBrandSaveButton</t>
-  </si>
-  <si>
-    <t>点击添加系列按钮</t>
-  </si>
-  <si>
-    <t>BrandPage.AddSeriesButton</t>
-  </si>
-  <si>
-    <t>输入系列名称</t>
-  </si>
-  <si>
-    <t>BrandPage.AddSeriesInput</t>
-  </si>
-  <si>
-    <t>Series</t>
-  </si>
-  <si>
-    <t>BrandPage.AddSeriesSaveButton</t>
-  </si>
-  <si>
-    <t>BrandPage.BrandListFirstSeries</t>
-  </si>
-  <si>
-    <t>1.Series;</t>
-  </si>
-  <si>
-    <t>SeriesUpdate</t>
-  </si>
-  <si>
-    <t>1.SeriesUpdate;</t>
-  </si>
-  <si>
-    <t>点击删除系列按钮</t>
-  </si>
-  <si>
-    <t>BrandPage.DeleteSeriesButton</t>
-  </si>
-  <si>
-    <t>点击删除系列确认按钮</t>
-  </si>
-  <si>
-    <t>BrandPage.DeleteSeriesSaveButton</t>
-  </si>
-  <si>
-    <t>BrandPage.BrandListDeleteSeries</t>
-  </si>
-  <si>
-    <t>尚未创建系列，可在编辑中进行创建</t>
-  </si>
-  <si>
-    <t>https://tumaxadmin.to8to.com/#/material/comclassification</t>
-  </si>
-  <si>
-    <t>输入装修公司名称</t>
-  </si>
-  <si>
-    <t>CompanyMaterialPage.QueryInput</t>
-  </si>
-  <si>
-    <t>tumax测试专用装企03</t>
-  </si>
-  <si>
-    <t>CompanyMaterialPage.QueryButton</t>
-  </si>
-  <si>
-    <t>CompanyMaterialPage.AssertCompanyName</t>
-  </si>
-  <si>
-    <t>输入装修公司ID</t>
-  </si>
-  <si>
-    <t>1725353</t>
-  </si>
-  <si>
-    <t>CompanyMaterialPage.AssertCompanyId</t>
-  </si>
-  <si>
-    <t>装企ID：1725353</t>
   </si>
   <si>
     <t>https://tumaxadmin.to8to.com/#/material/classification</t>
@@ -1500,9 +1500,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1692,12 +1692,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1705,12 +1699,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,12 +1717,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1764,12 +1746,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1777,12 +1753,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,19 +1788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1843,6 +1801,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1866,7 +1830,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2059,10 +2059,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2071,16 +2071,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2090,10 +2090,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2114,28 +2114,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2144,13 +2144,31 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2159,43 +2177,25 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2616,8 +2616,8 @@
   <sheetPr/>
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2672,80 +2672,80 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2758,10 +2758,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
@@ -2772,10 +2772,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -2786,52 +2786,52 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>6</v>
@@ -2842,13 +2842,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>8</v>
@@ -2856,13 +2856,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>8</v>
@@ -2870,13 +2870,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>8</v>
@@ -2892,128 +2892,128 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3026,10 +3026,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>6</v>
@@ -3040,10 +3040,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>6</v>
@@ -3054,10 +3054,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>6</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>6</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>6</v>
@@ -3096,10 +3096,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>6</v>
@@ -3110,38 +3110,38 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>6</v>
@@ -3240,16 +3240,16 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3268,10 +3268,10 @@
         <v>80</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3290,10 +3290,10 @@
         <v>82</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3304,10 +3304,10 @@
         <v>84</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3318,10 +3318,10 @@
         <v>86</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3332,10 +3332,10 @@
         <v>88</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3346,10 +3346,10 @@
         <v>90</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3360,10 +3360,10 @@
         <v>92</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3378,8 +3378,8 @@
   <sheetPr/>
   <dimension ref="A1:G440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="D282" sqref="D282"/>
+    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="E392" sqref="E392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="11" ht="27" spans="1:7">
       <c r="A11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>98</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>103</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>107</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>111</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>116</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>120</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>124</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>126</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>140</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>141</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>143</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>144</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>146</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>147</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>150</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>151</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>153</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>156</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>159</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>162</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>165</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>168</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>169</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>171</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="35" ht="40.5" spans="1:7">
       <c r="A35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>173</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>177</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>178</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>179</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>180</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>183</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>184</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>188</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="44" ht="27" spans="1:7">
       <c r="A44" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>98</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="45" ht="27" spans="1:7">
       <c r="A45" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>103</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>107</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>111</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>116</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>120</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>124</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>126</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="53" ht="27" spans="1:7">
       <c r="A53" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>98</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>103</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>107</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>111</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>116</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="59" ht="27" spans="1:7">
       <c r="A59" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>98</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>103</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>107</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>111</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>116</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>120</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>124</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>126</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>140</v>
@@ -4752,13 +4752,13 @@
         <v>197</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>102</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>141</v>
@@ -4787,19 +4787,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>122</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="7" t="s">
@@ -4808,7 +4808,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>144</v>
@@ -4829,19 +4829,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>122</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="7" t="s">
@@ -4850,7 +4850,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>144</v>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>102</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>146</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>102</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>147</v>
@@ -4905,10 +4905,10 @@
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4924,7 +4924,7 @@
     </row>
     <row r="76" ht="27" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>98</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>103</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>107</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>111</v>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>116</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>120</v>
@@ -5050,7 +5050,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>124</v>
@@ -5066,12 +5066,12 @@
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="7" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>126</v>
@@ -5084,21 +5084,21 @@
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>122</v>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>141</v>
@@ -5126,10 +5126,10 @@
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -5145,7 +5145,7 @@
     </row>
     <row r="87" ht="27" spans="1:7">
       <c r="A87" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>98</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>103</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>107</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>111</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>116</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>120</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="93" ht="27" spans="1:7">
       <c r="A93" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>124</v>
@@ -5287,12 +5287,12 @@
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="7" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>126</v>
@@ -5310,12 +5310,12 @@
         <v>215</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" ht="27" spans="1:7">
       <c r="A95" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>140</v>
@@ -5331,12 +5331,12 @@
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>141</v>
@@ -5354,7 +5354,7 @@
         <v>218</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5370,7 +5370,7 @@
     </row>
     <row r="98" ht="27" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>98</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>103</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>107</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="102" ht="27" spans="1:7">
       <c r="A102" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>98</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>103</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>107</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>111</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -5582,7 +5582,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="112" ht="27" spans="1:7">
       <c r="A112" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>98</v>
@@ -5622,12 +5622,12 @@
         <v>221</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>103</v>
@@ -5643,12 +5643,12 @@
         <v>110</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>107</v>
@@ -5664,12 +5664,12 @@
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>111</v>
@@ -5685,12 +5685,12 @@
         <v>110</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>116</v>
@@ -5706,12 +5706,12 @@
       </c>
       <c r="F116" s="20"/>
       <c r="G116" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>120</v>
@@ -5727,12 +5727,12 @@
         <v>125</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" ht="54" spans="1:7">
       <c r="A118" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>124</v>
@@ -5748,12 +5748,12 @@
         <v>226</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>126</v>
@@ -5769,12 +5769,12 @@
         <v>125</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>140</v>
@@ -5788,12 +5788,12 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>141</v>
@@ -5809,12 +5809,12 @@
         <v>227</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>143</v>
@@ -5830,12 +5830,12 @@
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>144</v>
@@ -5851,12 +5851,12 @@
         <v>125</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" ht="54" spans="1:7">
       <c r="A124" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>146</v>
@@ -5872,12 +5872,12 @@
         <v>230</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>147</v>
@@ -5893,12 +5893,12 @@
         <v>125</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>150</v>
@@ -5912,12 +5912,12 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>151</v>
@@ -5933,12 +5933,12 @@
         <v>227</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>153</v>
@@ -5954,12 +5954,12 @@
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>156</v>
@@ -5975,12 +5975,12 @@
         <v>110</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>159</v>
@@ -5996,12 +5996,12 @@
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>162</v>
@@ -6017,12 +6017,12 @@
         <v>110</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>165</v>
@@ -6038,12 +6038,12 @@
       </c>
       <c r="F132" s="20"/>
       <c r="G132" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>168</v>
@@ -6059,12 +6059,12 @@
         <v>110</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134" ht="54" spans="1:7">
       <c r="A134" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>169</v>
@@ -6080,12 +6080,12 @@
         <v>226</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>171</v>
@@ -6101,12 +6101,12 @@
         <v>125</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>173</v>
@@ -6120,12 +6120,12 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>177</v>
@@ -6141,12 +6141,12 @@
         <v>227</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>178</v>
@@ -6164,12 +6164,12 @@
         <v>237</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>179</v>
@@ -6185,12 +6185,12 @@
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>180</v>
@@ -6206,12 +6206,12 @@
         <v>110</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>183</v>
@@ -6227,12 +6227,12 @@
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>184</v>
@@ -6248,12 +6248,12 @@
         <v>110</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>188</v>
@@ -6269,12 +6269,12 @@
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>244</v>
@@ -6290,12 +6290,12 @@
         <v>110</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" ht="27" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>245</v>
@@ -6311,12 +6311,12 @@
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>248</v>
@@ -6332,12 +6332,12 @@
         <v>125</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>249</v>
@@ -6355,12 +6355,12 @@
         <v>251</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>252</v>
@@ -6376,12 +6376,12 @@
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>255</v>
@@ -6394,15 +6394,15 @@
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>257</v>
@@ -6418,12 +6418,12 @@
         <v>258</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>259</v>
@@ -6439,7 +6439,7 @@
         <v>237</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -6455,7 +6455,7 @@
     </row>
     <row r="153" ht="27" spans="1:7">
       <c r="A153" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>98</v>
@@ -6471,12 +6471,12 @@
         <v>221</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>103</v>
@@ -6492,12 +6492,12 @@
         <v>110</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>107</v>
@@ -6513,12 +6513,12 @@
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>111</v>
@@ -6536,12 +6536,12 @@
         <v>237</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>116</v>
@@ -6555,7 +6555,7 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -6571,7 +6571,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>98</v>
@@ -6587,12 +6587,12 @@
         <v>125</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160" ht="27" spans="1:7">
       <c r="A160" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>103</v>
@@ -6608,12 +6608,12 @@
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>107</v>
@@ -6631,12 +6631,12 @@
         <v>267</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>111</v>
@@ -6652,12 +6652,12 @@
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" ht="27" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>116</v>
@@ -6675,7 +6675,7 @@
         <v>270</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -6691,7 +6691,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>98</v>
@@ -6707,12 +6707,12 @@
         <v>125</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="166" ht="27" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>103</v>
@@ -6728,12 +6728,12 @@
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>107</v>
@@ -6749,12 +6749,12 @@
         <v>110</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>111</v>
@@ -6770,12 +6770,12 @@
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="169" ht="27" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>116</v>
@@ -6793,7 +6793,7 @@
         <v>273</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -6809,7 +6809,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>98</v>
@@ -6825,12 +6825,12 @@
         <v>125</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172" ht="27" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>103</v>
@@ -6846,12 +6846,12 @@
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>107</v>
@@ -6869,7 +6869,7 @@
         <v>215</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6885,7 +6885,7 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>98</v>
@@ -6901,12 +6901,12 @@
         <v>125</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176" ht="27" spans="1:7">
       <c r="A176" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>103</v>
@@ -6922,12 +6922,12 @@
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>107</v>
@@ -6945,7 +6945,7 @@
         <v>218</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6961,7 +6961,7 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>98</v>
@@ -6977,12 +6977,12 @@
         <v>125</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>103</v>
@@ -6998,12 +6998,12 @@
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>107</v>
@@ -7019,12 +7019,12 @@
         <v>125</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>111</v>
@@ -7040,12 +7040,12 @@
         <v>280</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>116</v>
@@ -7063,12 +7063,12 @@
         <v>282</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>120</v>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="185" customFormat="1" spans="1:7">
@@ -7100,7 +7100,7 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>98</v>
@@ -7116,12 +7116,12 @@
         <v>125</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>103</v>
@@ -7137,12 +7137,12 @@
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>107</v>
@@ -7160,12 +7160,12 @@
         <v>237</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>111</v>
@@ -7179,12 +7179,12 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>116</v>
@@ -7200,12 +7200,12 @@
         <v>110</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>120</v>
@@ -7221,12 +7221,12 @@
       </c>
       <c r="F191" s="5"/>
       <c r="G191" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>124</v>
@@ -7242,12 +7242,12 @@
         <v>125</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>126</v>
@@ -7256,7 +7256,7 @@
         <v>286</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>287</v>
@@ -7265,18 +7265,18 @@
         <v>288</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>122</v>
@@ -7286,12 +7286,12 @@
       </c>
       <c r="F194" s="5"/>
       <c r="G194" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>141</v>
@@ -7307,18 +7307,18 @@
         <v>125</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>122</v>
@@ -7328,12 +7328,12 @@
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>144</v>
@@ -7349,12 +7349,12 @@
         <v>227</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>146</v>
@@ -7370,12 +7370,12 @@
       </c>
       <c r="F198" s="5"/>
       <c r="G198" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>147</v>
@@ -7393,12 +7393,12 @@
         <v>288</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>150</v>
@@ -7412,12 +7412,12 @@
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>151</v>
@@ -7433,12 +7433,12 @@
         <v>110</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>153</v>
@@ -7456,7 +7456,7 @@
         <v>288</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -7472,7 +7472,7 @@
     </row>
     <row r="204" ht="27" spans="1:7">
       <c r="A204" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>98</v>
@@ -7488,12 +7488,12 @@
         <v>221</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>103</v>
@@ -7509,12 +7509,12 @@
         <v>110</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>107</v>
@@ -7530,7 +7530,7 @@
       </c>
       <c r="F206" s="5"/>
       <c r="G206" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -7546,7 +7546,7 @@
     </row>
     <row r="208" ht="27" spans="1:7">
       <c r="A208" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>98</v>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>103</v>
@@ -7588,7 +7588,7 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>107</v>
@@ -7611,7 +7611,7 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>111</v>
@@ -7632,7 +7632,7 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>116</v>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>120</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>124</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>126</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>140</v>
@@ -7741,7 +7741,7 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>141</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>143</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>144</v>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>146</v>
@@ -7825,7 +7825,7 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>147</v>
@@ -7848,7 +7848,7 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>150</v>
@@ -7867,7 +7867,7 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>151</v>
@@ -7888,7 +7888,7 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>153</v>
@@ -7909,7 +7909,7 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>156</v>
@@ -7932,7 +7932,7 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>159</v>
@@ -7951,7 +7951,7 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>162</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>165</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="229" ht="54" spans="1:7">
       <c r="A229" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>168</v>
@@ -8014,7 +8014,7 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>169</v>
@@ -8035,7 +8035,7 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>171</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>173</v>
@@ -8075,7 +8075,7 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>177</v>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>178</v>
@@ -8130,7 +8130,7 @@
     </row>
     <row r="236" ht="27" spans="1:7">
       <c r="A236" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>98</v>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>103</v>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>107</v>
@@ -8195,7 +8195,7 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>111</v>
@@ -8214,7 +8214,7 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>116</v>
@@ -8248,7 +8248,7 @@
     </row>
     <row r="242" ht="27" spans="1:7">
       <c r="A242" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>98</v>
@@ -8269,7 +8269,7 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>103</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>107</v>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>111</v>
@@ -8332,7 +8332,7 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>111</v>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>116</v>
@@ -8376,7 +8376,7 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>120</v>
@@ -8397,7 +8397,7 @@
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>124</v>
@@ -8431,7 +8431,7 @@
     </row>
     <row r="251" ht="27" spans="1:7">
       <c r="A251" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>98</v>
@@ -8452,7 +8452,7 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>103</v>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>107</v>
@@ -8496,7 +8496,7 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>111</v>
@@ -8515,7 +8515,7 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>111</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>116</v>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>120</v>
@@ -8580,7 +8580,7 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>124</v>
@@ -8614,7 +8614,7 @@
     </row>
     <row r="260" ht="27" spans="1:7">
       <c r="A260" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>98</v>
@@ -8635,7 +8635,7 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>103</v>
@@ -8656,7 +8656,7 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>107</v>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>111</v>
@@ -8698,7 +8698,7 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>111</v>
@@ -8719,7 +8719,7 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>116</v>
@@ -8740,7 +8740,7 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>120</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="268" ht="27" spans="1:7">
       <c r="A268" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>98</v>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>103</v>
@@ -8816,7 +8816,7 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>107</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>111</v>
@@ -8858,7 +8858,7 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>116</v>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>120</v>
@@ -8902,7 +8902,7 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>124</v>
@@ -8923,7 +8923,7 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>126</v>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="277" ht="27" spans="1:7">
       <c r="A277" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>98</v>
@@ -8978,7 +8978,7 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>103</v>
@@ -8999,7 +8999,7 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>107</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>111</v>
@@ -9041,7 +9041,7 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>116</v>
@@ -9062,7 +9062,7 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>120</v>
@@ -9071,13 +9071,13 @@
         <v>348</v>
       </c>
       <c r="D282" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E282" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="E282" s="5" t="s">
+      <c r="F282" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="F282" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="G282" s="7" t="s">
         <v>102</v>
@@ -9085,22 +9085,22 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E283" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F283" s="33" t="s">
         <v>353</v>
-      </c>
-      <c r="F283" s="33" t="s">
-        <v>354</v>
       </c>
       <c r="G283" s="7" t="s">
         <v>102</v>
@@ -9108,22 +9108,22 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F284" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G284" s="7" t="s">
         <v>102</v>
@@ -9131,19 +9131,19 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C285" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E285" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="D285" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E285" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="F285" s="5"/>
       <c r="G285" s="7" t="s">
@@ -9152,19 +9152,19 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F286" s="5"/>
       <c r="G286" s="7" t="s">
@@ -9173,7 +9173,7 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>143</v>
@@ -9194,7 +9194,7 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>144</v>
@@ -9209,7 +9209,7 @@
         <v>329</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G288" s="7" t="s">
         <v>102</v>
@@ -9217,7 +9217,7 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>146</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>147</v>
@@ -9251,10 +9251,10 @@
         <v>326</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G290" s="7" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -9270,7 +9270,7 @@
     </row>
     <row r="292" ht="27" spans="1:7">
       <c r="A292" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>98</v>
@@ -9291,7 +9291,7 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>103</v>
@@ -9312,7 +9312,7 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>107</v>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>111</v>
@@ -9354,317 +9354,317 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C296" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E296" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="D296" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E296" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="F296" s="5"/>
       <c r="G296" s="7" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D297" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E297" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F297" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="F297" s="5" t="s">
-        <v>364</v>
-      </c>
       <c r="G297" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D298" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F298" s="5" t="s">
         <v>267</v>
       </c>
       <c r="G298" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D299" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E299" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F299" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="F299" s="33" t="s">
-        <v>369</v>
-      </c>
       <c r="G299" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C300" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E300" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="D300" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E300" s="5" t="s">
-        <v>371</v>
       </c>
       <c r="F300" s="5"/>
       <c r="G300" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E301" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F301" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F301" s="5" t="s">
-        <v>374</v>
-      </c>
       <c r="G301" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C302" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E302" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="D302" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E302" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="F302" s="5"/>
       <c r="G302" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F303" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G303" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F304" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G304" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C305" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E305" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="D305" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E305" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="F305" s="5"/>
       <c r="G305" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C306" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E306" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="D306" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E306" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="F306" s="5"/>
       <c r="G306" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E307" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F307" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="F307" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="G307" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C308" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E308" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="D308" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E308" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="F308" s="5"/>
       <c r="G308" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D309" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F309" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G309" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>159</v>
@@ -9676,16 +9676,16 @@
         <v>122</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F310" s="5"/>
       <c r="G310" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>162</v>
@@ -9701,12 +9701,12 @@
         <v>125</v>
       </c>
       <c r="G311" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="312" ht="54" spans="1:7">
       <c r="A312" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>165</v>
@@ -9722,12 +9722,12 @@
         <v>226</v>
       </c>
       <c r="G312" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>168</v>
@@ -9743,12 +9743,12 @@
         <v>125</v>
       </c>
       <c r="G313" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>169</v>
@@ -9762,12 +9762,12 @@
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
       <c r="G314" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>171</v>
@@ -9783,75 +9783,75 @@
         <v>227</v>
       </c>
       <c r="G315" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D316" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E316" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F316" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="F316" s="5" t="s">
-        <v>395</v>
-      </c>
       <c r="G316" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C317" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D317" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="D317" s="17" t="s">
-        <v>397</v>
       </c>
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
       <c r="G317" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B318" s="4" t="s">
         <v>178</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D318" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F318" s="5"/>
       <c r="G318" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="319" ht="27" spans="1:7">
       <c r="A319" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>179</v>
@@ -9863,13 +9863,13 @@
         <v>213</v>
       </c>
       <c r="E319" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F319" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="F319" s="5" t="s">
-        <v>400</v>
-      </c>
       <c r="G319" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -9885,7 +9885,7 @@
     </row>
     <row r="321" ht="27" spans="1:7">
       <c r="A321" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>98</v>
@@ -9906,7 +9906,7 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>103</v>
@@ -9918,7 +9918,7 @@
         <v>122</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F322" s="5"/>
       <c r="G322" s="7" t="s">
@@ -9951,10 +9951,10 @@
       </c>
       <c r="E324" s="5"/>
       <c r="F324" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G324" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -9965,17 +9965,17 @@
         <v>103</v>
       </c>
       <c r="C325" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E325" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="D325" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E325" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="F325" s="5"/>
       <c r="G325" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -9986,17 +9986,17 @@
         <v>107</v>
       </c>
       <c r="C326" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E326" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="D326" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E326" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="F326" s="5"/>
       <c r="G326" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -10017,7 +10017,7 @@
         <v>125</v>
       </c>
       <c r="G327" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="328" ht="40.5" spans="1:7">
@@ -10035,10 +10035,10 @@
       </c>
       <c r="E328" s="5"/>
       <c r="F328" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G328" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -10059,7 +10059,7 @@
         <v>125</v>
       </c>
       <c r="G329" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -10078,7 +10078,7 @@
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
       <c r="G330" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -10099,7 +10099,7 @@
         <v>227</v>
       </c>
       <c r="G331" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -10110,19 +10110,19 @@
         <v>140</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D332" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G332" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -10139,11 +10139,11 @@
         <v>122</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F333" s="5"/>
       <c r="G333" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -10160,13 +10160,13 @@
         <v>213</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G334" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -10182,7 +10182,7 @@
     </row>
     <row r="336" ht="27" spans="1:7">
       <c r="A336" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>98</v>
@@ -10195,59 +10195,59 @@
       </c>
       <c r="E336" s="5"/>
       <c r="F336" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G336" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B337" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D337" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G337" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C338" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E338" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="D338" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E338" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="F338" s="5"/>
       <c r="G338" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>111</v>
@@ -10259,13 +10259,13 @@
         <v>213</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G339" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -10281,7 +10281,7 @@
     </row>
     <row r="341" ht="27" spans="1:7">
       <c r="A341" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B341" s="4" t="s">
         <v>98</v>
@@ -10294,101 +10294,101 @@
       </c>
       <c r="E341" s="5"/>
       <c r="F341" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G341" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D342" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G342" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B343" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C343" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E343" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="D343" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E343" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="F343" s="5"/>
       <c r="G343" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C344" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E344" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="D344" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E344" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="F344" s="5"/>
       <c r="G344" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C345" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E345" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="D345" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E345" s="5" t="s">
-        <v>418</v>
       </c>
       <c r="F345" s="5"/>
       <c r="G345" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>120</v>
@@ -10404,12 +10404,12 @@
         <v>125</v>
       </c>
       <c r="G346" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="347" ht="40.5" spans="1:7">
       <c r="A347" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>124</v>
@@ -10422,15 +10422,15 @@
       </c>
       <c r="E347" s="5"/>
       <c r="F347" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G347" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>126</v>
@@ -10446,12 +10446,12 @@
         <v>125</v>
       </c>
       <c r="G348" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>140</v>
@@ -10465,12 +10465,12 @@
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
       <c r="G349" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B350" s="4" t="s">
         <v>141</v>
@@ -10486,35 +10486,35 @@
         <v>227</v>
       </c>
       <c r="G350" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B351" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D351" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E351" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F351" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="F351" s="5" t="s">
-        <v>421</v>
-      </c>
       <c r="G351" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B352" s="4" t="s">
         <v>144</v>
@@ -10526,16 +10526,16 @@
         <v>122</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F352" s="5"/>
       <c r="G352" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>146</v>
@@ -10547,13 +10547,13 @@
         <v>213</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G353" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -10569,7 +10569,7 @@
     </row>
     <row r="355" ht="27" spans="1:7">
       <c r="A355" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>98</v>
@@ -10582,124 +10582,124 @@
       </c>
       <c r="E355" s="5"/>
       <c r="F355" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G355" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D356" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G356" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C357" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E357" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="D357" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E357" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="F357" s="5"/>
       <c r="G357" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C358" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E358" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="D358" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E358" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="F358" s="5"/>
       <c r="G358" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C359" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E359" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="D359" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E359" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="F359" s="5"/>
       <c r="G359" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D360" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E360" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F360" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="F360" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="G360" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>124</v>
@@ -10711,16 +10711,16 @@
         <v>122</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F361" s="5"/>
       <c r="G361" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B362" s="4" t="s">
         <v>126</v>
@@ -10732,13 +10732,13 @@
         <v>213</v>
       </c>
       <c r="E362" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F362" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="F362" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="G362" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -10754,7 +10754,7 @@
     </row>
     <row r="364" ht="27" spans="1:7">
       <c r="A364" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>98</v>
@@ -10767,103 +10767,103 @@
       </c>
       <c r="E364" s="5"/>
       <c r="F364" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G364" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D365" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G365" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C366" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E366" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="D366" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E366" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="F366" s="5"/>
       <c r="G366" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C367" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E367" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="D367" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E367" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="F367" s="5"/>
       <c r="G367" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D368" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G368" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>120</v>
@@ -10875,16 +10875,16 @@
         <v>122</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F369" s="5"/>
       <c r="G369" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>124</v>
@@ -10896,13 +10896,13 @@
         <v>213</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G370" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -10918,7 +10918,7 @@
     </row>
     <row r="372" ht="27" spans="1:7">
       <c r="A372" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>98</v>
@@ -10931,122 +10931,122 @@
       </c>
       <c r="E372" s="5"/>
       <c r="F372" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G372" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="373" spans="1:7">
       <c r="A373" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D373" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G373" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C374" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E374" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="D374" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E374" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="F374" s="5"/>
       <c r="G374" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="375" spans="1:7">
       <c r="A375" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C375" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D375" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E375" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="D375" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E375" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="F375" s="5"/>
       <c r="G375" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="376" spans="1:7">
       <c r="A376" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C376" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D376" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E376" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="D376" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E376" s="5" t="s">
-        <v>434</v>
       </c>
       <c r="F376" s="5"/>
       <c r="G376" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C377" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D377" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E377" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D377" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E377" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="F377" s="5"/>
       <c r="G377" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="378" spans="1:7">
       <c r="A378" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>124</v>
@@ -11058,16 +11058,16 @@
         <v>122</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F378" s="5"/>
       <c r="G378" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>126</v>
@@ -11079,13 +11079,13 @@
         <v>213</v>
       </c>
       <c r="E379" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F379" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="F379" s="5" t="s">
-        <v>438</v>
-      </c>
       <c r="G379" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -11114,10 +11114,10 @@
       </c>
       <c r="E381" s="5"/>
       <c r="F381" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G381" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -11128,19 +11128,19 @@
         <v>103</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D382" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E382" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F382" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="F382" s="5" t="s">
-        <v>442</v>
-      </c>
       <c r="G382" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -11151,17 +11151,17 @@
         <v>107</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D383" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F383" s="5"/>
       <c r="G383" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -11178,13 +11178,13 @@
         <v>213</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F384" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G384" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -11195,19 +11195,19 @@
         <v>116</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D385" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F385" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G385" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -11218,17 +11218,17 @@
         <v>120</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D386" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E386" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F386" s="5"/>
       <c r="G386" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -11245,13 +11245,13 @@
         <v>213</v>
       </c>
       <c r="E387" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F387" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="F387" s="5" t="s">
+      <c r="G387" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="G387" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -11267,7 +11267,7 @@
     </row>
     <row r="389" ht="27" spans="1:7">
       <c r="A389" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B389" s="4" t="s">
         <v>98</v>
@@ -11283,12 +11283,12 @@
         <v>449</v>
       </c>
       <c r="G389" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="390" ht="27" spans="1:7">
       <c r="A390" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>103</v>
@@ -11306,7 +11306,7 @@
         <v>453</v>
       </c>
       <c r="G390" s="7" t="s">
-        <v>8</v>
+        <v>448</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -11338,7 +11338,7 @@
         <v>454</v>
       </c>
       <c r="G392" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -11356,10 +11356,10 @@
       </c>
       <c r="E393" s="5"/>
       <c r="F393" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G393" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -11379,10 +11379,10 @@
         <v>458</v>
       </c>
       <c r="F394" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G394" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>111</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D395" s="5" t="s">
         <v>122</v>
@@ -11403,7 +11403,7 @@
       </c>
       <c r="F395" s="5"/>
       <c r="G395" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -11423,10 +11423,10 @@
         <v>460</v>
       </c>
       <c r="F396" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G396" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -11458,7 +11458,7 @@
         <v>454</v>
       </c>
       <c r="G398" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -11478,10 +11478,10 @@
         <v>458</v>
       </c>
       <c r="F399" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G399" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -11492,7 +11492,7 @@
         <v>107</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D400" s="5" t="s">
         <v>122</v>
@@ -11502,7 +11502,7 @@
       </c>
       <c r="F400" s="5"/>
       <c r="G400" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -11523,7 +11523,7 @@
       </c>
       <c r="F401" s="5"/>
       <c r="G401" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -11543,10 +11543,10 @@
         <v>462</v>
       </c>
       <c r="F402" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G402" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -11569,7 +11569,7 @@
         <v>267</v>
       </c>
       <c r="G403" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -11580,7 +11580,7 @@
         <v>124</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D404" s="5" t="s">
         <v>122</v>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="F404" s="5"/>
       <c r="G404" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -11622,7 +11622,7 @@
         <v>454</v>
       </c>
       <c r="G406" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -11642,10 +11642,10 @@
         <v>458</v>
       </c>
       <c r="F407" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G407" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -11656,7 +11656,7 @@
         <v>107</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D408" s="5" t="s">
         <v>122</v>
@@ -11666,7 +11666,7 @@
       </c>
       <c r="F408" s="5"/>
       <c r="G408" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -11687,7 +11687,7 @@
       </c>
       <c r="F409" s="5"/>
       <c r="G409" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -11708,7 +11708,7 @@
       </c>
       <c r="F410" s="5"/>
       <c r="G410" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="F411" s="5"/>
       <c r="G411" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="F412" s="5"/>
       <c r="G412" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -11773,7 +11773,7 @@
         <v>267</v>
       </c>
       <c r="G413" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -11784,7 +11784,7 @@
         <v>140</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D414" s="5" t="s">
         <v>122</v>
@@ -11794,7 +11794,7 @@
       </c>
       <c r="F414" s="5"/>
       <c r="G414" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -11817,7 +11817,7 @@
         <v>474</v>
       </c>
       <c r="G415" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -11840,7 +11840,7 @@
         <v>476</v>
       </c>
       <c r="G416" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -11872,7 +11872,7 @@
         <v>454</v>
       </c>
       <c r="G418" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -11892,10 +11892,10 @@
         <v>458</v>
       </c>
       <c r="F419" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G419" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -11906,7 +11906,7 @@
         <v>107</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D420" s="5" t="s">
         <v>122</v>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="F420" s="5"/>
       <c r="G420" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="F421" s="5"/>
       <c r="G421" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="F422" s="5"/>
       <c r="G422" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -11979,7 +11979,7 @@
       </c>
       <c r="F423" s="5"/>
       <c r="G423" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -12000,7 +12000,7 @@
       </c>
       <c r="F424" s="5"/>
       <c r="G424" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -12023,7 +12023,7 @@
         <v>476</v>
       </c>
       <c r="G425" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -12055,7 +12055,7 @@
         <v>454</v>
       </c>
       <c r="G427" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -12073,10 +12073,10 @@
       </c>
       <c r="E428" s="5"/>
       <c r="F428" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G428" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -12096,10 +12096,10 @@
         <v>458</v>
       </c>
       <c r="F429" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G429" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -12110,7 +12110,7 @@
         <v>111</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D430" s="5" t="s">
         <v>122</v>
@@ -12120,7 +12120,7 @@
       </c>
       <c r="F430" s="5"/>
       <c r="G430" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="F431" s="5"/>
       <c r="G431" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -12162,7 +12162,7 @@
       </c>
       <c r="F432" s="5"/>
       <c r="G432" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="F433" s="5"/>
       <c r="G433" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="434" ht="27" spans="1:7">
@@ -12202,7 +12202,7 @@
       </c>
       <c r="F434" s="5"/>
       <c r="G434" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="F435" s="5"/>
       <c r="G435" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -12246,7 +12246,7 @@
         <v>489</v>
       </c>
       <c r="G436" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -12269,7 +12269,7 @@
         <v>489</v>
       </c>
       <c r="G437" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -12301,7 +12301,7 @@
         <v>454</v>
       </c>
       <c r="G439" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -12321,10 +12321,10 @@
         <v>491</v>
       </c>
       <c r="F440" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G440" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
